--- a/planilhas_diarias/2021-02-02.xlsx
+++ b/planilhas_diarias/2021-02-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="210">
   <si>
     <t>Asset</t>
   </si>
@@ -58,6 +58,9 @@
     <t>VVAR3</t>
   </si>
   <si>
+    <t>VIVA3</t>
+  </si>
+  <si>
     <t>VALE3</t>
   </si>
   <si>
@@ -76,9 +79,6 @@
     <t>TGMA3</t>
   </si>
   <si>
-    <t>TFCO4</t>
-  </si>
-  <si>
     <t>TASA4</t>
   </si>
   <si>
@@ -115,6 +115,9 @@
     <t>RENT3</t>
   </si>
   <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
     <t>RAPT4</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>POSI3</t>
   </si>
   <si>
+    <t>PGMN3</t>
+  </si>
+  <si>
     <t>PETZ3</t>
   </si>
   <si>
@@ -151,6 +157,9 @@
     <t>NGRD3</t>
   </si>
   <si>
+    <t>NEOE3</t>
+  </si>
+  <si>
     <t>MULT3</t>
   </si>
   <si>
@@ -175,6 +184,9 @@
     <t>LOGN3</t>
   </si>
   <si>
+    <t>LJQQ3</t>
+  </si>
+  <si>
     <t>LIGT3</t>
   </si>
   <si>
@@ -199,6 +211,12 @@
     <t>ITSA4</t>
   </si>
   <si>
+    <t>IBOV</t>
+  </si>
+  <si>
+    <t>HBSA3</t>
+  </si>
+  <si>
     <t>HAPV3</t>
   </si>
   <si>
@@ -211,6 +229,9 @@
     <t>GNDI3</t>
   </si>
   <si>
+    <t>GMAT3</t>
+  </si>
+  <si>
     <t>FLRY3</t>
   </si>
   <si>
@@ -220,9 +241,15 @@
     <t>ETER3</t>
   </si>
   <si>
+    <t>ESPA3</t>
+  </si>
+  <si>
     <t>EQTL3</t>
   </si>
   <si>
+    <t>ENJU3</t>
+  </si>
+  <si>
     <t>ENEV3</t>
   </si>
   <si>
@@ -241,6 +268,9 @@
     <t>CVCB3</t>
   </si>
   <si>
+    <t>CURY3</t>
+  </si>
+  <si>
     <t>CSNA3</t>
   </si>
   <si>
@@ -259,6 +289,9 @@
     <t>CCRO3</t>
   </si>
   <si>
+    <t>CASH3</t>
+  </si>
+  <si>
     <t>CARD3</t>
   </si>
   <si>
@@ -280,6 +313,9 @@
     <t>BOAS3</t>
   </si>
   <si>
+    <t>BMGB4</t>
+  </si>
+  <si>
     <t>BIDI11</t>
   </si>
   <si>
@@ -301,60 +337,15 @@
     <t>ARZZ3</t>
   </si>
   <si>
+    <t>AMBP3</t>
+  </si>
+  <si>
     <t>ALPA4</t>
   </si>
   <si>
-    <t>AMBP3</t>
-  </si>
-  <si>
-    <t>BMGB4</t>
-  </si>
-  <si>
-    <t>PGMN3</t>
-  </si>
-  <si>
-    <t>GMAT3</t>
-  </si>
-  <si>
-    <t>ESPA3</t>
-  </si>
-  <si>
-    <t>LJQQ3</t>
-  </si>
-  <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
-    <t>ENJU3</t>
-  </si>
-  <si>
-    <t>CASH3</t>
-  </si>
-  <si>
     <t>AERI3</t>
   </si>
   <si>
-    <t>CURY3</t>
-  </si>
-  <si>
-    <t>DMVF3</t>
-  </si>
-  <si>
-    <t>HBSA3</t>
-  </si>
-  <si>
-    <t>NEOE3</t>
-  </si>
-  <si>
-    <t>VIVA3</t>
-  </si>
-  <si>
-    <t>IBOV</t>
-  </si>
-  <si>
-    <t>WINFUT</t>
-  </si>
-  <si>
     <t>02/02/2021</t>
   </si>
   <si>
@@ -367,6 +358,9 @@
     <t>Viavarejo ON NM</t>
   </si>
   <si>
+    <t>Vivara S.A. ON NM</t>
+  </si>
+  <si>
     <t>Vale ON NM</t>
   </si>
   <si>
@@ -385,9 +379,6 @@
     <t>Tegma ON NM</t>
   </si>
   <si>
-    <t>Track Field PN N2</t>
-  </si>
-  <si>
     <t>Taurus Armas PN N2</t>
   </si>
   <si>
@@ -424,6 +415,9 @@
     <t>Localiza ON NM</t>
   </si>
   <si>
+    <t>Rede D Or ON NM</t>
+  </si>
+  <si>
     <t>Randon Part PN N1</t>
   </si>
   <si>
@@ -445,6 +439,9 @@
     <t>Positivo Tec ON NM</t>
   </si>
   <si>
+    <t>Pague Menos ON NM</t>
+  </si>
+  <si>
     <t>Petz ON NM</t>
   </si>
   <si>
@@ -460,6 +457,9 @@
     <t>Neogrid ON NM</t>
   </si>
   <si>
+    <t>Neoenergia ON NM</t>
+  </si>
+  <si>
     <t>Multiplan ON N2</t>
   </si>
   <si>
@@ -484,6 +484,9 @@
     <t>Log-In ON NM</t>
   </si>
   <si>
+    <t>Quero-Quero ON NM</t>
+  </si>
+  <si>
     <t>Light S/A ON NM</t>
   </si>
   <si>
@@ -508,6 +511,12 @@
     <t>Itausa PN EJ N1</t>
   </si>
   <si>
+    <t>Ibovespa</t>
+  </si>
+  <si>
+    <t>Hidrovias ON NM</t>
+  </si>
+  <si>
     <t>Hapvida ON NM</t>
   </si>
   <si>
@@ -520,6 +529,9 @@
     <t>Intermedica ON NM</t>
   </si>
   <si>
+    <t>Grupo Mateus ON NM</t>
+  </si>
+  <si>
     <t>Fleury ON NM</t>
   </si>
   <si>
@@ -529,9 +541,15 @@
     <t>Eternit ON NM</t>
   </si>
   <si>
+    <t>Espacolaser ON NM</t>
+  </si>
+  <si>
     <t>Equatorial ON NM</t>
   </si>
   <si>
+    <t>Enjoei ON NM</t>
+  </si>
+  <si>
     <t>Eneva ON NM</t>
   </si>
   <si>
@@ -550,6 +568,9 @@
     <t>Cvc Brasil ON NM</t>
   </si>
   <si>
+    <t>Cury S/A ON NM</t>
+  </si>
+  <si>
     <t>Sid Nacional ON</t>
   </si>
   <si>
@@ -568,6 +589,9 @@
     <t>Ccr Sa ON NM</t>
   </si>
   <si>
+    <t>Meliuz ON NM</t>
+  </si>
+  <si>
     <t>Csu Cardsyst ON NM</t>
   </si>
   <si>
@@ -589,6 +613,9 @@
     <t>Boa Vista ON NM</t>
   </si>
   <si>
+    <t>Banco Bmg PN N1</t>
+  </si>
+  <si>
     <t>Banco Inter UNT N2</t>
   </si>
   <si>
@@ -610,58 +637,13 @@
     <t>Arezzo Co ON NM</t>
   </si>
   <si>
+    <t>Ambipar ON NM</t>
+  </si>
+  <si>
     <t>Alpargatas PN N1</t>
   </si>
   <si>
-    <t>Ambipar ON NM</t>
-  </si>
-  <si>
-    <t>Banco Bmg PN N1</t>
-  </si>
-  <si>
-    <t>Pague Menos ON NM</t>
-  </si>
-  <si>
-    <t>Grupo Mateus ON NM</t>
-  </si>
-  <si>
-    <t>Espacolaser ON NM</t>
-  </si>
-  <si>
-    <t>Quero-Quero ON NM</t>
-  </si>
-  <si>
-    <t>Rede D Or ON NM</t>
-  </si>
-  <si>
-    <t>Enjoei ON NM</t>
-  </si>
-  <si>
-    <t>Meliuz ON NM</t>
-  </si>
-  <si>
     <t>Aeris ON NM</t>
-  </si>
-  <si>
-    <t>Cury S/A ON NM</t>
-  </si>
-  <si>
-    <t>D1000vfarma ON NM</t>
-  </si>
-  <si>
-    <t>Hidrovias ON NM</t>
-  </si>
-  <si>
-    <t>Neoenergia ON NM</t>
-  </si>
-  <si>
-    <t>Vivara S.A. ON NM</t>
-  </si>
-  <si>
-    <t>Ibovespa</t>
-  </si>
-  <si>
-    <t>Ibovespa Mini</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1068,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>34.83</v>
@@ -1086,7 +1068,7 @@
         <v>2.986398580721461</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J2">
         <v>15880</v>
@@ -1106,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D3">
         <v>85</v>
@@ -1124,7 +1106,7 @@
         <v>0.5441211260941492</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J3">
         <v>29410</v>
@@ -1144,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4">
         <v>15.28</v>
@@ -1162,7 +1144,7 @@
         <v>6.258692628650894</v>
       </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J4">
         <v>74353</v>
@@ -1182,34 +1164,34 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D5">
-        <v>87.66</v>
+        <v>25.84</v>
       </c>
       <c r="E5">
-        <v>90.18000000000001</v>
+        <v>25.88</v>
       </c>
       <c r="F5">
-        <v>90.58</v>
+        <v>26.55</v>
       </c>
       <c r="G5">
-        <v>87.51000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="H5">
-        <v>-3.955297469047879</v>
+        <v>0.3495145631067956</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J5">
-        <v>86672</v>
+        <v>5928</v>
       </c>
       <c r="K5">
-        <v>34426700</v>
+        <v>1408300</v>
       </c>
       <c r="L5">
-        <v>3046137728</v>
+        <v>36433217</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1220,34 +1202,34 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D6">
-        <v>13.07</v>
+        <v>87.66</v>
       </c>
       <c r="E6">
-        <v>13.42</v>
+        <v>90.18000000000001</v>
       </c>
       <c r="F6">
-        <v>13.5</v>
+        <v>90.58</v>
       </c>
       <c r="G6">
-        <v>12.96</v>
+        <v>87.51000000000001</v>
       </c>
       <c r="H6">
-        <v>-2.097378277153553</v>
+        <v>-3.955297469047879</v>
       </c>
       <c r="I6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J6">
-        <v>33428</v>
+        <v>86672</v>
       </c>
       <c r="K6">
-        <v>20396600</v>
+        <v>34426700</v>
       </c>
       <c r="L6">
-        <v>268226452</v>
+        <v>3046137728</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1258,34 +1240,34 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D7">
-        <v>55.64</v>
+        <v>13.07</v>
       </c>
       <c r="E7">
-        <v>53.38</v>
+        <v>13.42</v>
       </c>
       <c r="F7">
-        <v>55.97</v>
+        <v>13.5</v>
       </c>
       <c r="G7">
-        <v>53.38</v>
+        <v>12.96</v>
       </c>
       <c r="H7">
-        <v>5.518680068272338</v>
+        <v>-2.097378277153553</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J7">
-        <v>3688</v>
+        <v>33428</v>
       </c>
       <c r="K7">
-        <v>651900</v>
+        <v>20396600</v>
       </c>
       <c r="L7">
-        <v>36094755</v>
+        <v>268226452</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1296,34 +1278,34 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D8">
-        <v>11.36</v>
+        <v>55.64</v>
       </c>
       <c r="E8">
-        <v>11.28</v>
+        <v>53.38</v>
       </c>
       <c r="F8">
-        <v>11.5</v>
+        <v>55.97</v>
       </c>
       <c r="G8">
-        <v>11.2</v>
+        <v>53.38</v>
       </c>
       <c r="H8">
-        <v>1.42857142857143</v>
+        <v>5.518680068272338</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J8">
-        <v>5255</v>
+        <v>3688</v>
       </c>
       <c r="K8">
-        <v>1349200</v>
+        <v>651900</v>
       </c>
       <c r="L8">
-        <v>15318392</v>
+        <v>36094755</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1334,34 +1316,34 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D9">
-        <v>30.28</v>
+        <v>11.36</v>
       </c>
       <c r="E9">
-        <v>29.7</v>
+        <v>11.28</v>
       </c>
       <c r="F9">
-        <v>30.66</v>
+        <v>11.5</v>
       </c>
       <c r="G9">
-        <v>29.53</v>
+        <v>11.2</v>
       </c>
       <c r="H9">
-        <v>6.770098730606494</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J9">
-        <v>43091</v>
+        <v>5255</v>
       </c>
       <c r="K9">
-        <v>8987500</v>
+        <v>1349200</v>
       </c>
       <c r="L9">
-        <v>271989670</v>
+        <v>15318392</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1372,34 +1354,34 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D10">
-        <v>26.42</v>
+        <v>30.28</v>
       </c>
       <c r="E10">
-        <v>25.75</v>
+        <v>29.7</v>
       </c>
       <c r="F10">
-        <v>26.6</v>
+        <v>30.66</v>
       </c>
       <c r="G10">
-        <v>25.58</v>
+        <v>29.53</v>
       </c>
       <c r="H10">
-        <v>3.811394891945</v>
+        <v>6.770098730606494</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J10">
-        <v>1571</v>
+        <v>43091</v>
       </c>
       <c r="K10">
-        <v>205100</v>
+        <v>8987500</v>
       </c>
       <c r="L10">
-        <v>5391576</v>
+        <v>271989670</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1410,34 +1392,34 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D11">
-        <v>14.1</v>
+        <v>26.42</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>25.75</v>
       </c>
       <c r="F11">
-        <v>14.26</v>
+        <v>26.6</v>
       </c>
       <c r="G11">
-        <v>13.78</v>
+        <v>25.58</v>
       </c>
       <c r="H11">
-        <v>0.7142857142857117</v>
+        <v>3.811394891945</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J11">
-        <v>233</v>
+        <v>1571</v>
       </c>
       <c r="K11">
-        <v>60000</v>
+        <v>205100</v>
       </c>
       <c r="L11">
-        <v>838999</v>
+        <v>5391576</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1448,7 +1430,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D12">
         <v>18.24</v>
@@ -1466,7 +1448,7 @@
         <v>2.87648054145515</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J12">
         <v>6873</v>
@@ -1486,7 +1468,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D13">
         <v>63.08</v>
@@ -1504,7 +1486,7 @@
         <v>-1.790440604079099</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J13">
         <v>36922</v>
@@ -1524,7 +1506,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D14">
         <v>23.84</v>
@@ -1542,7 +1524,7 @@
         <v>8.462238398544129</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J14">
         <v>6356</v>
@@ -1562,7 +1544,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D15">
         <v>36.6</v>
@@ -1580,7 +1562,7 @@
         <v>4.571428571428576</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J15">
         <v>6080</v>
@@ -1600,7 +1582,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D16">
         <v>38.41</v>
@@ -1618,7 +1600,7 @@
         <v>1.883289124668418</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J16">
         <v>6066</v>
@@ -1638,7 +1620,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D17">
         <v>28.97</v>
@@ -1656,7 +1638,7 @@
         <v>-0.172294968986908</v>
       </c>
       <c r="I17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J17">
         <v>6868</v>
@@ -1676,7 +1658,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D18">
         <v>15.49</v>
@@ -1694,7 +1676,7 @@
         <v>4.029550033579581</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J18">
         <v>3729</v>
@@ -1714,7 +1696,7 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D19">
         <v>22.28</v>
@@ -1732,7 +1714,7 @@
         <v>1.921317474839898</v>
       </c>
       <c r="I19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J19">
         <v>9071</v>
@@ -1752,7 +1734,7 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D20">
         <v>41</v>
@@ -1770,7 +1752,7 @@
         <v>0.4901960784313795</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J20">
         <v>23812</v>
@@ -1790,7 +1772,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D21">
         <v>17.59</v>
@@ -1808,7 +1790,7 @@
         <v>-0.2268859897901256</v>
       </c>
       <c r="I21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J21">
         <v>6532</v>
@@ -1828,7 +1810,7 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D22">
         <v>19.67</v>
@@ -1846,7 +1828,7 @@
         <v>2.822791427077902</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J22">
         <v>3287</v>
@@ -1866,7 +1848,7 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D23">
         <v>67.51000000000001</v>
@@ -1884,7 +1866,7 @@
         <v>5.56684910086005</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J23">
         <v>32137</v>
@@ -1904,34 +1886,34 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D24">
-        <v>14.35</v>
+        <v>68.55</v>
       </c>
       <c r="E24">
-        <v>14.55</v>
+        <v>68.03</v>
       </c>
       <c r="F24">
-        <v>14.86</v>
+        <v>69.73999999999999</v>
       </c>
       <c r="G24">
-        <v>14.3</v>
+        <v>67.7</v>
       </c>
       <c r="H24">
-        <v>-0.4854368932038855</v>
+        <v>1.106194690265487</v>
       </c>
       <c r="I24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J24">
-        <v>11044</v>
+        <v>10200</v>
       </c>
       <c r="K24">
-        <v>3314700</v>
+        <v>2228800</v>
       </c>
       <c r="L24">
-        <v>48120884</v>
+        <v>153051151</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1942,34 +1924,34 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D25">
-        <v>20.77</v>
+        <v>14.35</v>
       </c>
       <c r="E25">
-        <v>21.6</v>
+        <v>14.55</v>
       </c>
       <c r="F25">
-        <v>21.85</v>
+        <v>14.86</v>
       </c>
       <c r="G25">
-        <v>20.77</v>
+        <v>14.3</v>
       </c>
       <c r="H25">
-        <v>-1.563981042654037</v>
+        <v>-0.4854368932038855</v>
       </c>
       <c r="I25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J25">
-        <v>41154</v>
+        <v>11044</v>
       </c>
       <c r="K25">
-        <v>10692200</v>
+        <v>3314700</v>
       </c>
       <c r="L25">
-        <v>226375650</v>
+        <v>48120884</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1980,34 +1962,34 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D26">
-        <v>25.27</v>
+        <v>20.77</v>
       </c>
       <c r="E26">
-        <v>25.4</v>
+        <v>21.6</v>
       </c>
       <c r="F26">
-        <v>25.77</v>
+        <v>21.85</v>
       </c>
       <c r="G26">
-        <v>25.06</v>
+        <v>20.77</v>
       </c>
       <c r="H26">
-        <v>0.958849380743102</v>
+        <v>-1.563981042654037</v>
       </c>
       <c r="I26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J26">
-        <v>24112</v>
+        <v>41154</v>
       </c>
       <c r="K26">
-        <v>5735300</v>
+        <v>10692200</v>
       </c>
       <c r="L26">
-        <v>145261031</v>
+        <v>226375650</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2018,34 +2000,34 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D27">
-        <v>31.75</v>
+        <v>25.27</v>
       </c>
       <c r="E27">
-        <v>31.5</v>
+        <v>25.4</v>
       </c>
       <c r="F27">
-        <v>32.2</v>
+        <v>25.77</v>
       </c>
       <c r="G27">
-        <v>31.3</v>
+        <v>25.06</v>
       </c>
       <c r="H27">
-        <v>2.817357512953371</v>
+        <v>0.958849380743102</v>
       </c>
       <c r="I27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J27">
-        <v>24889</v>
+        <v>24112</v>
       </c>
       <c r="K27">
-        <v>5208800</v>
+        <v>5735300</v>
       </c>
       <c r="L27">
-        <v>165508539</v>
+        <v>145261031</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2056,34 +2038,34 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D28">
-        <v>9.380000000000001</v>
+        <v>31.75</v>
       </c>
       <c r="E28">
-        <v>9.02</v>
+        <v>31.5</v>
       </c>
       <c r="F28">
-        <v>9.6</v>
+        <v>32.2</v>
       </c>
       <c r="G28">
-        <v>9.02</v>
+        <v>31.3</v>
       </c>
       <c r="H28">
-        <v>4.687499999999999</v>
+        <v>2.817357512953371</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J28">
-        <v>8541</v>
+        <v>24889</v>
       </c>
       <c r="K28">
-        <v>4509900</v>
+        <v>5208800</v>
       </c>
       <c r="L28">
-        <v>42132862</v>
+        <v>165508539</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2094,34 +2076,34 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D29">
-        <v>77.83</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="E29">
-        <v>74.81</v>
+        <v>9.02</v>
       </c>
       <c r="F29">
-        <v>79.38</v>
+        <v>9.6</v>
       </c>
       <c r="G29">
-        <v>74.81</v>
+        <v>9.02</v>
       </c>
       <c r="H29">
-        <v>5.934394991152851</v>
+        <v>4.687499999999999</v>
       </c>
       <c r="I29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J29">
-        <v>38284</v>
+        <v>8541</v>
       </c>
       <c r="K29">
-        <v>8536400</v>
+        <v>4509900</v>
       </c>
       <c r="L29">
-        <v>663043630</v>
+        <v>42132862</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2132,34 +2114,34 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D30">
-        <v>4.59</v>
+        <v>77.83</v>
       </c>
       <c r="E30">
-        <v>4.53</v>
+        <v>74.81</v>
       </c>
       <c r="F30">
-        <v>4.64</v>
+        <v>79.38</v>
       </c>
       <c r="G30">
-        <v>4.49</v>
+        <v>74.81</v>
       </c>
       <c r="H30">
-        <v>1.548672566371688</v>
+        <v>5.934394991152851</v>
       </c>
       <c r="I30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J30">
-        <v>2103</v>
+        <v>38284</v>
       </c>
       <c r="K30">
-        <v>1075100</v>
+        <v>8536400</v>
       </c>
       <c r="L30">
-        <v>4914536</v>
+        <v>663043630</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2170,34 +2152,34 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D31">
-        <v>21.8</v>
+        <v>4.59</v>
       </c>
       <c r="E31">
-        <v>21.81</v>
+        <v>4.53</v>
       </c>
       <c r="F31">
-        <v>22.13</v>
+        <v>4.64</v>
       </c>
       <c r="G31">
-        <v>21.62</v>
+        <v>4.49</v>
       </c>
       <c r="H31">
-        <v>0.9259259259259226</v>
+        <v>1.548672566371688</v>
       </c>
       <c r="I31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J31">
-        <v>11699</v>
+        <v>2103</v>
       </c>
       <c r="K31">
-        <v>2509800</v>
+        <v>1075100</v>
       </c>
       <c r="L31">
-        <v>54733073</v>
+        <v>4914536</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2208,34 +2190,34 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D32">
-        <v>28.66</v>
+        <v>10.04</v>
       </c>
       <c r="E32">
-        <v>28.4</v>
+        <v>10.17</v>
       </c>
       <c r="F32">
-        <v>29.14</v>
+        <v>10.17</v>
       </c>
       <c r="G32">
-        <v>28.2</v>
+        <v>9.99</v>
       </c>
       <c r="H32">
-        <v>4.104613149291678</v>
+        <v>0.8032128514056053</v>
       </c>
       <c r="I32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J32">
-        <v>106427</v>
+        <v>2811</v>
       </c>
       <c r="K32">
-        <v>91663000</v>
+        <v>596800</v>
       </c>
       <c r="L32">
-        <v>2629121265</v>
+        <v>5999420</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2246,34 +2228,34 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D33">
-        <v>2.23</v>
+        <v>21.8</v>
       </c>
       <c r="E33">
-        <v>2.28</v>
+        <v>21.81</v>
       </c>
       <c r="F33">
-        <v>2.31</v>
+        <v>22.13</v>
       </c>
       <c r="G33">
-        <v>2.2</v>
+        <v>21.62</v>
       </c>
       <c r="H33">
-        <v>-1.327433628318575</v>
+        <v>0.9259259259259226</v>
       </c>
       <c r="I33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J33">
-        <v>26100</v>
+        <v>11699</v>
       </c>
       <c r="K33">
-        <v>132634900</v>
+        <v>2509800</v>
       </c>
       <c r="L33">
-        <v>297355451</v>
+        <v>54733073</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2284,34 +2266,34 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D34">
-        <v>49.26</v>
+        <v>28.66</v>
       </c>
       <c r="E34">
-        <v>49.4</v>
+        <v>28.4</v>
       </c>
       <c r="F34">
-        <v>50</v>
+        <v>29.14</v>
       </c>
       <c r="G34">
-        <v>48.48</v>
+        <v>28.2</v>
       </c>
       <c r="H34">
-        <v>1.650846058605029</v>
+        <v>4.104613149291678</v>
       </c>
       <c r="I34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J34">
-        <v>33727</v>
+        <v>106427</v>
       </c>
       <c r="K34">
-        <v>6991600</v>
+        <v>91663000</v>
       </c>
       <c r="L34">
-        <v>343234759</v>
+        <v>2629121265</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2322,34 +2304,34 @@
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35">
-        <v>9.300000000000001</v>
+        <v>2.23</v>
       </c>
       <c r="E35">
-        <v>9.41</v>
+        <v>2.28</v>
       </c>
       <c r="F35">
-        <v>9.6</v>
+        <v>2.31</v>
       </c>
       <c r="G35">
-        <v>9.279999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="H35">
-        <v>-0.6410256410256274</v>
+        <v>-1.327433628318575</v>
       </c>
       <c r="I35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J35">
-        <v>10770</v>
+        <v>26100</v>
       </c>
       <c r="K35">
-        <v>7265300</v>
+        <v>132634900</v>
       </c>
       <c r="L35">
-        <v>68369612</v>
+        <v>297355451</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2360,34 +2342,34 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36">
-        <v>21.3</v>
+        <v>49.26</v>
       </c>
       <c r="E36">
-        <v>21.71</v>
+        <v>49.4</v>
       </c>
       <c r="F36">
-        <v>21.91</v>
+        <v>50</v>
       </c>
       <c r="G36">
-        <v>21.06</v>
+        <v>48.48</v>
       </c>
       <c r="H36">
-        <v>-0.04692632566869081</v>
+        <v>1.650846058605029</v>
       </c>
       <c r="I36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J36">
-        <v>29553</v>
+        <v>33727</v>
       </c>
       <c r="K36">
-        <v>7101200</v>
+        <v>6991600</v>
       </c>
       <c r="L36">
-        <v>152067091</v>
+        <v>343234759</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2398,34 +2380,34 @@
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D37">
-        <v>19.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E37">
-        <v>19.6</v>
+        <v>9.41</v>
       </c>
       <c r="F37">
-        <v>19.98</v>
+        <v>9.6</v>
       </c>
       <c r="G37">
-        <v>19.31</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="H37">
-        <v>0.4140786749482314</v>
+        <v>-0.6410256410256274</v>
       </c>
       <c r="I37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J37">
-        <v>13423</v>
+        <v>10770</v>
       </c>
       <c r="K37">
-        <v>2802100</v>
+        <v>7265300</v>
       </c>
       <c r="L37">
-        <v>54941057</v>
+        <v>68369612</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2436,34 +2418,34 @@
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38">
-        <v>13.55</v>
+        <v>18.78</v>
       </c>
       <c r="E38">
-        <v>13.5</v>
+        <v>18.31</v>
       </c>
       <c r="F38">
-        <v>13.94</v>
+        <v>18.98</v>
       </c>
       <c r="G38">
-        <v>13.4</v>
+        <v>18.25</v>
       </c>
       <c r="H38">
-        <v>1.803155522163788</v>
+        <v>3.243540406816932</v>
       </c>
       <c r="I38" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J38">
-        <v>24845</v>
+        <v>6331</v>
       </c>
       <c r="K38">
-        <v>8736700</v>
+        <v>1965000</v>
       </c>
       <c r="L38">
-        <v>119160793</v>
+        <v>36709401</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2474,34 +2456,34 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D39">
-        <v>19.7</v>
+        <v>21.3</v>
       </c>
       <c r="E39">
-        <v>19.32</v>
+        <v>21.71</v>
       </c>
       <c r="F39">
-        <v>19.9</v>
+        <v>21.91</v>
       </c>
       <c r="G39">
-        <v>19.31</v>
+        <v>21.06</v>
       </c>
       <c r="H39">
-        <v>3.412073490813641</v>
+        <v>-0.04692632566869081</v>
       </c>
       <c r="I39" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J39">
-        <v>6918</v>
+        <v>29553</v>
       </c>
       <c r="K39">
-        <v>1730500</v>
+        <v>7101200</v>
       </c>
       <c r="L39">
-        <v>34147240</v>
+        <v>152067091</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2512,34 +2494,34 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D40">
-        <v>25.3</v>
+        <v>19.4</v>
       </c>
       <c r="E40">
-        <v>25.3</v>
+        <v>19.6</v>
       </c>
       <c r="F40">
-        <v>25.73</v>
+        <v>19.98</v>
       </c>
       <c r="G40">
-        <v>25.2</v>
+        <v>19.31</v>
       </c>
       <c r="H40">
-        <v>1.484155635780189</v>
+        <v>0.4140786749482314</v>
       </c>
       <c r="I40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J40">
-        <v>62359</v>
+        <v>13423</v>
       </c>
       <c r="K40">
-        <v>27563200</v>
+        <v>2802100</v>
       </c>
       <c r="L40">
-        <v>701814266</v>
+        <v>54941057</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2550,34 +2532,34 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D41">
-        <v>27.84</v>
+        <v>13.55</v>
       </c>
       <c r="E41">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="F41">
-        <v>28.35</v>
+        <v>13.94</v>
       </c>
       <c r="G41">
-        <v>26.12</v>
+        <v>13.4</v>
       </c>
       <c r="H41">
-        <v>4.426106526631656</v>
+        <v>1.803155522163788</v>
       </c>
       <c r="I41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J41">
-        <v>15252</v>
+        <v>24845</v>
       </c>
       <c r="K41">
-        <v>4652100</v>
+        <v>8736700</v>
       </c>
       <c r="L41">
-        <v>128043774</v>
+        <v>119160793</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2588,34 +2570,34 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D42">
-        <v>41.01</v>
+        <v>19.7</v>
       </c>
       <c r="E42">
-        <v>41.8</v>
+        <v>19.32</v>
       </c>
       <c r="F42">
-        <v>42.32</v>
+        <v>19.9</v>
       </c>
       <c r="G42">
-        <v>40.82</v>
+        <v>19.31</v>
       </c>
       <c r="H42">
-        <v>-0.1460920379839354</v>
+        <v>3.412073490813641</v>
       </c>
       <c r="I42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J42">
-        <v>35020</v>
+        <v>6918</v>
       </c>
       <c r="K42">
-        <v>7926300</v>
+        <v>1730500</v>
       </c>
       <c r="L42">
-        <v>328528520</v>
+        <v>34147240</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2626,34 +2608,34 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D43">
-        <v>15.55</v>
+        <v>25.3</v>
       </c>
       <c r="E43">
-        <v>14.93</v>
+        <v>25.3</v>
       </c>
       <c r="F43">
-        <v>15.7</v>
+        <v>25.73</v>
       </c>
       <c r="G43">
-        <v>14.86</v>
+        <v>25.2</v>
       </c>
       <c r="H43">
-        <v>5.423728813559327</v>
+        <v>1.484155635780189</v>
       </c>
       <c r="I43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J43">
-        <v>3109</v>
+        <v>62359</v>
       </c>
       <c r="K43">
-        <v>824500</v>
+        <v>27563200</v>
       </c>
       <c r="L43">
-        <v>12655570</v>
+        <v>701814266</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2664,34 +2646,34 @@
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D44">
-        <v>21.63</v>
+        <v>27.84</v>
       </c>
       <c r="E44">
-        <v>21.35</v>
+        <v>27</v>
       </c>
       <c r="F44">
-        <v>22.04</v>
+        <v>28.35</v>
       </c>
       <c r="G44">
-        <v>21.29</v>
+        <v>26.12</v>
       </c>
       <c r="H44">
-        <v>2.414772727272718</v>
+        <v>4.426106526631656</v>
       </c>
       <c r="I44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J44">
-        <v>12403</v>
+        <v>15252</v>
       </c>
       <c r="K44">
-        <v>4460700</v>
+        <v>4652100</v>
       </c>
       <c r="L44">
-        <v>96684736</v>
+        <v>128043774</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2702,34 +2684,34 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D45">
-        <v>27.46</v>
+        <v>41.01</v>
       </c>
       <c r="E45">
-        <v>26.45</v>
+        <v>41.8</v>
       </c>
       <c r="F45">
-        <v>27.66</v>
+        <v>42.32</v>
       </c>
       <c r="G45">
-        <v>26.34</v>
+        <v>40.82</v>
       </c>
       <c r="H45">
-        <v>5.615384615384619</v>
+        <v>-0.1460920379839354</v>
       </c>
       <c r="I45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J45">
-        <v>14798</v>
+        <v>35020</v>
       </c>
       <c r="K45">
-        <v>3099500</v>
+        <v>7926300</v>
       </c>
       <c r="L45">
-        <v>84665473</v>
+        <v>328528520</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2740,34 +2722,34 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D46">
-        <v>25.25</v>
+        <v>15.55</v>
       </c>
       <c r="E46">
-        <v>24.28</v>
+        <v>14.93</v>
       </c>
       <c r="F46">
-        <v>25.63</v>
+        <v>15.7</v>
       </c>
       <c r="G46">
-        <v>24.14</v>
+        <v>14.86</v>
       </c>
       <c r="H46">
-        <v>5.516088591725868</v>
+        <v>5.423728813559327</v>
       </c>
       <c r="I46" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J46">
-        <v>42881</v>
+        <v>3109</v>
       </c>
       <c r="K46">
-        <v>17164000</v>
+        <v>824500</v>
       </c>
       <c r="L46">
-        <v>429529697</v>
+        <v>12655570</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2778,34 +2760,34 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D47">
-        <v>28.14</v>
+        <v>19.5</v>
       </c>
       <c r="E47">
-        <v>29.15</v>
+        <v>19.21</v>
       </c>
       <c r="F47">
-        <v>29.24</v>
+        <v>19.75</v>
       </c>
       <c r="G47">
-        <v>27.92</v>
+        <v>18.93</v>
       </c>
       <c r="H47">
-        <v>-1.951219512195117</v>
+        <v>1.562500000000004</v>
       </c>
       <c r="I47" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J47">
-        <v>27831</v>
+        <v>10267</v>
       </c>
       <c r="K47">
-        <v>5698200</v>
+        <v>3124200</v>
       </c>
       <c r="L47">
-        <v>161346655</v>
+        <v>60699144</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2816,34 +2798,34 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D48">
-        <v>7.61</v>
+        <v>21.63</v>
       </c>
       <c r="E48">
-        <v>7.47</v>
+        <v>21.35</v>
       </c>
       <c r="F48">
-        <v>7.69</v>
+        <v>22.04</v>
       </c>
       <c r="G48">
-        <v>7.41</v>
+        <v>21.29</v>
       </c>
       <c r="H48">
-        <v>3.81991814461119</v>
+        <v>2.414772727272718</v>
       </c>
       <c r="I48" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J48">
-        <v>16620</v>
+        <v>12403</v>
       </c>
       <c r="K48">
-        <v>14167800</v>
+        <v>4460700</v>
       </c>
       <c r="L48">
-        <v>107588210</v>
+        <v>96684736</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2854,34 +2836,34 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D49">
-        <v>24.52</v>
+        <v>27.46</v>
       </c>
       <c r="E49">
-        <v>24.51</v>
+        <v>26.45</v>
       </c>
       <c r="F49">
-        <v>24.87</v>
+        <v>27.66</v>
       </c>
       <c r="G49">
-        <v>24.18</v>
+        <v>26.34</v>
       </c>
       <c r="H49">
-        <v>1.196863392488647</v>
+        <v>5.615384615384619</v>
       </c>
       <c r="I49" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J49">
-        <v>35829</v>
+        <v>14798</v>
       </c>
       <c r="K49">
-        <v>12505600</v>
+        <v>3099500</v>
       </c>
       <c r="L49">
-        <v>305866906</v>
+        <v>84665473</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2892,34 +2874,34 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D50">
-        <v>28.46</v>
+        <v>25.25</v>
       </c>
       <c r="E50">
-        <v>29.08</v>
+        <v>24.28</v>
       </c>
       <c r="F50">
-        <v>29.3</v>
+        <v>25.63</v>
       </c>
       <c r="G50">
-        <v>28</v>
+        <v>24.14</v>
       </c>
       <c r="H50">
-        <v>-2.132049518569455</v>
+        <v>5.516088591725868</v>
       </c>
       <c r="I50" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J50">
-        <v>151600</v>
+        <v>42881</v>
       </c>
       <c r="K50">
-        <v>100327800</v>
+        <v>17164000</v>
       </c>
       <c r="L50">
-        <v>2869109465</v>
+        <v>429529697</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2930,34 +2912,34 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D51">
-        <v>10.81</v>
+        <v>28.14</v>
       </c>
       <c r="E51">
-        <v>10.85</v>
+        <v>29.15</v>
       </c>
       <c r="F51">
-        <v>10.92</v>
+        <v>29.24</v>
       </c>
       <c r="G51">
-        <v>10.55</v>
+        <v>27.92</v>
       </c>
       <c r="H51">
-        <v>0.1853568118628485</v>
+        <v>-1.951219512195117</v>
       </c>
       <c r="I51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J51">
-        <v>71884</v>
+        <v>27831</v>
       </c>
       <c r="K51">
-        <v>76871000</v>
+        <v>5698200</v>
       </c>
       <c r="L51">
-        <v>829688879</v>
+        <v>161346655</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2968,34 +2950,34 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D52">
-        <v>17.76</v>
+        <v>7.61</v>
       </c>
       <c r="E52">
-        <v>17.82</v>
+        <v>7.47</v>
       </c>
       <c r="F52">
-        <v>18.15</v>
+        <v>7.69</v>
       </c>
       <c r="G52">
-        <v>17.43</v>
+        <v>7.41</v>
       </c>
       <c r="H52">
-        <v>1.427755568246716</v>
+        <v>3.81991814461119</v>
       </c>
       <c r="I52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J52">
-        <v>36533</v>
+        <v>16620</v>
       </c>
       <c r="K52">
-        <v>9412300</v>
+        <v>14167800</v>
       </c>
       <c r="L52">
-        <v>166742719</v>
+        <v>107588210</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3006,34 +2988,34 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D53">
-        <v>25.37</v>
+        <v>24.52</v>
       </c>
       <c r="E53">
-        <v>25.35</v>
+        <v>24.51</v>
       </c>
       <c r="F53">
-        <v>25.7</v>
+        <v>24.87</v>
       </c>
       <c r="G53">
-        <v>24.62</v>
+        <v>24.18</v>
       </c>
       <c r="H53">
-        <v>2.215954875100728</v>
+        <v>1.196863392488647</v>
       </c>
       <c r="I53" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J53">
-        <v>22621</v>
+        <v>35829</v>
       </c>
       <c r="K53">
-        <v>9624500</v>
+        <v>12505600</v>
       </c>
       <c r="L53">
-        <v>241994859</v>
+        <v>305866906</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3044,34 +3026,34 @@
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D54">
-        <v>10.52</v>
+        <v>28.46</v>
       </c>
       <c r="E54">
-        <v>10.75</v>
+        <v>29.08</v>
       </c>
       <c r="F54">
-        <v>10.82</v>
+        <v>29.3</v>
       </c>
       <c r="G54">
-        <v>10.46</v>
+        <v>28</v>
       </c>
       <c r="H54">
-        <v>-1.405810684161203</v>
+        <v>-2.132049518569455</v>
       </c>
       <c r="I54" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J54">
-        <v>22268</v>
+        <v>151600</v>
       </c>
       <c r="K54">
-        <v>12693600</v>
+        <v>100327800</v>
       </c>
       <c r="L54">
-        <v>134125423</v>
+        <v>2869109465</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3082,34 +3064,34 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D55">
-        <v>97.89</v>
+        <v>10.81</v>
       </c>
       <c r="E55">
-        <v>99.01000000000001</v>
+        <v>10.85</v>
       </c>
       <c r="F55">
-        <v>100.38</v>
+        <v>10.92</v>
       </c>
       <c r="G55">
-        <v>96.34</v>
+        <v>10.55</v>
       </c>
       <c r="H55">
-        <v>1.366884125504823</v>
+        <v>0.1853568118628485</v>
       </c>
       <c r="I55" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J55">
-        <v>25205</v>
+        <v>71884</v>
       </c>
       <c r="K55">
-        <v>3866300</v>
+        <v>76871000</v>
       </c>
       <c r="L55">
-        <v>378739052</v>
+        <v>829688879</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3120,34 +3102,34 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D56">
-        <v>28.7</v>
+        <v>118233.81</v>
       </c>
       <c r="E56">
-        <v>27.76</v>
+        <v>117520.36</v>
       </c>
       <c r="F56">
-        <v>28.97</v>
+        <v>119805.18</v>
       </c>
       <c r="G56">
-        <v>27.63</v>
+        <v>117519.17</v>
       </c>
       <c r="H56">
-        <v>5.205278592375359</v>
+        <v>0.6094748215096608</v>
       </c>
       <c r="I56" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J56">
-        <v>21099</v>
+        <v>2378976</v>
       </c>
       <c r="K56">
-        <v>3897200</v>
+        <v>1073868400</v>
       </c>
       <c r="L56">
-        <v>111396436</v>
+        <v>27741245155</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3158,34 +3140,34 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D57">
-        <v>38.69</v>
+        <v>6.77</v>
       </c>
       <c r="E57">
-        <v>38.34</v>
+        <v>6.79</v>
       </c>
       <c r="F57">
-        <v>39.33</v>
+        <v>6.88</v>
       </c>
       <c r="G57">
-        <v>38.33</v>
+        <v>6.71</v>
       </c>
       <c r="H57">
-        <v>2.003691009754806</v>
+        <v>-0.2945508100147343</v>
       </c>
       <c r="I57" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J57">
-        <v>14104</v>
+        <v>6224</v>
       </c>
       <c r="K57">
-        <v>2610700</v>
+        <v>1773400</v>
       </c>
       <c r="L57">
-        <v>101442406</v>
+        <v>12034810</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3196,34 +3178,34 @@
         <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D58">
-        <v>13.24</v>
+        <v>17.76</v>
       </c>
       <c r="E58">
-        <v>13.2</v>
+        <v>17.82</v>
       </c>
       <c r="F58">
-        <v>13.45</v>
+        <v>18.15</v>
       </c>
       <c r="G58">
-        <v>13.11</v>
+        <v>17.43</v>
       </c>
       <c r="H58">
-        <v>1.06870229007634</v>
+        <v>1.427755568246716</v>
       </c>
       <c r="I58" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J58">
-        <v>2189</v>
+        <v>36533</v>
       </c>
       <c r="K58">
-        <v>1120600</v>
+        <v>9412300</v>
       </c>
       <c r="L58">
-        <v>14845949</v>
+        <v>166742719</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3234,34 +3216,34 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D59">
-        <v>22.82</v>
+        <v>25.37</v>
       </c>
       <c r="E59">
-        <v>22.85</v>
+        <v>25.35</v>
       </c>
       <c r="F59">
-        <v>23.18</v>
+        <v>25.7</v>
       </c>
       <c r="G59">
-        <v>22.73</v>
+        <v>24.62</v>
       </c>
       <c r="H59">
-        <v>0.9734513274336233</v>
+        <v>2.215954875100728</v>
       </c>
       <c r="I59" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J59">
-        <v>29326</v>
+        <v>22621</v>
       </c>
       <c r="K59">
-        <v>6346500</v>
+        <v>9624500</v>
       </c>
       <c r="L59">
-        <v>145526808</v>
+        <v>241994859</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3272,34 +3254,34 @@
         <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D60">
-        <v>72</v>
+        <v>10.52</v>
       </c>
       <c r="E60">
-        <v>71.5</v>
+        <v>10.75</v>
       </c>
       <c r="F60">
-        <v>75.17</v>
+        <v>10.82</v>
       </c>
       <c r="G60">
-        <v>71.5</v>
+        <v>10.46</v>
       </c>
       <c r="H60">
-        <v>1.322825781030112</v>
+        <v>-1.405810684161203</v>
       </c>
       <c r="I60" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J60">
-        <v>23639</v>
+        <v>22268</v>
       </c>
       <c r="K60">
-        <v>4263100</v>
+        <v>12693600</v>
       </c>
       <c r="L60">
-        <v>311960101</v>
+        <v>134125423</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3310,34 +3292,34 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D61">
-        <v>31.33</v>
+        <v>97.89</v>
       </c>
       <c r="E61">
-        <v>31.61</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="F61">
-        <v>32.46</v>
+        <v>100.38</v>
       </c>
       <c r="G61">
-        <v>31.33</v>
+        <v>96.34</v>
       </c>
       <c r="H61">
-        <v>1.621796951021732</v>
+        <v>1.366884125504823</v>
       </c>
       <c r="I61" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J61">
-        <v>41098</v>
+        <v>25205</v>
       </c>
       <c r="K61">
-        <v>13060400</v>
+        <v>3866300</v>
       </c>
       <c r="L61">
-        <v>417740874</v>
+        <v>378739052</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3348,34 +3330,34 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D62">
-        <v>12.53</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="E62">
-        <v>12.33</v>
+        <v>8.49</v>
       </c>
       <c r="F62">
-        <v>12.73</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="G62">
-        <v>12.33</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="H62">
-        <v>2.536824877250399</v>
+        <v>-0.8303677342823285</v>
       </c>
       <c r="I62" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J62">
-        <v>16087</v>
+        <v>11063</v>
       </c>
       <c r="K62">
-        <v>4012500</v>
+        <v>4284600</v>
       </c>
       <c r="L62">
-        <v>50467482</v>
+        <v>36339162</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3386,34 +3368,34 @@
         <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D63">
-        <v>20.6</v>
+        <v>28.7</v>
       </c>
       <c r="E63">
-        <v>20.67</v>
+        <v>27.76</v>
       </c>
       <c r="F63">
-        <v>21</v>
+        <v>28.97</v>
       </c>
       <c r="G63">
-        <v>20.4</v>
+        <v>27.63</v>
       </c>
       <c r="H63">
-        <v>-0.09699321047526466</v>
+        <v>5.205278592375359</v>
       </c>
       <c r="I63" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J63">
-        <v>9337</v>
+        <v>21099</v>
       </c>
       <c r="K63">
-        <v>2455300</v>
+        <v>3897200</v>
       </c>
       <c r="L63">
-        <v>50817533</v>
+        <v>111396436</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3424,34 +3406,34 @@
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D64">
-        <v>27.1</v>
+        <v>38.69</v>
       </c>
       <c r="E64">
-        <v>26.9</v>
+        <v>38.34</v>
       </c>
       <c r="F64">
-        <v>27.38</v>
+        <v>39.33</v>
       </c>
       <c r="G64">
-        <v>26.56</v>
+        <v>38.33</v>
       </c>
       <c r="H64">
-        <v>2.573807721423163</v>
+        <v>2.003691009754806</v>
       </c>
       <c r="I64" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J64">
-        <v>26634</v>
+        <v>14104</v>
       </c>
       <c r="K64">
-        <v>5275600</v>
+        <v>2610700</v>
       </c>
       <c r="L64">
-        <v>142348594</v>
+        <v>101442406</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3462,34 +3444,34 @@
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D65">
-        <v>19.97</v>
+        <v>13.24</v>
       </c>
       <c r="E65">
-        <v>19.55</v>
+        <v>13.2</v>
       </c>
       <c r="F65">
-        <v>20.18</v>
+        <v>13.45</v>
       </c>
       <c r="G65">
-        <v>19.54</v>
+        <v>13.11</v>
       </c>
       <c r="H65">
-        <v>3.794178794178797</v>
+        <v>1.06870229007634</v>
       </c>
       <c r="I65" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J65">
-        <v>13711</v>
+        <v>2189</v>
       </c>
       <c r="K65">
-        <v>5105600</v>
+        <v>1120600</v>
       </c>
       <c r="L65">
-        <v>101493002</v>
+        <v>14845949</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3500,34 +3482,34 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D66">
-        <v>30.6</v>
+        <v>21.3</v>
       </c>
       <c r="E66">
-        <v>31.5</v>
+        <v>21.89</v>
       </c>
       <c r="F66">
-        <v>31.91</v>
+        <v>23.28</v>
       </c>
       <c r="G66">
-        <v>30.37</v>
+        <v>20.12</v>
       </c>
       <c r="H66">
-        <v>-3.439570842537077</v>
+        <v>1.525262154432794</v>
       </c>
       <c r="I66" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J66">
-        <v>38738</v>
+        <v>30468</v>
       </c>
       <c r="K66">
-        <v>14886000</v>
+        <v>13006400</v>
       </c>
       <c r="L66">
-        <v>459638565</v>
+        <v>282022974</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3538,34 +3520,34 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D67">
-        <v>15.93</v>
+        <v>22.82</v>
       </c>
       <c r="E67">
-        <v>15.9</v>
+        <v>22.85</v>
       </c>
       <c r="F67">
-        <v>16.19</v>
+        <v>23.18</v>
       </c>
       <c r="G67">
-        <v>15.83</v>
+        <v>22.73</v>
       </c>
       <c r="H67">
-        <v>0.8866371120962671</v>
+        <v>0.9734513274336233</v>
       </c>
       <c r="I67" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J67">
-        <v>6038</v>
+        <v>29326</v>
       </c>
       <c r="K67">
-        <v>1517900</v>
+        <v>6346500</v>
       </c>
       <c r="L67">
-        <v>24270713</v>
+        <v>145526808</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3576,34 +3558,34 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D68">
-        <v>78.58</v>
+        <v>17.64</v>
       </c>
       <c r="E68">
-        <v>77.75</v>
+        <v>17.43</v>
       </c>
       <c r="F68">
-        <v>80.2</v>
+        <v>18.46</v>
       </c>
       <c r="G68">
-        <v>77.5</v>
+        <v>16.95</v>
       </c>
       <c r="H68">
-        <v>2.211238293444333</v>
+        <v>5.313432835820899</v>
       </c>
       <c r="I68" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J68">
-        <v>11183</v>
+        <v>7802</v>
       </c>
       <c r="K68">
-        <v>1772700</v>
+        <v>3027400</v>
       </c>
       <c r="L68">
-        <v>140283856</v>
+        <v>53451309</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3614,34 +3596,34 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D69">
-        <v>25.35</v>
+        <v>72</v>
       </c>
       <c r="E69">
-        <v>25.21</v>
+        <v>71.5</v>
       </c>
       <c r="F69">
-        <v>25.73</v>
+        <v>75.17</v>
       </c>
       <c r="G69">
-        <v>24.86</v>
+        <v>71.5</v>
       </c>
       <c r="H69">
-        <v>1.440576230492209</v>
+        <v>1.322825781030112</v>
       </c>
       <c r="I69" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J69">
-        <v>5080</v>
+        <v>23639</v>
       </c>
       <c r="K69">
-        <v>1324500</v>
+        <v>4263100</v>
       </c>
       <c r="L69">
-        <v>33631428</v>
+        <v>311960101</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3652,34 +3634,34 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D70">
-        <v>14.28</v>
+        <v>31.33</v>
       </c>
       <c r="E70">
-        <v>14.35</v>
+        <v>31.61</v>
       </c>
       <c r="F70">
-        <v>14.55</v>
+        <v>32.46</v>
       </c>
       <c r="G70">
-        <v>14.24</v>
+        <v>31.33</v>
       </c>
       <c r="H70">
-        <v>0.9900990099009815</v>
+        <v>1.621796951021732</v>
       </c>
       <c r="I70" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J70">
-        <v>27528</v>
+        <v>41098</v>
       </c>
       <c r="K70">
-        <v>8982000</v>
+        <v>13060400</v>
       </c>
       <c r="L70">
-        <v>129319554</v>
+        <v>417740874</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3690,34 +3672,34 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D71">
-        <v>12.41</v>
+        <v>12.53</v>
       </c>
       <c r="E71">
-        <v>12.46</v>
+        <v>12.33</v>
       </c>
       <c r="F71">
-        <v>12.69</v>
+        <v>12.73</v>
       </c>
       <c r="G71">
-        <v>12.4</v>
+        <v>12.33</v>
       </c>
       <c r="H71">
-        <v>1.638001638001632</v>
+        <v>2.536824877250399</v>
       </c>
       <c r="I71" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J71">
-        <v>32021</v>
+        <v>16087</v>
       </c>
       <c r="K71">
-        <v>12881200</v>
+        <v>4012500</v>
       </c>
       <c r="L71">
-        <v>161080146</v>
+        <v>50467482</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3728,34 +3710,34 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D72">
-        <v>15.38</v>
+        <v>20.6</v>
       </c>
       <c r="E72">
-        <v>15.41</v>
+        <v>20.67</v>
       </c>
       <c r="F72">
-        <v>15.86</v>
+        <v>21</v>
       </c>
       <c r="G72">
-        <v>15.23</v>
+        <v>20.4</v>
       </c>
       <c r="H72">
-        <v>0.5228758169934645</v>
+        <v>-0.09699321047526466</v>
       </c>
       <c r="I72" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J72">
-        <v>1042</v>
+        <v>9337</v>
       </c>
       <c r="K72">
-        <v>182600</v>
+        <v>2455300</v>
       </c>
       <c r="L72">
-        <v>2828146</v>
+        <v>50817533</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3766,34 +3748,34 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D73">
-        <v>89.3</v>
+        <v>27.1</v>
       </c>
       <c r="E73">
-        <v>84.90000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="F73">
-        <v>90.17</v>
+        <v>27.38</v>
       </c>
       <c r="G73">
-        <v>84.66</v>
+        <v>26.56</v>
       </c>
       <c r="H73">
-        <v>6.869315461943508</v>
+        <v>2.573807721423163</v>
       </c>
       <c r="I73" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J73">
-        <v>24431</v>
+        <v>26634</v>
       </c>
       <c r="K73">
-        <v>5443200</v>
+        <v>5275600</v>
       </c>
       <c r="L73">
-        <v>478124947</v>
+        <v>142348594</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3804,34 +3786,34 @@
         <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D74">
-        <v>13.52</v>
+        <v>19.97</v>
       </c>
       <c r="E74">
-        <v>13.57</v>
+        <v>19.55</v>
       </c>
       <c r="F74">
-        <v>13.8</v>
+        <v>20.18</v>
       </c>
       <c r="G74">
-        <v>13.43</v>
+        <v>19.54</v>
       </c>
       <c r="H74">
-        <v>0.148148148148145</v>
+        <v>3.794178794178797</v>
       </c>
       <c r="I74" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J74">
-        <v>5405</v>
+        <v>13711</v>
       </c>
       <c r="K74">
-        <v>1917600</v>
+        <v>5105600</v>
       </c>
       <c r="L74">
-        <v>26028006</v>
+        <v>101493002</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3842,34 +3824,34 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D75">
-        <v>61.06</v>
+        <v>11.16</v>
       </c>
       <c r="E75">
-        <v>65.25</v>
+        <v>11.07</v>
       </c>
       <c r="F75">
-        <v>65.25</v>
+        <v>11.47</v>
       </c>
       <c r="G75">
-        <v>60.91</v>
+        <v>11.01</v>
       </c>
       <c r="H75">
-        <v>-5.713403335392221</v>
+        <v>0.9954751131221667</v>
       </c>
       <c r="I75" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J75">
-        <v>25938</v>
+        <v>3025</v>
       </c>
       <c r="K75">
-        <v>4774000</v>
+        <v>642000</v>
       </c>
       <c r="L75">
-        <v>295600775</v>
+        <v>7199544</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3880,34 +3862,34 @@
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D76">
-        <v>10.07</v>
+        <v>30.6</v>
       </c>
       <c r="E76">
-        <v>10.06</v>
+        <v>31.5</v>
       </c>
       <c r="F76">
-        <v>10.19</v>
+        <v>31.91</v>
       </c>
       <c r="G76">
-        <v>9.91</v>
+        <v>30.37</v>
       </c>
       <c r="H76">
-        <v>1.00300902708124</v>
+        <v>-3.439570842537077</v>
       </c>
       <c r="I76" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J76">
-        <v>5833</v>
+        <v>38738</v>
       </c>
       <c r="K76">
-        <v>3112400</v>
+        <v>14886000</v>
       </c>
       <c r="L76">
-        <v>31298071</v>
+        <v>459638565</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3918,34 +3900,34 @@
         <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D77">
-        <v>98.83</v>
+        <v>15.93</v>
       </c>
       <c r="E77">
-        <v>100.53</v>
+        <v>15.9</v>
       </c>
       <c r="F77">
-        <v>100.85</v>
+        <v>16.19</v>
       </c>
       <c r="G77">
-        <v>97.40000000000001</v>
+        <v>15.83</v>
       </c>
       <c r="H77">
-        <v>0.3655935818015634</v>
+        <v>0.8866371120962671</v>
       </c>
       <c r="I77" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J77">
-        <v>20617</v>
+        <v>6038</v>
       </c>
       <c r="K77">
-        <v>3737800</v>
+        <v>1517900</v>
       </c>
       <c r="L77">
-        <v>369660905</v>
+        <v>24270713</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3956,34 +3938,34 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D78">
-        <v>10.18</v>
+        <v>78.58</v>
       </c>
       <c r="E78">
-        <v>9.91</v>
+        <v>77.75</v>
       </c>
       <c r="F78">
-        <v>10.19</v>
+        <v>80.2</v>
       </c>
       <c r="G78">
-        <v>9.75</v>
+        <v>77.5</v>
       </c>
       <c r="H78">
-        <v>2.932254802831134</v>
+        <v>2.211238293444333</v>
       </c>
       <c r="I78" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J78">
-        <v>1708</v>
+        <v>11183</v>
       </c>
       <c r="K78">
-        <v>430700</v>
+        <v>1772700</v>
       </c>
       <c r="L78">
-        <v>4290549</v>
+        <v>140283856</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3994,34 +3976,34 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D79">
-        <v>141.86</v>
+        <v>25.35</v>
       </c>
       <c r="E79">
-        <v>129.76</v>
+        <v>25.21</v>
       </c>
       <c r="F79">
-        <v>142.73</v>
+        <v>25.73</v>
       </c>
       <c r="G79">
-        <v>129.49</v>
+        <v>24.86</v>
       </c>
       <c r="H79">
-        <v>9.324907521578316</v>
+        <v>1.440576230492209</v>
       </c>
       <c r="I79" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J79">
-        <v>7701</v>
+        <v>5080</v>
       </c>
       <c r="K79">
-        <v>1328400</v>
+        <v>1324500</v>
       </c>
       <c r="L79">
-        <v>183612561</v>
+        <v>33631428</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4032,34 +4014,34 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D80">
-        <v>28.29</v>
+        <v>14.28</v>
       </c>
       <c r="E80">
-        <v>28.25</v>
+        <v>14.35</v>
       </c>
       <c r="F80">
-        <v>28.66</v>
+        <v>14.55</v>
       </c>
       <c r="G80">
-        <v>28.13</v>
+        <v>14.24</v>
       </c>
       <c r="H80">
-        <v>0.8556149732620265</v>
+        <v>0.9900990099009815</v>
       </c>
       <c r="I80" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J80">
-        <v>23684</v>
+        <v>27528</v>
       </c>
       <c r="K80">
-        <v>3808700</v>
+        <v>8982000</v>
       </c>
       <c r="L80">
-        <v>108100421</v>
+        <v>129319554</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4070,34 +4052,34 @@
         <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D81">
-        <v>25.13</v>
+        <v>12.41</v>
       </c>
       <c r="E81">
-        <v>25.61</v>
+        <v>12.46</v>
       </c>
       <c r="F81">
-        <v>25.8</v>
+        <v>12.69</v>
       </c>
       <c r="G81">
-        <v>24.76</v>
+        <v>12.4</v>
       </c>
       <c r="H81">
-        <v>-0.4117476886252202</v>
+        <v>1.638001638001632</v>
       </c>
       <c r="I81" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J81">
-        <v>95588</v>
+        <v>32021</v>
       </c>
       <c r="K81">
-        <v>68364300</v>
+        <v>12881200</v>
       </c>
       <c r="L81">
-        <v>1716926829</v>
+        <v>161080146</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4108,34 +4090,34 @@
         <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D82">
-        <v>34.06</v>
+        <v>28.67</v>
       </c>
       <c r="E82">
-        <v>34.76</v>
+        <v>28.28</v>
       </c>
       <c r="F82">
-        <v>35.1</v>
+        <v>29.16</v>
       </c>
       <c r="G82">
-        <v>33.84</v>
+        <v>28.02</v>
       </c>
       <c r="H82">
-        <v>-0.6707494896471183</v>
+        <v>2.576028622540259</v>
       </c>
       <c r="I82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J82">
-        <v>55491</v>
+        <v>8478</v>
       </c>
       <c r="K82">
-        <v>19800900</v>
+        <v>2591700</v>
       </c>
       <c r="L82">
-        <v>679304607</v>
+        <v>74215107</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4146,34 +4128,34 @@
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D83">
-        <v>62.69</v>
+        <v>15.38</v>
       </c>
       <c r="E83">
-        <v>62</v>
+        <v>15.41</v>
       </c>
       <c r="F83">
-        <v>63.68</v>
+        <v>15.86</v>
       </c>
       <c r="G83">
-        <v>61.88</v>
+        <v>15.23</v>
       </c>
       <c r="H83">
-        <v>2.351020408163262</v>
+        <v>0.5228758169934645</v>
       </c>
       <c r="I83" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J83">
-        <v>51155</v>
+        <v>1042</v>
       </c>
       <c r="K83">
-        <v>13795000</v>
+        <v>182600</v>
       </c>
       <c r="L83">
-        <v>866599282</v>
+        <v>2828146</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4184,34 +4166,34 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D84">
-        <v>42.14</v>
+        <v>89.3</v>
       </c>
       <c r="E84">
-        <v>42.4</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F84">
-        <v>42.67</v>
+        <v>90.17</v>
       </c>
       <c r="G84">
-        <v>41.29</v>
+        <v>84.66</v>
       </c>
       <c r="H84">
-        <v>1.787439613526575</v>
+        <v>6.869315461943508</v>
       </c>
       <c r="I84" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J84">
-        <v>18902</v>
+        <v>24431</v>
       </c>
       <c r="K84">
-        <v>5302300</v>
+        <v>5443200</v>
       </c>
       <c r="L84">
-        <v>223214072</v>
+        <v>478124947</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4222,34 +4204,34 @@
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D85">
-        <v>72.5</v>
+        <v>13.52</v>
       </c>
       <c r="E85">
-        <v>72.36</v>
+        <v>13.57</v>
       </c>
       <c r="F85">
-        <v>73.98</v>
+        <v>13.8</v>
       </c>
       <c r="G85">
-        <v>71.51000000000001</v>
+        <v>13.43</v>
       </c>
       <c r="H85">
-        <v>0.8344923504867793</v>
+        <v>0.148148148148145</v>
       </c>
       <c r="I85" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J85">
-        <v>3747</v>
+        <v>5405</v>
       </c>
       <c r="K85">
-        <v>714700</v>
+        <v>1917600</v>
       </c>
       <c r="L85">
-        <v>51731681</v>
+        <v>26028006</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4260,34 +4242,34 @@
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D86">
-        <v>39.03</v>
+        <v>61.06</v>
       </c>
       <c r="E86">
-        <v>39.27</v>
+        <v>65.25</v>
       </c>
       <c r="F86">
-        <v>39.8</v>
+        <v>65.25</v>
       </c>
       <c r="G86">
-        <v>38.92</v>
+        <v>60.91</v>
       </c>
       <c r="H86">
-        <v>0.6446621970087674</v>
+        <v>-5.713403335392221</v>
       </c>
       <c r="I86" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J86">
-        <v>7117</v>
+        <v>25938</v>
       </c>
       <c r="K86">
-        <v>1254300</v>
+        <v>4774000</v>
       </c>
       <c r="L86">
-        <v>49264755</v>
+        <v>295600775</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4298,34 +4280,34 @@
         <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D87">
-        <v>25.5</v>
+        <v>10.07</v>
       </c>
       <c r="E87">
-        <v>25.4</v>
+        <v>10.06</v>
       </c>
       <c r="F87">
-        <v>25.55</v>
+        <v>10.19</v>
       </c>
       <c r="G87">
-        <v>25.01</v>
+        <v>9.91</v>
       </c>
       <c r="H87">
-        <v>1.959216313474604</v>
+        <v>1.00300902708124</v>
       </c>
       <c r="I87" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J87">
-        <v>1720</v>
+        <v>5833</v>
       </c>
       <c r="K87">
-        <v>273200</v>
+        <v>3112400</v>
       </c>
       <c r="L87">
-        <v>6926665</v>
+        <v>31298071</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4336,34 +4318,34 @@
         <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D88">
-        <v>5.64</v>
+        <v>98.83</v>
       </c>
       <c r="E88">
-        <v>5.74</v>
+        <v>100.53</v>
       </c>
       <c r="F88">
-        <v>5.86</v>
+        <v>100.85</v>
       </c>
       <c r="G88">
-        <v>5.61</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H88">
-        <v>-1.22591943957969</v>
+        <v>0.3655935818015634</v>
       </c>
       <c r="I88" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J88">
-        <v>8260</v>
+        <v>20617</v>
       </c>
       <c r="K88">
-        <v>2728100</v>
+        <v>3737800</v>
       </c>
       <c r="L88">
-        <v>15572565</v>
+        <v>369660905</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4374,34 +4356,34 @@
         <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D89">
-        <v>10.04</v>
+        <v>10.18</v>
       </c>
       <c r="E89">
-        <v>10.17</v>
+        <v>9.91</v>
       </c>
       <c r="F89">
-        <v>10.17</v>
+        <v>10.19</v>
       </c>
       <c r="G89">
-        <v>9.99</v>
+        <v>9.75</v>
       </c>
       <c r="H89">
-        <v>0.8032128514056053</v>
+        <v>2.932254802831134</v>
       </c>
       <c r="I89" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J89">
-        <v>2811</v>
+        <v>1708</v>
       </c>
       <c r="K89">
-        <v>596800</v>
+        <v>430700</v>
       </c>
       <c r="L89">
-        <v>5999420</v>
+        <v>4290549</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4412,34 +4394,34 @@
         <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D90">
-        <v>8.359999999999999</v>
+        <v>5.64</v>
       </c>
       <c r="E90">
-        <v>8.49</v>
+        <v>5.74</v>
       </c>
       <c r="F90">
-        <v>8.630000000000001</v>
+        <v>5.86</v>
       </c>
       <c r="G90">
-        <v>8.359999999999999</v>
+        <v>5.61</v>
       </c>
       <c r="H90">
-        <v>-0.8303677342823285</v>
+        <v>-1.22591943957969</v>
       </c>
       <c r="I90" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J90">
-        <v>11063</v>
+        <v>8260</v>
       </c>
       <c r="K90">
-        <v>4284600</v>
+        <v>2728100</v>
       </c>
       <c r="L90">
-        <v>36339162</v>
+        <v>15572565</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4450,34 +4432,34 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D91">
-        <v>21.3</v>
+        <v>141.86</v>
       </c>
       <c r="E91">
-        <v>21.89</v>
+        <v>129.76</v>
       </c>
       <c r="F91">
-        <v>23.28</v>
+        <v>142.73</v>
       </c>
       <c r="G91">
-        <v>20.12</v>
+        <v>129.49</v>
       </c>
       <c r="H91">
-        <v>1.525262154432794</v>
+        <v>9.324907521578316</v>
       </c>
       <c r="I91" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J91">
-        <v>30468</v>
+        <v>7701</v>
       </c>
       <c r="K91">
-        <v>13006400</v>
+        <v>1328400</v>
       </c>
       <c r="L91">
-        <v>282022974</v>
+        <v>183612561</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4488,34 +4470,34 @@
         <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D92">
-        <v>19.5</v>
+        <v>28.29</v>
       </c>
       <c r="E92">
-        <v>19.21</v>
+        <v>28.25</v>
       </c>
       <c r="F92">
-        <v>19.75</v>
+        <v>28.66</v>
       </c>
       <c r="G92">
-        <v>18.93</v>
+        <v>28.13</v>
       </c>
       <c r="H92">
-        <v>1.562500000000004</v>
+        <v>0.8556149732620265</v>
       </c>
       <c r="I92" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J92">
-        <v>10267</v>
+        <v>23684</v>
       </c>
       <c r="K92">
-        <v>3124200</v>
+        <v>3808700</v>
       </c>
       <c r="L92">
-        <v>60699144</v>
+        <v>108100421</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4526,34 +4508,34 @@
         <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D93">
-        <v>68.55</v>
+        <v>25.13</v>
       </c>
       <c r="E93">
-        <v>68.03</v>
+        <v>25.61</v>
       </c>
       <c r="F93">
-        <v>69.73999999999999</v>
+        <v>25.8</v>
       </c>
       <c r="G93">
-        <v>67.7</v>
+        <v>24.76</v>
       </c>
       <c r="H93">
-        <v>1.106194690265487</v>
+        <v>-0.4117476886252202</v>
       </c>
       <c r="I93" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J93">
-        <v>10200</v>
+        <v>95588</v>
       </c>
       <c r="K93">
-        <v>2228800</v>
+        <v>68364300</v>
       </c>
       <c r="L93">
-        <v>153051151</v>
+        <v>1716926829</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4564,34 +4546,34 @@
         <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D94">
-        <v>17.64</v>
+        <v>34.06</v>
       </c>
       <c r="E94">
-        <v>17.43</v>
+        <v>34.76</v>
       </c>
       <c r="F94">
-        <v>18.46</v>
+        <v>35.1</v>
       </c>
       <c r="G94">
-        <v>16.95</v>
+        <v>33.84</v>
       </c>
       <c r="H94">
-        <v>5.313432835820899</v>
+        <v>-0.6707494896471183</v>
       </c>
       <c r="I94" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J94">
-        <v>7802</v>
+        <v>55491</v>
       </c>
       <c r="K94">
-        <v>3027400</v>
+        <v>19800900</v>
       </c>
       <c r="L94">
-        <v>53451309</v>
+        <v>679304607</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4602,34 +4584,34 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D95">
-        <v>28.67</v>
+        <v>62.69</v>
       </c>
       <c r="E95">
-        <v>28.28</v>
+        <v>62</v>
       </c>
       <c r="F95">
-        <v>29.16</v>
+        <v>63.68</v>
       </c>
       <c r="G95">
-        <v>28.02</v>
+        <v>61.88</v>
       </c>
       <c r="H95">
-        <v>2.576028622540259</v>
+        <v>2.351020408163262</v>
       </c>
       <c r="I95" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J95">
-        <v>8478</v>
+        <v>51155</v>
       </c>
       <c r="K95">
-        <v>2591700</v>
+        <v>13795000</v>
       </c>
       <c r="L95">
-        <v>74215107</v>
+        <v>866599282</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4640,34 +4622,34 @@
         <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D96">
-        <v>12.43</v>
+        <v>42.14</v>
       </c>
       <c r="E96">
-        <v>12.65</v>
+        <v>42.4</v>
       </c>
       <c r="F96">
-        <v>12.75</v>
+        <v>42.67</v>
       </c>
       <c r="G96">
-        <v>12.31</v>
+        <v>41.29</v>
       </c>
       <c r="H96">
-        <v>-0.1606425702811211</v>
+        <v>1.787439613526575</v>
       </c>
       <c r="I96" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J96">
-        <v>12321</v>
+        <v>18902</v>
       </c>
       <c r="K96">
-        <v>5177700</v>
+        <v>5302300</v>
       </c>
       <c r="L96">
-        <v>64620027</v>
+        <v>223214072</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4678,34 +4660,34 @@
         <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D97">
-        <v>11.16</v>
+        <v>72.5</v>
       </c>
       <c r="E97">
-        <v>11.07</v>
+        <v>72.36</v>
       </c>
       <c r="F97">
-        <v>11.47</v>
+        <v>73.98</v>
       </c>
       <c r="G97">
-        <v>11.01</v>
+        <v>71.51000000000001</v>
       </c>
       <c r="H97">
-        <v>0.9954751131221667</v>
+        <v>0.8344923504867793</v>
       </c>
       <c r="I97" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J97">
-        <v>3025</v>
+        <v>3747</v>
       </c>
       <c r="K97">
-        <v>642000</v>
+        <v>714700</v>
       </c>
       <c r="L97">
-        <v>7199544</v>
+        <v>51731681</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4716,34 +4698,34 @@
         <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D98">
-        <v>11.83</v>
+        <v>25.5</v>
       </c>
       <c r="E98">
-        <v>11.82</v>
+        <v>25.4</v>
       </c>
       <c r="F98">
-        <v>11.98</v>
+        <v>25.55</v>
       </c>
       <c r="G98">
-        <v>11.72</v>
+        <v>25.01</v>
       </c>
       <c r="H98">
-        <v>1.111111111111118</v>
+        <v>1.959216313474604</v>
       </c>
       <c r="I98" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J98">
-        <v>402</v>
+        <v>1720</v>
       </c>
       <c r="K98">
-        <v>123500</v>
+        <v>273200</v>
       </c>
       <c r="L98">
-        <v>1465022</v>
+        <v>6926665</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4754,34 +4736,34 @@
         <v>108</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D99">
-        <v>6.77</v>
+        <v>39.03</v>
       </c>
       <c r="E99">
-        <v>6.79</v>
+        <v>39.27</v>
       </c>
       <c r="F99">
-        <v>6.88</v>
+        <v>39.8</v>
       </c>
       <c r="G99">
-        <v>6.71</v>
+        <v>38.92</v>
       </c>
       <c r="H99">
-        <v>-0.2945508100147343</v>
+        <v>0.6446621970087674</v>
       </c>
       <c r="I99" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J99">
-        <v>6224</v>
+        <v>7117</v>
       </c>
       <c r="K99">
-        <v>1773400</v>
+        <v>1254300</v>
       </c>
       <c r="L99">
-        <v>12034810</v>
+        <v>49264755</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4792,148 +4774,34 @@
         <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D100">
-        <v>18.78</v>
+        <v>12.43</v>
       </c>
       <c r="E100">
-        <v>18.31</v>
+        <v>12.65</v>
       </c>
       <c r="F100">
-        <v>18.98</v>
+        <v>12.75</v>
       </c>
       <c r="G100">
-        <v>18.25</v>
+        <v>12.31</v>
       </c>
       <c r="H100">
-        <v>3.243540406816932</v>
+        <v>-0.1606425702811211</v>
       </c>
       <c r="I100" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J100">
-        <v>6331</v>
+        <v>12321</v>
       </c>
       <c r="K100">
-        <v>1965000</v>
+        <v>5177700</v>
       </c>
       <c r="L100">
-        <v>36709401</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C101" t="s">
-        <v>113</v>
-      </c>
-      <c r="D101">
-        <v>25.84</v>
-      </c>
-      <c r="E101">
-        <v>25.88</v>
-      </c>
-      <c r="F101">
-        <v>26.55</v>
-      </c>
-      <c r="G101">
-        <v>25.3</v>
-      </c>
-      <c r="H101">
-        <v>0.3495145631067956</v>
-      </c>
-      <c r="I101" t="s">
-        <v>213</v>
-      </c>
-      <c r="J101">
-        <v>5928</v>
-      </c>
-      <c r="K101">
-        <v>1408300</v>
-      </c>
-      <c r="L101">
-        <v>36433217</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>111</v>
-      </c>
-      <c r="C102" t="s">
-        <v>113</v>
-      </c>
-      <c r="D102">
-        <v>118233.81</v>
-      </c>
-      <c r="E102">
-        <v>117520.36</v>
-      </c>
-      <c r="F102">
-        <v>119805.18</v>
-      </c>
-      <c r="G102">
-        <v>117519.17</v>
-      </c>
-      <c r="H102">
-        <v>0.6094748215096608</v>
-      </c>
-      <c r="I102" t="s">
-        <v>214</v>
-      </c>
-      <c r="J102">
-        <v>2603990</v>
-      </c>
-      <c r="K102">
-        <v>1162620200</v>
-      </c>
-      <c r="L102">
-        <v>30140803192</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>112</v>
-      </c>
-      <c r="C103" t="s">
-        <v>113</v>
-      </c>
-      <c r="D103">
-        <v>118610</v>
-      </c>
-      <c r="E103">
-        <v>118485</v>
-      </c>
-      <c r="F103">
-        <v>119915</v>
-      </c>
-      <c r="G103">
-        <v>117710</v>
-      </c>
-      <c r="H103">
-        <v>0.9876543209876543</v>
-      </c>
-      <c r="I103" t="s">
-        <v>215</v>
-      </c>
-      <c r="J103">
-        <v>5550224</v>
-      </c>
-      <c r="K103">
-        <v>20612170</v>
-      </c>
-      <c r="L103">
-        <v>489321977864</v>
+        <v>64620027</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas_diarias/2021-02-02.xlsx
+++ b/planilhas_diarias/2021-02-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="368">
   <si>
     <t>Asset</t>
   </si>
@@ -49,601 +49,1075 @@
     <t>Volume</t>
   </si>
   <si>
+    <t>AALR3</t>
+  </si>
+  <si>
+    <t>ABCB4</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>AERI3</t>
+  </si>
+  <si>
+    <t>AGRO3</t>
+  </si>
+  <si>
+    <t>ALPA4</t>
+  </si>
+  <si>
+    <t>ALSO3</t>
+  </si>
+  <si>
+    <t>AMAR3</t>
+  </si>
+  <si>
+    <t>AMBP3</t>
+  </si>
+  <si>
+    <t>ANIM3</t>
+  </si>
+  <si>
+    <t>ARZZ3</t>
+  </si>
+  <si>
+    <t>AZUL4</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>BBRK3</t>
+  </si>
+  <si>
+    <t>BBSE3</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>BIDI11</t>
+  </si>
+  <si>
+    <t>BKBR3</t>
+  </si>
+  <si>
+    <t>BMGB4</t>
+  </si>
+  <si>
+    <t>BOAS3</t>
+  </si>
+  <si>
+    <t>BOVA11</t>
+  </si>
+  <si>
+    <t>BPAN4</t>
+  </si>
+  <si>
+    <t>BRAP4</t>
+  </si>
+  <si>
+    <t>BRDT3</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>BRKM5</t>
+  </si>
+  <si>
+    <t>BRML3</t>
+  </si>
+  <si>
+    <t>BRPR3</t>
+  </si>
+  <si>
+    <t>BRSR6</t>
+  </si>
+  <si>
+    <t>BTOW3</t>
+  </si>
+  <si>
+    <t>CAML3</t>
+  </si>
+  <si>
+    <t>CARD3</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>CEAB3</t>
+  </si>
+  <si>
+    <t>CESP6</t>
+  </si>
+  <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>CNTO3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>CPFE3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
+    <t>CSMG3</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>CURY3</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>DMVF3</t>
+  </si>
+  <si>
+    <t>DTEX3</t>
+  </si>
+  <si>
+    <t>ECOR3</t>
+  </si>
+  <si>
+    <t>EGIE3</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>ENAT3</t>
+  </si>
+  <si>
+    <t>ENBR3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>ENJU3</t>
+  </si>
+  <si>
+    <t>EQTL3</t>
+  </si>
+  <si>
+    <t>ETER3</t>
+  </si>
+  <si>
+    <t>EVEN3</t>
+  </si>
+  <si>
+    <t>EZTC3</t>
+  </si>
+  <si>
+    <t>FESA4</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>GFSA3</t>
+  </si>
+  <si>
+    <t>GGBR4</t>
+  </si>
+  <si>
+    <t>GMAT3</t>
+  </si>
+  <si>
+    <t>GNDI3</t>
+  </si>
+  <si>
+    <t>GOAU4</t>
+  </si>
+  <si>
+    <t>GOLL4</t>
+  </si>
+  <si>
+    <t>GRND3</t>
+  </si>
+  <si>
+    <t>GUAR3</t>
+  </si>
+  <si>
+    <t>HAPV3</t>
+  </si>
+  <si>
+    <t>HBOR3</t>
+  </si>
+  <si>
+    <t>HBSA3</t>
+  </si>
+  <si>
+    <t>HGTX3</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>IBOV</t>
+  </si>
+  <si>
+    <t>IGTA3</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>JHSF3</t>
+  </si>
+  <si>
+    <t>JPSA3</t>
+  </si>
+  <si>
+    <t>KLBN11</t>
+  </si>
+  <si>
+    <t>LAME4</t>
+  </si>
+  <si>
+    <t>LAVV3</t>
+  </si>
+  <si>
+    <t>LCAM3</t>
+  </si>
+  <si>
+    <t>LEVE3</t>
+  </si>
+  <si>
+    <t>LIGT3</t>
+  </si>
+  <si>
+    <t>LINX3</t>
+  </si>
+  <si>
+    <t>LJQQ3</t>
+  </si>
+  <si>
+    <t>LOGG3</t>
+  </si>
+  <si>
+    <t>LOGN3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>MDIA3</t>
+  </si>
+  <si>
+    <t>MDNE3</t>
+  </si>
+  <si>
+    <t>MELK3</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>MILS3</t>
+  </si>
+  <si>
+    <t>MOVI3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>MRVE3</t>
+  </si>
+  <si>
+    <t>MTRE3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>MYPK3</t>
+  </si>
+  <si>
+    <t>NEOE3</t>
+  </si>
+  <si>
+    <t>NGRD3</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>ODPV3</t>
+  </si>
+  <si>
+    <t>OIBR3</t>
+  </si>
+  <si>
+    <t>OMGE3</t>
+  </si>
+  <si>
+    <t>PARD3</t>
+  </si>
+  <si>
+    <t>PCAR3</t>
+  </si>
+  <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t>PETZ3</t>
+  </si>
+  <si>
+    <t>PFRM3</t>
+  </si>
+  <si>
+    <t>PGMN3</t>
+  </si>
+  <si>
+    <t>PLPL3</t>
+  </si>
+  <si>
+    <t>PNVL3</t>
+  </si>
+  <si>
+    <t>POMO4</t>
+  </si>
+  <si>
+    <t>POSI3</t>
+  </si>
+  <si>
+    <t>PRIO3</t>
+  </si>
+  <si>
+    <t>PRNR3</t>
+  </si>
+  <si>
+    <t>PSSA3</t>
+  </si>
+  <si>
+    <t>PTBL3</t>
+  </si>
+  <si>
+    <t>QUAL3</t>
+  </si>
+  <si>
+    <t>RADL3</t>
+  </si>
+  <si>
+    <t>RAIL3</t>
+  </si>
+  <si>
+    <t>RAPT4</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>RENT3</t>
+  </si>
+  <si>
+    <t>RLOG3</t>
+  </si>
+  <si>
+    <t>ROMI3</t>
+  </si>
+  <si>
+    <t>RRRP3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>SAPR11</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
+    <t>SEER3</t>
+  </si>
+  <si>
+    <t>SEQL3</t>
+  </si>
+  <si>
+    <t>SIMH3</t>
+  </si>
+  <si>
+    <t>SLCE3</t>
+  </si>
+  <si>
+    <t>SMLS3</t>
+  </si>
+  <si>
+    <t>SMTO3</t>
+  </si>
+  <si>
+    <t>SOMA3</t>
+  </si>
+  <si>
+    <t>SQIA3</t>
+  </si>
+  <si>
+    <t>STBP3</t>
+  </si>
+  <si>
+    <t>SUZB3</t>
+  </si>
+  <si>
+    <t>TAEE11</t>
+  </si>
+  <si>
+    <t>TASA4</t>
+  </si>
+  <si>
+    <t>TEND3</t>
+  </si>
+  <si>
+    <t>TFCO4</t>
+  </si>
+  <si>
+    <t>TGMA3</t>
+  </si>
+  <si>
+    <t>TIET11</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>TOTS3</t>
+  </si>
+  <si>
+    <t>TRIS3</t>
+  </si>
+  <si>
+    <t>TRPL4</t>
+  </si>
+  <si>
+    <t>TUPY3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
+  </si>
+  <si>
+    <t>UNIP6</t>
+  </si>
+  <si>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>VALE3</t>
+  </si>
+  <si>
+    <t>VIVA3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>VLID3</t>
+  </si>
+  <si>
+    <t>VULC3</t>
+  </si>
+  <si>
+    <t>VVAR3</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>WIZS3</t>
+  </si>
+  <si>
     <t>YDUQ3</t>
   </si>
   <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>VVAR3</t>
-  </si>
-  <si>
-    <t>VIVA3</t>
-  </si>
-  <si>
-    <t>VALE3</t>
-  </si>
-  <si>
-    <t>USIM5</t>
-  </si>
-  <si>
-    <t>UNIP6</t>
-  </si>
-  <si>
-    <t>TRIS3</t>
-  </si>
-  <si>
-    <t>TOTS3</t>
-  </si>
-  <si>
-    <t>TGMA3</t>
-  </si>
-  <si>
-    <t>TASA4</t>
-  </si>
-  <si>
-    <t>SUZB3</t>
-  </si>
-  <si>
-    <t>SQIA3</t>
-  </si>
-  <si>
-    <t>SLCE3</t>
-  </si>
-  <si>
-    <t>SIMH3</t>
-  </si>
-  <si>
-    <t>SEQL3</t>
-  </si>
-  <si>
-    <t>SEER3</t>
-  </si>
-  <si>
-    <t>SAPR11</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>ROMI3</t>
-  </si>
-  <si>
-    <t>RLOG3</t>
-  </si>
-  <si>
-    <t>RENT3</t>
-  </si>
-  <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
-    <t>RAPT4</t>
-  </si>
-  <si>
-    <t>RAIL3</t>
-  </si>
-  <si>
-    <t>RADL3</t>
-  </si>
-  <si>
-    <t>QUAL3</t>
-  </si>
-  <si>
-    <t>PTBL3</t>
-  </si>
-  <si>
-    <t>PRIO3</t>
-  </si>
-  <si>
-    <t>POSI3</t>
-  </si>
-  <si>
-    <t>PGMN3</t>
-  </si>
-  <si>
-    <t>PETZ3</t>
-  </si>
-  <si>
-    <t>PETR4</t>
-  </si>
-  <si>
-    <t>OIBR3</t>
-  </si>
-  <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t>NGRD3</t>
-  </si>
-  <si>
-    <t>NEOE3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>MRVE3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>MOVI3</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t>LOGN3</t>
-  </si>
-  <si>
-    <t>LJQQ3</t>
-  </si>
-  <si>
-    <t>LIGT3</t>
-  </si>
-  <si>
-    <t>LCAM3</t>
-  </si>
-  <si>
-    <t>LAME4</t>
-  </si>
-  <si>
-    <t>KLBN11</t>
-  </si>
-  <si>
-    <t>JHSF3</t>
-  </si>
-  <si>
-    <t>JBSS3</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>IBOV</t>
-  </si>
-  <si>
-    <t>HBSA3</t>
-  </si>
-  <si>
-    <t>HAPV3</t>
-  </si>
-  <si>
-    <t>GOLL4</t>
-  </si>
-  <si>
-    <t>GOAU4</t>
-  </si>
-  <si>
-    <t>GNDI3</t>
-  </si>
-  <si>
-    <t>GMAT3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
-    <t>ETER3</t>
+    <t>BPAC11</t>
   </si>
   <si>
     <t>ESPA3</t>
   </si>
   <si>
-    <t>EQTL3</t>
-  </si>
-  <si>
-    <t>ENJU3</t>
-  </si>
-  <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>ECOR3</t>
-  </si>
-  <si>
-    <t>DTEX3</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>CVCB3</t>
-  </si>
-  <si>
-    <t>CURY3</t>
-  </si>
-  <si>
-    <t>CSNA3</t>
-  </si>
-  <si>
-    <t>CSMG3</t>
-  </si>
-  <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>CNTO3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>CASH3</t>
-  </si>
-  <si>
-    <t>CARD3</t>
-  </si>
-  <si>
-    <t>BTOW3</t>
-  </si>
-  <si>
-    <t>BRSR6</t>
-  </si>
-  <si>
-    <t>BRAP4</t>
-  </si>
-  <si>
-    <t>BPAN4</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>BOAS3</t>
-  </si>
-  <si>
-    <t>BMGB4</t>
-  </si>
-  <si>
-    <t>BIDI11</t>
-  </si>
-  <si>
-    <t>BBSE3</t>
-  </si>
-  <si>
-    <t>BBDC4</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>AZUL4</t>
-  </si>
-  <si>
-    <t>ARZZ3</t>
-  </si>
-  <si>
-    <t>AMBP3</t>
-  </si>
-  <si>
-    <t>ALPA4</t>
-  </si>
-  <si>
-    <t>AERI3</t>
-  </si>
-  <si>
     <t>02/02/2021</t>
   </si>
   <si>
+    <t>Alliar ON NM</t>
+  </si>
+  <si>
+    <t>Abc Brasil PN N2</t>
+  </si>
+  <si>
+    <t>Ambev S/A ON</t>
+  </si>
+  <si>
+    <t>Aeris ON NM</t>
+  </si>
+  <si>
+    <t>Brasilagro ON NM</t>
+  </si>
+  <si>
+    <t>Alpargatas PN N1</t>
+  </si>
+  <si>
+    <t>Alianscsonae ON NM</t>
+  </si>
+  <si>
+    <t>Lojas Marisa ON NM</t>
+  </si>
+  <si>
+    <t>Ambipar ON NM</t>
+  </si>
+  <si>
+    <t>Anima ON NM</t>
+  </si>
+  <si>
+    <t>Arezzo Co ON NM</t>
+  </si>
+  <si>
+    <t>Azul PN N2</t>
+  </si>
+  <si>
+    <t>B3 ON NM</t>
+  </si>
+  <si>
+    <t>Brasil ON NM</t>
+  </si>
+  <si>
+    <t>Bradesco PN EJ N1</t>
+  </si>
+  <si>
+    <t>Br Brokers ON NM</t>
+  </si>
+  <si>
+    <t>Bbseguridade ON NM</t>
+  </si>
+  <si>
+    <t>Minerva ON NM</t>
+  </si>
+  <si>
+    <t>Banco Inter UNT N2</t>
+  </si>
+  <si>
+    <t>Bk Brasil ON NM</t>
+  </si>
+  <si>
+    <t>Banco Bmg PN N1</t>
+  </si>
+  <si>
+    <t>Boa Vista ON NM</t>
+  </si>
+  <si>
+    <t>Ishares Bova CI</t>
+  </si>
+  <si>
+    <t>Banco Pan PN N1</t>
+  </si>
+  <si>
+    <t>Bradespar PN N1</t>
+  </si>
+  <si>
+    <t>Petrobras Br ON NM</t>
+  </si>
+  <si>
+    <t>Brf Sa ON NM</t>
+  </si>
+  <si>
+    <t>Braskem PNA N1</t>
+  </si>
+  <si>
+    <t>Br Malls Par ON NM</t>
+  </si>
+  <si>
+    <t>Br Propert ON NM</t>
+  </si>
+  <si>
+    <t>Banrisul PNB N1</t>
+  </si>
+  <si>
+    <t>B2w Digital ON NM</t>
+  </si>
+  <si>
+    <t>Camil ON NM</t>
+  </si>
+  <si>
+    <t>Csu Cardsyst ON NM</t>
+  </si>
+  <si>
+    <t>Meliuz ON NM</t>
+  </si>
+  <si>
+    <t>Ccr Sa ON NM</t>
+  </si>
+  <si>
+    <t>Cea Modas ON NM</t>
+  </si>
+  <si>
+    <t>Cesp PNB N1</t>
+  </si>
+  <si>
+    <t>Cielo ON ED NM</t>
+  </si>
+  <si>
+    <t>Cemig PN N1</t>
+  </si>
+  <si>
+    <t>Centauro ON NM</t>
+  </si>
+  <si>
+    <t>Cogna On ON NM</t>
+  </si>
+  <si>
+    <t>Cpfl Energia ON NM</t>
+  </si>
+  <si>
+    <t>Copel PNB N1</t>
+  </si>
+  <si>
+    <t>Cosan ON NM</t>
+  </si>
+  <si>
+    <t>Copasa ON NM</t>
+  </si>
+  <si>
+    <t>Sid Nacional ON</t>
+  </si>
+  <si>
+    <t>Cury S/A ON NM</t>
+  </si>
+  <si>
+    <t>Cvc Brasil ON NM</t>
+  </si>
+  <si>
+    <t>Cyrela Realt ON NM</t>
+  </si>
+  <si>
+    <t>D1000vfarma ON NM</t>
+  </si>
+  <si>
+    <t>Duratex ON NM</t>
+  </si>
+  <si>
+    <t>Ecorodovias ON NM</t>
+  </si>
+  <si>
+    <t>Engie Brasil ON NM</t>
+  </si>
+  <si>
+    <t>Eletrobras ON N1</t>
+  </si>
+  <si>
+    <t>Embraer ON NM</t>
+  </si>
+  <si>
+    <t>Enauta Part ON NM</t>
+  </si>
+  <si>
+    <t>Energias Br ON NM</t>
+  </si>
+  <si>
+    <t>Eneva ON NM</t>
+  </si>
+  <si>
+    <t>Energisa UNT N2</t>
+  </si>
+  <si>
+    <t>Enjoei ON NM</t>
+  </si>
+  <si>
+    <t>Equatorial ON NM</t>
+  </si>
+  <si>
+    <t>Eternit ON NM</t>
+  </si>
+  <si>
+    <t>Even ON NM</t>
+  </si>
+  <si>
+    <t>Eztec ON NM</t>
+  </si>
+  <si>
+    <t>Ferbasa PN N1</t>
+  </si>
+  <si>
+    <t>Fleury ON NM</t>
+  </si>
+  <si>
+    <t>Gafisa ON NM</t>
+  </si>
+  <si>
+    <t>Gerdau PN N1</t>
+  </si>
+  <si>
+    <t>Grupo Mateus ON NM</t>
+  </si>
+  <si>
+    <t>Intermedica ON NM</t>
+  </si>
+  <si>
+    <t>Gerdau Met PN N1</t>
+  </si>
+  <si>
+    <t>Gol PN N2</t>
+  </si>
+  <si>
+    <t>Grendene ON NM</t>
+  </si>
+  <si>
+    <t>Guararapes ON</t>
+  </si>
+  <si>
+    <t>Hapvida ON NM</t>
+  </si>
+  <si>
+    <t>Helbor ON NM</t>
+  </si>
+  <si>
+    <t>Hidrovias ON NM</t>
+  </si>
+  <si>
+    <t>Cia Hering ON NM</t>
+  </si>
+  <si>
+    <t>Hypera ON NM</t>
+  </si>
+  <si>
+    <t>Ibovespa</t>
+  </si>
+  <si>
+    <t>Iguatemi ON NM</t>
+  </si>
+  <si>
+    <t>Irbbrasil Re ON NM</t>
+  </si>
+  <si>
+    <t>Itausa PN EJ N1</t>
+  </si>
+  <si>
+    <t>Itauunibanco PN EDJ N1</t>
+  </si>
+  <si>
+    <t>Jbs ON NM</t>
+  </si>
+  <si>
+    <t>Jhsf Part ON NM</t>
+  </si>
+  <si>
+    <t>Jereissati ON</t>
+  </si>
+  <si>
+    <t>Klabin S/A UNT N2</t>
+  </si>
+  <si>
+    <t>Lojas Americ PN N1</t>
+  </si>
+  <si>
+    <t>Lavvi ON NM</t>
+  </si>
+  <si>
+    <t>Locamerica ON NM</t>
+  </si>
+  <si>
+    <t>Metal Leve ON NM</t>
+  </si>
+  <si>
+    <t>Light S/A ON NM</t>
+  </si>
+  <si>
+    <t>Linx ON NM</t>
+  </si>
+  <si>
+    <t>Quero-Quero ON NM</t>
+  </si>
+  <si>
+    <t>Log Com Prop ON NM</t>
+  </si>
+  <si>
+    <t>Log-In ON NM</t>
+  </si>
+  <si>
+    <t>Lojas Renner ON NM</t>
+  </si>
+  <si>
+    <t>Locaweb ON EB NM</t>
+  </si>
+  <si>
+    <t>M.Diasbranco ON NM</t>
+  </si>
+  <si>
+    <t>Moura Dubeux ON NM</t>
+  </si>
+  <si>
+    <t>Melnick ON NM</t>
+  </si>
+  <si>
+    <t>Magaz Luiza ON NM</t>
+  </si>
+  <si>
+    <t>Mills ON NM</t>
+  </si>
+  <si>
+    <t>Movida ON NM</t>
+  </si>
+  <si>
+    <t>Marfrig ON NM</t>
+  </si>
+  <si>
+    <t>Mrv ON NM</t>
+  </si>
+  <si>
+    <t>Mitre Realty ON NM</t>
+  </si>
+  <si>
+    <t>Multiplan ON N2</t>
+  </si>
+  <si>
+    <t>Iochp-Maxion ON NM</t>
+  </si>
+  <si>
+    <t>Neoenergia ON NM</t>
+  </si>
+  <si>
+    <t>Neogrid ON NM</t>
+  </si>
+  <si>
+    <t>Grupo Natura ON NM</t>
+  </si>
+  <si>
+    <t>Odontoprev ON NM</t>
+  </si>
+  <si>
+    <t>Oi ON N1</t>
+  </si>
+  <si>
+    <t>Omega Ger ON NM</t>
+  </si>
+  <si>
+    <t>Ihpardini ON NM</t>
+  </si>
+  <si>
+    <t>P.Acucar-Cbd ON NM</t>
+  </si>
+  <si>
+    <t>Petrobras PN N2</t>
+  </si>
+  <si>
+    <t>Petz ON NM</t>
+  </si>
+  <si>
+    <t>Profarma ON NM</t>
+  </si>
+  <si>
+    <t>Pague Menos ON NM</t>
+  </si>
+  <si>
+    <t>Planoeplano ON NM</t>
+  </si>
+  <si>
+    <t>Dimed ON N2</t>
+  </si>
+  <si>
+    <t>Marcopolo PN N2</t>
+  </si>
+  <si>
+    <t>Positivo Tec ON NM</t>
+  </si>
+  <si>
+    <t>Petrorio ON NM</t>
+  </si>
+  <si>
+    <t>Priner ON NM</t>
+  </si>
+  <si>
+    <t>Porto Seguro ON NM</t>
+  </si>
+  <si>
+    <t>Portobello ON ED NM</t>
+  </si>
+  <si>
+    <t>Qualicorp ON NM</t>
+  </si>
+  <si>
+    <t>Raiadrogasil ON NM</t>
+  </si>
+  <si>
+    <t>Rumo S.A. ON NM</t>
+  </si>
+  <si>
+    <t>Randon Part PN N1</t>
+  </si>
+  <si>
+    <t>Rede D Or ON NM</t>
+  </si>
+  <si>
+    <t>Localiza ON NM</t>
+  </si>
+  <si>
+    <t>Cosan Log ON NM</t>
+  </si>
+  <si>
+    <t>Inds Romi ON NM</t>
+  </si>
+  <si>
+    <t>3r Petroleum ON NM</t>
+  </si>
+  <si>
+    <t>Santander Br UNT</t>
+  </si>
+  <si>
+    <t>Sanepar UNT N2</t>
+  </si>
+  <si>
+    <t>Sabesp ON NM</t>
+  </si>
+  <si>
+    <t>Ser Educa ON NM</t>
+  </si>
+  <si>
+    <t>Sequoia Log ON NM</t>
+  </si>
+  <si>
+    <t>Simpar ON NM</t>
+  </si>
+  <si>
+    <t>Slc Agricola ON NM</t>
+  </si>
+  <si>
+    <t>Smiles ON NM</t>
+  </si>
+  <si>
+    <t>Sao Martinho ON NM</t>
+  </si>
+  <si>
+    <t>Grupo Soma ON NM</t>
+  </si>
+  <si>
+    <t>Sinqia ON NM</t>
+  </si>
+  <si>
+    <t>Santos Brp ON NM</t>
+  </si>
+  <si>
+    <t>Suzano S.A. ON NM</t>
+  </si>
+  <si>
+    <t>Taesa UNT N2</t>
+  </si>
+  <si>
+    <t>Taurus Armas PN N2</t>
+  </si>
+  <si>
+    <t>Tenda ON NM</t>
+  </si>
+  <si>
+    <t>Track Field PN N2</t>
+  </si>
+  <si>
+    <t>Tegma ON NM</t>
+  </si>
+  <si>
+    <t>Aes Tiete E UNT N2</t>
+  </si>
+  <si>
+    <t>Tim ON NM</t>
+  </si>
+  <si>
+    <t>Totvs ON NM</t>
+  </si>
+  <si>
+    <t>Trisul ON NM</t>
+  </si>
+  <si>
+    <t>Tran Paulist PN N1</t>
+  </si>
+  <si>
+    <t>Tupy ON NM</t>
+  </si>
+  <si>
+    <t>Ultrapar ON NM</t>
+  </si>
+  <si>
+    <t>Unipar PNB</t>
+  </si>
+  <si>
+    <t>Usiminas PNA N1</t>
+  </si>
+  <si>
+    <t>Vale ON NM</t>
+  </si>
+  <si>
+    <t>Vivara S.A. ON NM</t>
+  </si>
+  <si>
+    <t>Telef Brasil ON</t>
+  </si>
+  <si>
+    <t>Valid ON NM</t>
+  </si>
+  <si>
+    <t>Vulcabras ON NM</t>
+  </si>
+  <si>
+    <t>Viavarejo ON NM</t>
+  </si>
+  <si>
+    <t>Weg ON NM</t>
+  </si>
+  <si>
+    <t>Wiz S.A. ON NM</t>
+  </si>
+  <si>
     <t>Yduqs Part ON NM</t>
   </si>
   <si>
-    <t>Weg ON NM</t>
-  </si>
-  <si>
-    <t>Viavarejo ON NM</t>
-  </si>
-  <si>
-    <t>Vivara S.A. ON NM</t>
-  </si>
-  <si>
-    <t>Vale ON NM</t>
-  </si>
-  <si>
-    <t>Usiminas PNA N1</t>
-  </si>
-  <si>
-    <t>Unipar PNB</t>
-  </si>
-  <si>
-    <t>Trisul ON NM</t>
-  </si>
-  <si>
-    <t>Totvs ON NM</t>
-  </si>
-  <si>
-    <t>Tegma ON NM</t>
-  </si>
-  <si>
-    <t>Taurus Armas PN N2</t>
-  </si>
-  <si>
-    <t>Suzano S.A. ON NM</t>
-  </si>
-  <si>
-    <t>Sinqia ON NM</t>
-  </si>
-  <si>
-    <t>Slc Agricola ON NM</t>
-  </si>
-  <si>
-    <t>Simpar ON NM</t>
-  </si>
-  <si>
-    <t>Sequoia Log ON NM</t>
-  </si>
-  <si>
-    <t>Ser Educa ON NM</t>
-  </si>
-  <si>
-    <t>Sanepar UNT N2</t>
-  </si>
-  <si>
-    <t>Santander Br UNT</t>
-  </si>
-  <si>
-    <t>Inds Romi ON NM</t>
-  </si>
-  <si>
-    <t>Cosan Log ON NM</t>
-  </si>
-  <si>
-    <t>Localiza ON NM</t>
-  </si>
-  <si>
-    <t>Rede D Or ON NM</t>
-  </si>
-  <si>
-    <t>Randon Part PN N1</t>
-  </si>
-  <si>
-    <t>Rumo S.A. ON NM</t>
-  </si>
-  <si>
-    <t>Raiadrogasil ON NM</t>
-  </si>
-  <si>
-    <t>Qualicorp ON NM</t>
-  </si>
-  <si>
-    <t>Portobello ON ED NM</t>
-  </si>
-  <si>
-    <t>Petrorio ON NM</t>
-  </si>
-  <si>
-    <t>Positivo Tec ON NM</t>
-  </si>
-  <si>
-    <t>Pague Menos ON NM</t>
-  </si>
-  <si>
-    <t>Petz ON NM</t>
-  </si>
-  <si>
-    <t>Petrobras PN N2</t>
-  </si>
-  <si>
-    <t>Oi ON N1</t>
-  </si>
-  <si>
-    <t>Grupo Natura ON NM</t>
-  </si>
-  <si>
-    <t>Neogrid ON NM</t>
-  </si>
-  <si>
-    <t>Neoenergia ON NM</t>
-  </si>
-  <si>
-    <t>Multiplan ON N2</t>
-  </si>
-  <si>
-    <t>Mrv ON NM</t>
-  </si>
-  <si>
-    <t>Marfrig ON NM</t>
-  </si>
-  <si>
-    <t>Movida ON NM</t>
-  </si>
-  <si>
-    <t>Magaz Luiza ON NM</t>
-  </si>
-  <si>
-    <t>Locaweb ON EB NM</t>
-  </si>
-  <si>
-    <t>Lojas Renner ON NM</t>
-  </si>
-  <si>
-    <t>Log-In ON NM</t>
-  </si>
-  <si>
-    <t>Quero-Quero ON NM</t>
-  </si>
-  <si>
-    <t>Light S/A ON NM</t>
-  </si>
-  <si>
-    <t>Locamerica ON NM</t>
-  </si>
-  <si>
-    <t>Lojas Americ PN N1</t>
-  </si>
-  <si>
-    <t>Klabin S/A UNT N2</t>
-  </si>
-  <si>
-    <t>Jhsf Part ON NM</t>
-  </si>
-  <si>
-    <t>Jbs ON NM</t>
-  </si>
-  <si>
-    <t>Itauunibanco PN EDJ N1</t>
-  </si>
-  <si>
-    <t>Itausa PN EJ N1</t>
-  </si>
-  <si>
-    <t>Ibovespa</t>
-  </si>
-  <si>
-    <t>Hidrovias ON NM</t>
-  </si>
-  <si>
-    <t>Hapvida ON NM</t>
-  </si>
-  <si>
-    <t>Gol PN N2</t>
-  </si>
-  <si>
-    <t>Gerdau Met PN N1</t>
-  </si>
-  <si>
-    <t>Intermedica ON NM</t>
-  </si>
-  <si>
-    <t>Grupo Mateus ON NM</t>
-  </si>
-  <si>
-    <t>Fleury ON NM</t>
-  </si>
-  <si>
-    <t>Eztec ON NM</t>
-  </si>
-  <si>
-    <t>Eternit ON NM</t>
+    <t>Btgp Banco UNT N2</t>
   </si>
   <si>
     <t>Espacolaser ON NM</t>
-  </si>
-  <si>
-    <t>Equatorial ON NM</t>
-  </si>
-  <si>
-    <t>Enjoei ON NM</t>
-  </si>
-  <si>
-    <t>Eneva ON NM</t>
-  </si>
-  <si>
-    <t>Eletrobras ON N1</t>
-  </si>
-  <si>
-    <t>Ecorodovias ON NM</t>
-  </si>
-  <si>
-    <t>Duratex ON NM</t>
-  </si>
-  <si>
-    <t>Cyrela Realt ON NM</t>
-  </si>
-  <si>
-    <t>Cvc Brasil ON NM</t>
-  </si>
-  <si>
-    <t>Cury S/A ON NM</t>
-  </si>
-  <si>
-    <t>Sid Nacional ON</t>
-  </si>
-  <si>
-    <t>Copasa ON NM</t>
-  </si>
-  <si>
-    <t>Cosan ON NM</t>
-  </si>
-  <si>
-    <t>Centauro ON NM</t>
-  </si>
-  <si>
-    <t>Cemig PN N1</t>
-  </si>
-  <si>
-    <t>Ccr Sa ON NM</t>
-  </si>
-  <si>
-    <t>Meliuz ON NM</t>
-  </si>
-  <si>
-    <t>Csu Cardsyst ON NM</t>
-  </si>
-  <si>
-    <t>B2w Digital ON NM</t>
-  </si>
-  <si>
-    <t>Banrisul PNB N1</t>
-  </si>
-  <si>
-    <t>Bradespar PN N1</t>
-  </si>
-  <si>
-    <t>Banco Pan PN N1</t>
-  </si>
-  <si>
-    <t>Btgp Banco UNT N2</t>
-  </si>
-  <si>
-    <t>Boa Vista ON NM</t>
-  </si>
-  <si>
-    <t>Banco Bmg PN N1</t>
-  </si>
-  <si>
-    <t>Banco Inter UNT N2</t>
-  </si>
-  <si>
-    <t>Bbseguridade ON NM</t>
-  </si>
-  <si>
-    <t>Bradesco PN EJ N1</t>
-  </si>
-  <si>
-    <t>Brasil ON NM</t>
-  </si>
-  <si>
-    <t>B3 ON NM</t>
-  </si>
-  <si>
-    <t>Azul PN N2</t>
-  </si>
-  <si>
-    <t>Arezzo Co ON NM</t>
-  </si>
-  <si>
-    <t>Ambipar ON NM</t>
-  </si>
-  <si>
-    <t>Alpargatas PN N1</t>
-  </si>
-  <si>
-    <t>Aeris ON NM</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1050,34 +1524,34 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D2">
-        <v>34.83</v>
+        <v>11.1</v>
       </c>
       <c r="E2">
-        <v>34.4</v>
+        <v>10.67</v>
       </c>
       <c r="F2">
-        <v>35.49</v>
+        <v>11.1</v>
       </c>
       <c r="G2">
-        <v>34.3</v>
+        <v>10.67</v>
       </c>
       <c r="H2">
-        <v>2.986398580721461</v>
+        <v>4.22535211267605</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="J2">
-        <v>15880</v>
+        <v>1087</v>
       </c>
       <c r="K2">
-        <v>2785100</v>
+        <v>319400</v>
       </c>
       <c r="L2">
-        <v>97390315</v>
+        <v>3497623</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1088,34 +1562,34 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>15.89</v>
       </c>
       <c r="E3">
-        <v>86</v>
+        <v>15.9</v>
       </c>
       <c r="F3">
-        <v>87.33</v>
+        <v>16.24</v>
       </c>
       <c r="G3">
-        <v>84.39</v>
+        <v>15.75</v>
       </c>
       <c r="H3">
-        <v>0.5441211260941492</v>
+        <v>1.72855313700385</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="J3">
-        <v>29410</v>
+        <v>3774</v>
       </c>
       <c r="K3">
-        <v>6608500</v>
+        <v>776800</v>
       </c>
       <c r="L3">
-        <v>564785337</v>
+        <v>12421986</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1126,34 +1600,34 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D4">
-        <v>15.28</v>
+        <v>15.61</v>
       </c>
       <c r="E4">
-        <v>14.5</v>
+        <v>15.87</v>
       </c>
       <c r="F4">
-        <v>15.39</v>
+        <v>16.3</v>
       </c>
       <c r="G4">
-        <v>14.5</v>
+        <v>15.43</v>
       </c>
       <c r="H4">
-        <v>6.258692628650894</v>
+        <v>0.06410256410256274</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="J4">
-        <v>74353</v>
+        <v>65347</v>
       </c>
       <c r="K4">
-        <v>66421100</v>
+        <v>34642100</v>
       </c>
       <c r="L4">
-        <v>1001370728</v>
+        <v>544374936</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1164,34 +1638,34 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D5">
-        <v>25.84</v>
+        <v>12.43</v>
       </c>
       <c r="E5">
-        <v>25.88</v>
+        <v>12.65</v>
       </c>
       <c r="F5">
-        <v>26.55</v>
+        <v>12.75</v>
       </c>
       <c r="G5">
-        <v>25.3</v>
+        <v>12.31</v>
       </c>
       <c r="H5">
-        <v>0.3495145631067956</v>
+        <v>-0.1606425702811211</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="J5">
-        <v>5928</v>
+        <v>12321</v>
       </c>
       <c r="K5">
-        <v>1408300</v>
+        <v>5177700</v>
       </c>
       <c r="L5">
-        <v>36433217</v>
+        <v>64620027</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1202,34 +1676,34 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D6">
-        <v>87.66</v>
+        <v>25.78</v>
       </c>
       <c r="E6">
-        <v>90.18000000000001</v>
+        <v>26.74</v>
       </c>
       <c r="F6">
-        <v>90.58</v>
+        <v>27.37</v>
       </c>
       <c r="G6">
-        <v>87.51000000000001</v>
+        <v>25.78</v>
       </c>
       <c r="H6">
-        <v>-3.955297469047879</v>
+        <v>-2.716981132075468</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="J6">
-        <v>86672</v>
+        <v>2942</v>
       </c>
       <c r="K6">
-        <v>34426700</v>
+        <v>582000</v>
       </c>
       <c r="L6">
-        <v>3046137728</v>
+        <v>15465535</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1240,34 +1714,34 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D7">
-        <v>13.07</v>
+        <v>39.03</v>
       </c>
       <c r="E7">
-        <v>13.42</v>
+        <v>39.27</v>
       </c>
       <c r="F7">
-        <v>13.5</v>
+        <v>39.8</v>
       </c>
       <c r="G7">
-        <v>12.96</v>
+        <v>38.92</v>
       </c>
       <c r="H7">
-        <v>-2.097378277153553</v>
+        <v>0.6446621970087674</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="J7">
-        <v>33428</v>
+        <v>7117</v>
       </c>
       <c r="K7">
-        <v>20396600</v>
+        <v>1254300</v>
       </c>
       <c r="L7">
-        <v>268226452</v>
+        <v>49264755</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1278,34 +1752,34 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D8">
-        <v>55.64</v>
+        <v>28.41</v>
       </c>
       <c r="E8">
-        <v>53.38</v>
+        <v>28.76</v>
       </c>
       <c r="F8">
-        <v>55.97</v>
+        <v>29.11</v>
       </c>
       <c r="G8">
-        <v>53.38</v>
+        <v>28.18</v>
       </c>
       <c r="H8">
-        <v>5.518680068272338</v>
+        <v>1.247327156094089</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="J8">
-        <v>3688</v>
+        <v>6841</v>
       </c>
       <c r="K8">
-        <v>651900</v>
+        <v>1931400</v>
       </c>
       <c r="L8">
-        <v>36094755</v>
+        <v>55215512</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1316,34 +1790,34 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D9">
-        <v>11.36</v>
+        <v>6.28</v>
       </c>
       <c r="E9">
-        <v>11.28</v>
+        <v>6.32</v>
       </c>
       <c r="F9">
-        <v>11.5</v>
+        <v>6.5</v>
       </c>
       <c r="G9">
-        <v>11.2</v>
+        <v>6.25</v>
       </c>
       <c r="H9">
-        <v>1.42857142857143</v>
+        <v>0.3194888178913812</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="J9">
-        <v>5255</v>
+        <v>6103</v>
       </c>
       <c r="K9">
-        <v>1349200</v>
+        <v>4267500</v>
       </c>
       <c r="L9">
-        <v>15318392</v>
+        <v>27138673</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1354,34 +1828,34 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D10">
-        <v>30.28</v>
+        <v>25.5</v>
       </c>
       <c r="E10">
-        <v>29.7</v>
+        <v>25.4</v>
       </c>
       <c r="F10">
-        <v>30.66</v>
+        <v>25.55</v>
       </c>
       <c r="G10">
-        <v>29.53</v>
+        <v>25.01</v>
       </c>
       <c r="H10">
-        <v>6.770098730606494</v>
+        <v>1.959216313474604</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="J10">
-        <v>43091</v>
+        <v>1720</v>
       </c>
       <c r="K10">
-        <v>8987500</v>
+        <v>273200</v>
       </c>
       <c r="L10">
-        <v>271989670</v>
+        <v>6926665</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1392,34 +1866,34 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D11">
-        <v>26.42</v>
+        <v>33.4</v>
       </c>
       <c r="E11">
-        <v>25.75</v>
+        <v>33.3</v>
       </c>
       <c r="F11">
-        <v>26.6</v>
+        <v>33.95</v>
       </c>
       <c r="G11">
-        <v>25.58</v>
+        <v>33.2</v>
       </c>
       <c r="H11">
-        <v>3.811394891945</v>
+        <v>0.8149713250829943</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="J11">
-        <v>1571</v>
+        <v>3945</v>
       </c>
       <c r="K11">
-        <v>205100</v>
+        <v>570500</v>
       </c>
       <c r="L11">
-        <v>5391576</v>
+        <v>19109005</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1430,34 +1904,34 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D12">
-        <v>18.24</v>
+        <v>72.5</v>
       </c>
       <c r="E12">
-        <v>17.88</v>
+        <v>72.36</v>
       </c>
       <c r="F12">
-        <v>18.53</v>
+        <v>73.98</v>
       </c>
       <c r="G12">
-        <v>17.88</v>
+        <v>71.51000000000001</v>
       </c>
       <c r="H12">
-        <v>2.87648054145515</v>
+        <v>0.8344923504867793</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="J12">
-        <v>6873</v>
+        <v>3747</v>
       </c>
       <c r="K12">
-        <v>3045100</v>
+        <v>714700</v>
       </c>
       <c r="L12">
-        <v>55497014</v>
+        <v>51731681</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1468,34 +1942,34 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D13">
-        <v>63.08</v>
+        <v>42.14</v>
       </c>
       <c r="E13">
-        <v>65.34</v>
+        <v>42.4</v>
       </c>
       <c r="F13">
-        <v>65.5</v>
+        <v>42.67</v>
       </c>
       <c r="G13">
-        <v>61.71</v>
+        <v>41.29</v>
       </c>
       <c r="H13">
-        <v>-1.790440604079099</v>
+        <v>1.787439613526575</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="J13">
-        <v>36922</v>
+        <v>18902</v>
       </c>
       <c r="K13">
-        <v>8207300</v>
+        <v>5302300</v>
       </c>
       <c r="L13">
-        <v>515159737</v>
+        <v>223214072</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1506,34 +1980,34 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D14">
-        <v>23.84</v>
+        <v>62.69</v>
       </c>
       <c r="E14">
-        <v>22.17</v>
+        <v>62</v>
       </c>
       <c r="F14">
-        <v>23.92</v>
+        <v>63.68</v>
       </c>
       <c r="G14">
-        <v>22.15</v>
+        <v>61.88</v>
       </c>
       <c r="H14">
-        <v>8.462238398544129</v>
+        <v>2.351020408163262</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="J14">
-        <v>6356</v>
+        <v>51155</v>
       </c>
       <c r="K14">
-        <v>1527700</v>
+        <v>13795000</v>
       </c>
       <c r="L14">
-        <v>35394801</v>
+        <v>866599282</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1544,34 +2018,34 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D15">
-        <v>36.6</v>
+        <v>34.06</v>
       </c>
       <c r="E15">
-        <v>35.5</v>
+        <v>34.76</v>
       </c>
       <c r="F15">
-        <v>36.97</v>
+        <v>35.1</v>
       </c>
       <c r="G15">
-        <v>35.3</v>
+        <v>33.84</v>
       </c>
       <c r="H15">
-        <v>4.571428571428576</v>
+        <v>-0.6707494896471183</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="J15">
-        <v>6080</v>
+        <v>55491</v>
       </c>
       <c r="K15">
-        <v>1125800</v>
+        <v>19800900</v>
       </c>
       <c r="L15">
-        <v>41048427</v>
+        <v>679304607</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1582,34 +2056,34 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D16">
-        <v>38.41</v>
+        <v>25.13</v>
       </c>
       <c r="E16">
-        <v>37.7</v>
+        <v>25.61</v>
       </c>
       <c r="F16">
-        <v>38.95</v>
+        <v>25.8</v>
       </c>
       <c r="G16">
-        <v>37.7</v>
+        <v>24.76</v>
       </c>
       <c r="H16">
-        <v>1.883289124668418</v>
+        <v>-0.4117476886252202</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="J16">
-        <v>6066</v>
+        <v>95588</v>
       </c>
       <c r="K16">
-        <v>1310400</v>
+        <v>68364300</v>
       </c>
       <c r="L16">
-        <v>50548132</v>
+        <v>1716926829</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1620,34 +2094,34 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D17">
-        <v>28.97</v>
+        <v>2.22</v>
       </c>
       <c r="E17">
-        <v>29.15</v>
+        <v>2.07</v>
       </c>
       <c r="F17">
-        <v>31.29</v>
+        <v>2.26</v>
       </c>
       <c r="G17">
-        <v>28.3</v>
+        <v>2.07</v>
       </c>
       <c r="H17">
-        <v>-0.172294968986908</v>
+        <v>6.220095693779921</v>
       </c>
       <c r="I17" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="J17">
-        <v>6868</v>
+        <v>874</v>
       </c>
       <c r="K17">
-        <v>1372300</v>
+        <v>669900</v>
       </c>
       <c r="L17">
-        <v>40424040</v>
+        <v>1464106</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1658,34 +2132,34 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D18">
-        <v>15.49</v>
+        <v>28.29</v>
       </c>
       <c r="E18">
-        <v>14.99</v>
+        <v>28.25</v>
       </c>
       <c r="F18">
-        <v>15.49</v>
+        <v>28.66</v>
       </c>
       <c r="G18">
-        <v>14.98</v>
+        <v>28.13</v>
       </c>
       <c r="H18">
-        <v>4.029550033579581</v>
+        <v>0.8556149732620265</v>
       </c>
       <c r="I18" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="J18">
-        <v>3729</v>
+        <v>23684</v>
       </c>
       <c r="K18">
-        <v>656600</v>
+        <v>3808700</v>
       </c>
       <c r="L18">
-        <v>10063030</v>
+        <v>108100421</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1696,34 +2170,34 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D19">
-        <v>22.28</v>
+        <v>9.31</v>
       </c>
       <c r="E19">
-        <v>21.97</v>
+        <v>9.34</v>
       </c>
       <c r="F19">
-        <v>22.6</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="G19">
-        <v>21.97</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H19">
-        <v>1.921317474839898</v>
+        <v>0.5399568034557313</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="J19">
-        <v>9071</v>
+        <v>25366</v>
       </c>
       <c r="K19">
-        <v>2262500</v>
+        <v>9338300</v>
       </c>
       <c r="L19">
-        <v>50387311</v>
+        <v>87457965</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1734,34 +2208,34 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>141.86</v>
       </c>
       <c r="E20">
-        <v>41.53</v>
+        <v>129.76</v>
       </c>
       <c r="F20">
-        <v>41.82</v>
+        <v>142.73</v>
       </c>
       <c r="G20">
-        <v>39.84</v>
+        <v>129.49</v>
       </c>
       <c r="H20">
-        <v>0.4901960784313795</v>
+        <v>9.324907521578316</v>
       </c>
       <c r="I20" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="J20">
-        <v>23812</v>
+        <v>7701</v>
       </c>
       <c r="K20">
-        <v>6342800</v>
+        <v>1328400</v>
       </c>
       <c r="L20">
-        <v>258993955</v>
+        <v>183612561</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1772,34 +2246,34 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D21">
-        <v>17.59</v>
+        <v>9.81</v>
       </c>
       <c r="E21">
-        <v>17.7</v>
+        <v>9.82</v>
       </c>
       <c r="F21">
-        <v>17.95</v>
+        <v>10.02</v>
       </c>
       <c r="G21">
-        <v>17.2</v>
+        <v>9.67</v>
       </c>
       <c r="H21">
-        <v>-0.2268859897901256</v>
+        <v>3.046218487394968</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="J21">
-        <v>6532</v>
+        <v>9050</v>
       </c>
       <c r="K21">
-        <v>1199500</v>
+        <v>4309500</v>
       </c>
       <c r="L21">
-        <v>21043124</v>
+        <v>42521254</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1810,34 +2284,34 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D22">
-        <v>19.67</v>
+        <v>5.64</v>
       </c>
       <c r="E22">
-        <v>19.26</v>
+        <v>5.74</v>
       </c>
       <c r="F22">
-        <v>19.91</v>
+        <v>5.86</v>
       </c>
       <c r="G22">
-        <v>19.18</v>
+        <v>5.61</v>
       </c>
       <c r="H22">
-        <v>2.822791427077902</v>
+        <v>-1.22591943957969</v>
       </c>
       <c r="I22" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="J22">
-        <v>3287</v>
+        <v>8260</v>
       </c>
       <c r="K22">
-        <v>738600</v>
+        <v>2728100</v>
       </c>
       <c r="L22">
-        <v>14546287</v>
+        <v>15572565</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1848,34 +2322,34 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D23">
-        <v>67.51000000000001</v>
+        <v>10.18</v>
       </c>
       <c r="E23">
-        <v>65.23</v>
+        <v>9.91</v>
       </c>
       <c r="F23">
-        <v>67.68000000000001</v>
+        <v>10.19</v>
       </c>
       <c r="G23">
-        <v>65.02</v>
+        <v>9.75</v>
       </c>
       <c r="H23">
-        <v>5.56684910086005</v>
+        <v>2.932254802831134</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="J23">
-        <v>32137</v>
+        <v>1708</v>
       </c>
       <c r="K23">
-        <v>7270200</v>
+        <v>430700</v>
       </c>
       <c r="L23">
-        <v>484749231</v>
+        <v>4290549</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1886,34 +2360,34 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D24">
-        <v>68.55</v>
+        <v>113.85</v>
       </c>
       <c r="E24">
-        <v>68.03</v>
+        <v>114.5</v>
       </c>
       <c r="F24">
-        <v>69.73999999999999</v>
+        <v>115.35</v>
       </c>
       <c r="G24">
-        <v>67.7</v>
+        <v>113.25</v>
       </c>
       <c r="H24">
-        <v>1.106194690265487</v>
+        <v>0.6987440297187264</v>
       </c>
       <c r="I24" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="J24">
-        <v>10200</v>
+        <v>223907</v>
       </c>
       <c r="K24">
-        <v>2228800</v>
+        <v>8346142</v>
       </c>
       <c r="L24">
-        <v>153051151</v>
+        <v>952550592.85</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1924,34 +2398,34 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D25">
-        <v>14.35</v>
+        <v>10.07</v>
       </c>
       <c r="E25">
-        <v>14.55</v>
+        <v>10.06</v>
       </c>
       <c r="F25">
-        <v>14.86</v>
+        <v>10.19</v>
       </c>
       <c r="G25">
-        <v>14.3</v>
+        <v>9.91</v>
       </c>
       <c r="H25">
-        <v>-0.4854368932038855</v>
+        <v>1.00300902708124</v>
       </c>
       <c r="I25" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="J25">
-        <v>11044</v>
+        <v>5833</v>
       </c>
       <c r="K25">
-        <v>3314700</v>
+        <v>3112400</v>
       </c>
       <c r="L25">
-        <v>48120884</v>
+        <v>31298071</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1962,34 +2436,34 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D26">
-        <v>20.77</v>
+        <v>61.06</v>
       </c>
       <c r="E26">
-        <v>21.6</v>
+        <v>65.25</v>
       </c>
       <c r="F26">
-        <v>21.85</v>
+        <v>65.25</v>
       </c>
       <c r="G26">
-        <v>20.77</v>
+        <v>60.91</v>
       </c>
       <c r="H26">
-        <v>-1.563981042654037</v>
+        <v>-5.713403335392221</v>
       </c>
       <c r="I26" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="J26">
-        <v>41154</v>
+        <v>25938</v>
       </c>
       <c r="K26">
-        <v>10692200</v>
+        <v>4774000</v>
       </c>
       <c r="L26">
-        <v>226375650</v>
+        <v>295600775</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2000,34 +2474,34 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D27">
-        <v>25.27</v>
+        <v>23.34</v>
       </c>
       <c r="E27">
-        <v>25.4</v>
+        <v>23.98</v>
       </c>
       <c r="F27">
-        <v>25.77</v>
+        <v>24.28</v>
       </c>
       <c r="G27">
-        <v>25.06</v>
+        <v>23.34</v>
       </c>
       <c r="H27">
-        <v>0.958849380743102</v>
+        <v>-1.809002944888514</v>
       </c>
       <c r="I27" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="J27">
-        <v>24112</v>
+        <v>36110</v>
       </c>
       <c r="K27">
-        <v>5735300</v>
+        <v>11003900</v>
       </c>
       <c r="L27">
-        <v>145261031</v>
+        <v>260578162</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2038,34 +2512,34 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D28">
-        <v>31.75</v>
+        <v>21.9</v>
       </c>
       <c r="E28">
-        <v>31.5</v>
+        <v>21.3</v>
       </c>
       <c r="F28">
-        <v>32.2</v>
+        <v>21.99</v>
       </c>
       <c r="G28">
-        <v>31.3</v>
+        <v>21.2</v>
       </c>
       <c r="H28">
-        <v>2.817357512953371</v>
+        <v>4.038004750593814</v>
       </c>
       <c r="I28" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="J28">
-        <v>24889</v>
+        <v>32200</v>
       </c>
       <c r="K28">
-        <v>5208800</v>
+        <v>9855100</v>
       </c>
       <c r="L28">
-        <v>165508539</v>
+        <v>214394027</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2076,34 +2550,34 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D29">
-        <v>9.380000000000001</v>
+        <v>27.18</v>
       </c>
       <c r="E29">
-        <v>9.02</v>
+        <v>25.73</v>
       </c>
       <c r="F29">
-        <v>9.6</v>
+        <v>27.19</v>
       </c>
       <c r="G29">
-        <v>9.02</v>
+        <v>25.71</v>
       </c>
       <c r="H29">
-        <v>4.687499999999999</v>
+        <v>6.338028169014088</v>
       </c>
       <c r="I29" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="J29">
-        <v>8541</v>
+        <v>23986</v>
       </c>
       <c r="K29">
-        <v>4509900</v>
+        <v>5600000</v>
       </c>
       <c r="L29">
-        <v>42132862</v>
+        <v>149731528</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2114,34 +2588,34 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D30">
-        <v>77.83</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E30">
-        <v>74.81</v>
+        <v>9.76</v>
       </c>
       <c r="F30">
-        <v>79.38</v>
+        <v>10.02</v>
       </c>
       <c r="G30">
-        <v>74.81</v>
+        <v>9.69</v>
       </c>
       <c r="H30">
-        <v>5.934394991152851</v>
+        <v>2.06825232678386</v>
       </c>
       <c r="I30" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="J30">
-        <v>38284</v>
+        <v>39806</v>
       </c>
       <c r="K30">
-        <v>8536400</v>
+        <v>21033600</v>
       </c>
       <c r="L30">
-        <v>663043630</v>
+        <v>207387842</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2152,34 +2626,34 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D31">
-        <v>4.59</v>
+        <v>9.07</v>
       </c>
       <c r="E31">
-        <v>4.53</v>
+        <v>9</v>
       </c>
       <c r="F31">
-        <v>4.64</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G31">
-        <v>4.49</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H31">
-        <v>1.548672566371688</v>
+        <v>1.454138702460859</v>
       </c>
       <c r="I31" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="J31">
-        <v>2103</v>
+        <v>10279</v>
       </c>
       <c r="K31">
-        <v>1075100</v>
+        <v>3063300</v>
       </c>
       <c r="L31">
-        <v>4914536</v>
+        <v>27717364</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2190,34 +2664,34 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D32">
-        <v>10.04</v>
+        <v>13.52</v>
       </c>
       <c r="E32">
-        <v>10.17</v>
+        <v>13.57</v>
       </c>
       <c r="F32">
-        <v>10.17</v>
+        <v>13.8</v>
       </c>
       <c r="G32">
-        <v>9.99</v>
+        <v>13.43</v>
       </c>
       <c r="H32">
-        <v>0.8032128514056053</v>
+        <v>0.148148148148145</v>
       </c>
       <c r="I32" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="J32">
-        <v>2811</v>
+        <v>5405</v>
       </c>
       <c r="K32">
-        <v>596800</v>
+        <v>1917600</v>
       </c>
       <c r="L32">
-        <v>5999420</v>
+        <v>26028006</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2228,34 +2702,34 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D33">
-        <v>21.8</v>
+        <v>89.3</v>
       </c>
       <c r="E33">
-        <v>21.81</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F33">
-        <v>22.13</v>
+        <v>90.17</v>
       </c>
       <c r="G33">
-        <v>21.62</v>
+        <v>84.66</v>
       </c>
       <c r="H33">
-        <v>0.9259259259259226</v>
+        <v>6.869315461943508</v>
       </c>
       <c r="I33" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="J33">
-        <v>11699</v>
+        <v>24431</v>
       </c>
       <c r="K33">
-        <v>2509800</v>
+        <v>5443200</v>
       </c>
       <c r="L33">
-        <v>54733073</v>
+        <v>478124947</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2266,34 +2740,34 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D34">
-        <v>28.66</v>
+        <v>11.19</v>
       </c>
       <c r="E34">
-        <v>28.4</v>
+        <v>11.19</v>
       </c>
       <c r="F34">
-        <v>29.14</v>
+        <v>11.34</v>
       </c>
       <c r="G34">
-        <v>28.2</v>
+        <v>11.13</v>
       </c>
       <c r="H34">
-        <v>4.104613149291678</v>
+        <v>0.7200720072007207</v>
       </c>
       <c r="I34" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="J34">
-        <v>106427</v>
+        <v>5379</v>
       </c>
       <c r="K34">
-        <v>91663000</v>
+        <v>1119800</v>
       </c>
       <c r="L34">
-        <v>2629121265</v>
+        <v>12579990</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2304,34 +2778,34 @@
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D35">
-        <v>2.23</v>
+        <v>15.38</v>
       </c>
       <c r="E35">
-        <v>2.28</v>
+        <v>15.41</v>
       </c>
       <c r="F35">
-        <v>2.31</v>
+        <v>15.86</v>
       </c>
       <c r="G35">
-        <v>2.2</v>
+        <v>15.23</v>
       </c>
       <c r="H35">
-        <v>-1.327433628318575</v>
+        <v>0.5228758169934645</v>
       </c>
       <c r="I35" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="J35">
-        <v>26100</v>
+        <v>1042</v>
       </c>
       <c r="K35">
-        <v>132634900</v>
+        <v>182600</v>
       </c>
       <c r="L35">
-        <v>297355451</v>
+        <v>2828146</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2342,34 +2816,34 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D36">
-        <v>49.26</v>
+        <v>28.67</v>
       </c>
       <c r="E36">
-        <v>49.4</v>
+        <v>28.28</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>29.16</v>
       </c>
       <c r="G36">
-        <v>48.48</v>
+        <v>28.02</v>
       </c>
       <c r="H36">
-        <v>1.650846058605029</v>
+        <v>2.576028622540259</v>
       </c>
       <c r="I36" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="J36">
-        <v>33727</v>
+        <v>8478</v>
       </c>
       <c r="K36">
-        <v>6991600</v>
+        <v>2591700</v>
       </c>
       <c r="L36">
-        <v>343234759</v>
+        <v>74215107</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2380,34 +2854,34 @@
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D37">
-        <v>9.300000000000001</v>
+        <v>12.41</v>
       </c>
       <c r="E37">
-        <v>9.41</v>
+        <v>12.46</v>
       </c>
       <c r="F37">
-        <v>9.6</v>
+        <v>12.69</v>
       </c>
       <c r="G37">
-        <v>9.279999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="H37">
-        <v>-0.6410256410256274</v>
+        <v>1.638001638001632</v>
       </c>
       <c r="I37" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="J37">
-        <v>10770</v>
+        <v>32021</v>
       </c>
       <c r="K37">
-        <v>7265300</v>
+        <v>12881200</v>
       </c>
       <c r="L37">
-        <v>68369612</v>
+        <v>161080146</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2418,34 +2892,34 @@
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D38">
-        <v>18.78</v>
+        <v>12.47</v>
       </c>
       <c r="E38">
-        <v>18.31</v>
+        <v>12.66</v>
       </c>
       <c r="F38">
-        <v>18.98</v>
+        <v>12.89</v>
       </c>
       <c r="G38">
-        <v>18.25</v>
+        <v>12.41</v>
       </c>
       <c r="H38">
-        <v>3.243540406816932</v>
+        <v>-1.422924901185769</v>
       </c>
       <c r="I38" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="J38">
-        <v>6331</v>
+        <v>5131</v>
       </c>
       <c r="K38">
-        <v>1965000</v>
+        <v>2702000</v>
       </c>
       <c r="L38">
-        <v>36709401</v>
+        <v>34026527</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2456,34 +2930,34 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D39">
-        <v>21.3</v>
+        <v>29.7</v>
       </c>
       <c r="E39">
-        <v>21.71</v>
+        <v>29.64</v>
       </c>
       <c r="F39">
-        <v>21.91</v>
+        <v>30.06</v>
       </c>
       <c r="G39">
-        <v>21.06</v>
+        <v>29.56</v>
       </c>
       <c r="H39">
-        <v>-0.04692632566869081</v>
+        <v>0.6779661016949129</v>
       </c>
       <c r="I39" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="J39">
-        <v>29553</v>
+        <v>5405</v>
       </c>
       <c r="K39">
-        <v>7101200</v>
+        <v>1162300</v>
       </c>
       <c r="L39">
-        <v>152067091</v>
+        <v>34555813</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2494,34 +2968,34 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D40">
-        <v>19.4</v>
+        <v>4.22</v>
       </c>
       <c r="E40">
-        <v>19.6</v>
+        <v>4.21</v>
       </c>
       <c r="F40">
-        <v>19.98</v>
+        <v>4.33</v>
       </c>
       <c r="G40">
-        <v>19.31</v>
+        <v>4.16</v>
       </c>
       <c r="H40">
-        <v>0.4140786749482314</v>
+        <v>0.607938967695794</v>
       </c>
       <c r="I40" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="J40">
-        <v>13423</v>
+        <v>27779</v>
       </c>
       <c r="K40">
-        <v>2802100</v>
+        <v>52337100</v>
       </c>
       <c r="L40">
-        <v>54941057</v>
+        <v>222056360</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2532,34 +3006,34 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D41">
-        <v>13.55</v>
+        <v>14.28</v>
       </c>
       <c r="E41">
-        <v>13.5</v>
+        <v>14.35</v>
       </c>
       <c r="F41">
-        <v>13.94</v>
+        <v>14.55</v>
       </c>
       <c r="G41">
-        <v>13.4</v>
+        <v>14.24</v>
       </c>
       <c r="H41">
-        <v>1.803155522163788</v>
+        <v>0.9900990099009815</v>
       </c>
       <c r="I41" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="J41">
-        <v>24845</v>
+        <v>27528</v>
       </c>
       <c r="K41">
-        <v>8736700</v>
+        <v>8982000</v>
       </c>
       <c r="L41">
-        <v>119160793</v>
+        <v>129319554</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2570,34 +3044,34 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D42">
-        <v>19.7</v>
+        <v>25.35</v>
       </c>
       <c r="E42">
-        <v>19.32</v>
+        <v>25.21</v>
       </c>
       <c r="F42">
-        <v>19.9</v>
+        <v>25.73</v>
       </c>
       <c r="G42">
-        <v>19.31</v>
+        <v>24.86</v>
       </c>
       <c r="H42">
-        <v>3.412073490813641</v>
+        <v>1.440576230492209</v>
       </c>
       <c r="I42" t="s">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="J42">
-        <v>6918</v>
+        <v>5080</v>
       </c>
       <c r="K42">
-        <v>1730500</v>
+        <v>1324500</v>
       </c>
       <c r="L42">
-        <v>34147240</v>
+        <v>33631428</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2608,34 +3082,34 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D43">
-        <v>25.3</v>
+        <v>4.65</v>
       </c>
       <c r="E43">
-        <v>25.3</v>
+        <v>4.6</v>
       </c>
       <c r="F43">
-        <v>25.73</v>
+        <v>4.77</v>
       </c>
       <c r="G43">
-        <v>25.2</v>
+        <v>4.6</v>
       </c>
       <c r="H43">
-        <v>1.484155635780189</v>
+        <v>2.422907488986791</v>
       </c>
       <c r="I43" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="J43">
-        <v>62359</v>
+        <v>27896</v>
       </c>
       <c r="K43">
-        <v>27563200</v>
+        <v>41722400</v>
       </c>
       <c r="L43">
-        <v>701814266</v>
+        <v>195615880</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2646,34 +3120,34 @@
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D44">
-        <v>27.84</v>
+        <v>32.37</v>
       </c>
       <c r="E44">
-        <v>27</v>
+        <v>31.77</v>
       </c>
       <c r="F44">
-        <v>28.35</v>
+        <v>32.75</v>
       </c>
       <c r="G44">
-        <v>26.12</v>
+        <v>31.46</v>
       </c>
       <c r="H44">
-        <v>4.426106526631656</v>
+        <v>2.566539923954369</v>
       </c>
       <c r="I44" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="J44">
-        <v>15252</v>
+        <v>17640</v>
       </c>
       <c r="K44">
-        <v>4652100</v>
+        <v>3150700</v>
       </c>
       <c r="L44">
-        <v>128043774</v>
+        <v>102284464</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2684,34 +3158,34 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D45">
-        <v>41.01</v>
+        <v>66.2</v>
       </c>
       <c r="E45">
-        <v>41.8</v>
+        <v>65.8</v>
       </c>
       <c r="F45">
-        <v>42.32</v>
+        <v>66.94</v>
       </c>
       <c r="G45">
-        <v>40.82</v>
+        <v>65.55</v>
       </c>
       <c r="H45">
-        <v>-0.1460920379839354</v>
+        <v>1.223241590214063</v>
       </c>
       <c r="I45" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="J45">
-        <v>35020</v>
+        <v>10183</v>
       </c>
       <c r="K45">
-        <v>7926300</v>
+        <v>1599100</v>
       </c>
       <c r="L45">
-        <v>328528520</v>
+        <v>106122830</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2722,34 +3196,34 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D46">
-        <v>15.55</v>
+        <v>78.58</v>
       </c>
       <c r="E46">
-        <v>14.93</v>
+        <v>77.75</v>
       </c>
       <c r="F46">
-        <v>15.7</v>
+        <v>80.2</v>
       </c>
       <c r="G46">
-        <v>14.86</v>
+        <v>77.5</v>
       </c>
       <c r="H46">
-        <v>5.423728813559327</v>
+        <v>2.211238293444333</v>
       </c>
       <c r="I46" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="J46">
-        <v>3109</v>
+        <v>11183</v>
       </c>
       <c r="K46">
-        <v>824500</v>
+        <v>1772700</v>
       </c>
       <c r="L46">
-        <v>12655570</v>
+        <v>140283856</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2760,34 +3234,34 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D47">
-        <v>19.5</v>
+        <v>15.93</v>
       </c>
       <c r="E47">
-        <v>19.21</v>
+        <v>15.9</v>
       </c>
       <c r="F47">
-        <v>19.75</v>
+        <v>16.19</v>
       </c>
       <c r="G47">
-        <v>18.93</v>
+        <v>15.83</v>
       </c>
       <c r="H47">
-        <v>1.562500000000004</v>
+        <v>0.8866371120962671</v>
       </c>
       <c r="I47" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="J47">
-        <v>10267</v>
+        <v>6038</v>
       </c>
       <c r="K47">
-        <v>3124200</v>
+        <v>1517900</v>
       </c>
       <c r="L47">
-        <v>60699144</v>
+        <v>24270713</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2798,34 +3272,34 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D48">
-        <v>21.63</v>
+        <v>30.6</v>
       </c>
       <c r="E48">
-        <v>21.35</v>
+        <v>31.5</v>
       </c>
       <c r="F48">
-        <v>22.04</v>
+        <v>31.91</v>
       </c>
       <c r="G48">
-        <v>21.29</v>
+        <v>30.37</v>
       </c>
       <c r="H48">
-        <v>2.414772727272718</v>
+        <v>-3.439570842537077</v>
       </c>
       <c r="I48" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="J48">
-        <v>12403</v>
+        <v>38738</v>
       </c>
       <c r="K48">
-        <v>4460700</v>
+        <v>14886000</v>
       </c>
       <c r="L48">
-        <v>96684736</v>
+        <v>459638565</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2836,34 +3310,34 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D49">
-        <v>27.46</v>
+        <v>11.16</v>
       </c>
       <c r="E49">
-        <v>26.45</v>
+        <v>11.07</v>
       </c>
       <c r="F49">
-        <v>27.66</v>
+        <v>11.47</v>
       </c>
       <c r="G49">
-        <v>26.34</v>
+        <v>11.01</v>
       </c>
       <c r="H49">
-        <v>5.615384615384619</v>
+        <v>0.9954751131221667</v>
       </c>
       <c r="I49" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="J49">
-        <v>14798</v>
+        <v>3025</v>
       </c>
       <c r="K49">
-        <v>3099500</v>
+        <v>642000</v>
       </c>
       <c r="L49">
-        <v>84665473</v>
+        <v>7199544</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2874,34 +3348,34 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D50">
-        <v>25.25</v>
+        <v>19.97</v>
       </c>
       <c r="E50">
-        <v>24.28</v>
+        <v>19.55</v>
       </c>
       <c r="F50">
-        <v>25.63</v>
+        <v>20.18</v>
       </c>
       <c r="G50">
-        <v>24.14</v>
+        <v>19.54</v>
       </c>
       <c r="H50">
-        <v>5.516088591725868</v>
+        <v>3.794178794178797</v>
       </c>
       <c r="I50" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="J50">
-        <v>42881</v>
+        <v>13711</v>
       </c>
       <c r="K50">
-        <v>17164000</v>
+        <v>5105600</v>
       </c>
       <c r="L50">
-        <v>429529697</v>
+        <v>101493002</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2912,34 +3386,34 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D51">
-        <v>28.14</v>
+        <v>27.1</v>
       </c>
       <c r="E51">
-        <v>29.15</v>
+        <v>26.9</v>
       </c>
       <c r="F51">
-        <v>29.24</v>
+        <v>27.38</v>
       </c>
       <c r="G51">
-        <v>27.92</v>
+        <v>26.56</v>
       </c>
       <c r="H51">
-        <v>-1.951219512195117</v>
+        <v>2.573807721423163</v>
       </c>
       <c r="I51" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="J51">
-        <v>27831</v>
+        <v>26634</v>
       </c>
       <c r="K51">
-        <v>5698200</v>
+        <v>5275600</v>
       </c>
       <c r="L51">
-        <v>161346655</v>
+        <v>142348594</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2950,34 +3424,34 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D52">
-        <v>7.61</v>
+        <v>11.83</v>
       </c>
       <c r="E52">
-        <v>7.47</v>
+        <v>11.82</v>
       </c>
       <c r="F52">
-        <v>7.69</v>
+        <v>11.98</v>
       </c>
       <c r="G52">
-        <v>7.41</v>
+        <v>11.72</v>
       </c>
       <c r="H52">
-        <v>3.81991814461119</v>
+        <v>1.111111111111118</v>
       </c>
       <c r="I52" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="J52">
-        <v>16620</v>
+        <v>402</v>
       </c>
       <c r="K52">
-        <v>14167800</v>
+        <v>123500</v>
       </c>
       <c r="L52">
-        <v>107588210</v>
+        <v>1465022</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2988,34 +3462,34 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D53">
-        <v>24.52</v>
+        <v>20.6</v>
       </c>
       <c r="E53">
-        <v>24.51</v>
+        <v>20.67</v>
       </c>
       <c r="F53">
-        <v>24.87</v>
+        <v>21</v>
       </c>
       <c r="G53">
-        <v>24.18</v>
+        <v>20.4</v>
       </c>
       <c r="H53">
-        <v>1.196863392488647</v>
+        <v>-0.09699321047526466</v>
       </c>
       <c r="I53" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
       <c r="J53">
-        <v>35829</v>
+        <v>9337</v>
       </c>
       <c r="K53">
-        <v>12505600</v>
+        <v>2455300</v>
       </c>
       <c r="L53">
-        <v>305866906</v>
+        <v>50817533</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3026,34 +3500,34 @@
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D54">
-        <v>28.46</v>
+        <v>12.53</v>
       </c>
       <c r="E54">
-        <v>29.08</v>
+        <v>12.33</v>
       </c>
       <c r="F54">
-        <v>29.3</v>
+        <v>12.73</v>
       </c>
       <c r="G54">
-        <v>28</v>
+        <v>12.33</v>
       </c>
       <c r="H54">
-        <v>-2.132049518569455</v>
+        <v>2.536824877250399</v>
       </c>
       <c r="I54" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="J54">
-        <v>151600</v>
+        <v>16087</v>
       </c>
       <c r="K54">
-        <v>100327800</v>
+        <v>4012500</v>
       </c>
       <c r="L54">
-        <v>2869109465</v>
+        <v>50467482</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3064,34 +3538,34 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D55">
-        <v>10.81</v>
+        <v>44.25</v>
       </c>
       <c r="E55">
-        <v>10.85</v>
+        <v>44.25</v>
       </c>
       <c r="F55">
-        <v>10.92</v>
+        <v>45.3</v>
       </c>
       <c r="G55">
-        <v>10.55</v>
+        <v>44.2</v>
       </c>
       <c r="H55">
-        <v>0.1853568118628485</v>
+        <v>1.073549566011875</v>
       </c>
       <c r="I55" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="J55">
-        <v>71884</v>
+        <v>10739</v>
       </c>
       <c r="K55">
-        <v>76871000</v>
+        <v>1547800</v>
       </c>
       <c r="L55">
-        <v>829688879</v>
+        <v>69082017</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3102,34 +3576,34 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D56">
-        <v>118233.81</v>
+        <v>31.33</v>
       </c>
       <c r="E56">
-        <v>117520.36</v>
+        <v>31.61</v>
       </c>
       <c r="F56">
-        <v>119805.18</v>
+        <v>32.46</v>
       </c>
       <c r="G56">
-        <v>117519.17</v>
+        <v>31.33</v>
       </c>
       <c r="H56">
-        <v>0.6094748215096608</v>
+        <v>1.621796951021732</v>
       </c>
       <c r="I56" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="J56">
-        <v>2378976</v>
+        <v>41098</v>
       </c>
       <c r="K56">
-        <v>1073868400</v>
+        <v>13060400</v>
       </c>
       <c r="L56">
-        <v>27741245155</v>
+        <v>417740874</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3140,34 +3614,34 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D57">
-        <v>6.77</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E57">
-        <v>6.79</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F57">
-        <v>6.88</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="G57">
-        <v>6.71</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="H57">
-        <v>-0.2945508100147343</v>
+        <v>6.718924972004475</v>
       </c>
       <c r="I57" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="J57">
-        <v>6224</v>
+        <v>24541</v>
       </c>
       <c r="K57">
-        <v>1773400</v>
+        <v>16198400</v>
       </c>
       <c r="L57">
-        <v>12034810</v>
+        <v>150813947</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3178,34 +3652,34 @@
         <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D58">
-        <v>17.76</v>
+        <v>12.05</v>
       </c>
       <c r="E58">
-        <v>17.82</v>
+        <v>11.9</v>
       </c>
       <c r="F58">
-        <v>18.15</v>
+        <v>12.24</v>
       </c>
       <c r="G58">
-        <v>17.43</v>
+        <v>11.89</v>
       </c>
       <c r="H58">
-        <v>1.427755568246716</v>
+        <v>2.37892948173323</v>
       </c>
       <c r="I58" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="J58">
-        <v>36533</v>
+        <v>4823</v>
       </c>
       <c r="K58">
-        <v>9412300</v>
+        <v>1312300</v>
       </c>
       <c r="L58">
-        <v>166742719</v>
+        <v>15833009</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3216,34 +3690,34 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D59">
-        <v>25.37</v>
+        <v>19.83</v>
       </c>
       <c r="E59">
-        <v>25.35</v>
+        <v>19.73</v>
       </c>
       <c r="F59">
-        <v>25.7</v>
+        <v>20.2</v>
       </c>
       <c r="G59">
-        <v>24.62</v>
+        <v>19.73</v>
       </c>
       <c r="H59">
-        <v>2.215954875100728</v>
+        <v>1.692307692307684</v>
       </c>
       <c r="I59" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="J59">
-        <v>22621</v>
+        <v>15110</v>
       </c>
       <c r="K59">
-        <v>9624500</v>
+        <v>2573000</v>
       </c>
       <c r="L59">
-        <v>241994859</v>
+        <v>51407763</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3254,34 +3728,34 @@
         <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D60">
-        <v>10.52</v>
+        <v>72</v>
       </c>
       <c r="E60">
-        <v>10.75</v>
+        <v>71.5</v>
       </c>
       <c r="F60">
-        <v>10.82</v>
+        <v>75.17</v>
       </c>
       <c r="G60">
-        <v>10.46</v>
+        <v>71.5</v>
       </c>
       <c r="H60">
-        <v>-1.405810684161203</v>
+        <v>1.322825781030112</v>
       </c>
       <c r="I60" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="J60">
-        <v>22268</v>
+        <v>23639</v>
       </c>
       <c r="K60">
-        <v>12693600</v>
+        <v>4263100</v>
       </c>
       <c r="L60">
-        <v>134125423</v>
+        <v>311960101</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3292,34 +3766,34 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D61">
-        <v>97.89</v>
+        <v>50.78</v>
       </c>
       <c r="E61">
-        <v>99.01000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="F61">
-        <v>100.38</v>
+        <v>51.43</v>
       </c>
       <c r="G61">
-        <v>96.34</v>
+        <v>49.65</v>
       </c>
       <c r="H61">
-        <v>1.366884125504823</v>
+        <v>2.793522267206483</v>
       </c>
       <c r="I61" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="J61">
-        <v>25205</v>
+        <v>9914</v>
       </c>
       <c r="K61">
-        <v>3866300</v>
+        <v>1706500</v>
       </c>
       <c r="L61">
-        <v>378739052</v>
+        <v>86748800</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3330,34 +3804,34 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D62">
-        <v>8.359999999999999</v>
+        <v>17.64</v>
       </c>
       <c r="E62">
-        <v>8.49</v>
+        <v>17.43</v>
       </c>
       <c r="F62">
-        <v>8.630000000000001</v>
+        <v>18.46</v>
       </c>
       <c r="G62">
-        <v>8.359999999999999</v>
+        <v>16.95</v>
       </c>
       <c r="H62">
-        <v>-0.8303677342823285</v>
+        <v>5.313432835820899</v>
       </c>
       <c r="I62" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="J62">
-        <v>11063</v>
+        <v>7802</v>
       </c>
       <c r="K62">
-        <v>4284600</v>
+        <v>3027400</v>
       </c>
       <c r="L62">
-        <v>36339162</v>
+        <v>53451309</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3368,34 +3842,34 @@
         <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D63">
-        <v>28.7</v>
+        <v>22.82</v>
       </c>
       <c r="E63">
-        <v>27.76</v>
+        <v>22.85</v>
       </c>
       <c r="F63">
-        <v>28.97</v>
+        <v>23.18</v>
       </c>
       <c r="G63">
-        <v>27.63</v>
+        <v>22.73</v>
       </c>
       <c r="H63">
-        <v>5.205278592375359</v>
+        <v>0.9734513274336233</v>
       </c>
       <c r="I63" t="s">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c r="J63">
-        <v>21099</v>
+        <v>29326</v>
       </c>
       <c r="K63">
-        <v>3897200</v>
+        <v>6346500</v>
       </c>
       <c r="L63">
-        <v>111396436</v>
+        <v>145526808</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3406,34 +3880,34 @@
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D64">
-        <v>38.69</v>
+        <v>13.24</v>
       </c>
       <c r="E64">
-        <v>38.34</v>
+        <v>13.2</v>
       </c>
       <c r="F64">
-        <v>39.33</v>
+        <v>13.45</v>
       </c>
       <c r="G64">
-        <v>38.33</v>
+        <v>13.11</v>
       </c>
       <c r="H64">
-        <v>2.003691009754806</v>
+        <v>1.06870229007634</v>
       </c>
       <c r="I64" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="J64">
-        <v>14104</v>
+        <v>2189</v>
       </c>
       <c r="K64">
-        <v>2610700</v>
+        <v>1120600</v>
       </c>
       <c r="L64">
-        <v>101442406</v>
+        <v>14845949</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3444,34 +3918,34 @@
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D65">
-        <v>13.24</v>
+        <v>11.91</v>
       </c>
       <c r="E65">
-        <v>13.2</v>
+        <v>11.56</v>
       </c>
       <c r="F65">
-        <v>13.45</v>
+        <v>12.04</v>
       </c>
       <c r="G65">
-        <v>13.11</v>
+        <v>11.53</v>
       </c>
       <c r="H65">
-        <v>1.06870229007634</v>
+        <v>3.745644599303133</v>
       </c>
       <c r="I65" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="J65">
-        <v>2189</v>
+        <v>9669</v>
       </c>
       <c r="K65">
-        <v>1120600</v>
+        <v>2220100</v>
       </c>
       <c r="L65">
-        <v>14845949</v>
+        <v>26322704</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3482,34 +3956,34 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D66">
-        <v>21.3</v>
+        <v>38.69</v>
       </c>
       <c r="E66">
-        <v>21.89</v>
+        <v>38.34</v>
       </c>
       <c r="F66">
-        <v>23.28</v>
+        <v>39.33</v>
       </c>
       <c r="G66">
-        <v>20.12</v>
+        <v>38.33</v>
       </c>
       <c r="H66">
-        <v>1.525262154432794</v>
+        <v>2.003691009754806</v>
       </c>
       <c r="I66" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="J66">
-        <v>30468</v>
+        <v>14104</v>
       </c>
       <c r="K66">
-        <v>13006400</v>
+        <v>2610700</v>
       </c>
       <c r="L66">
-        <v>282022974</v>
+        <v>101442406</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3520,34 +3994,34 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D67">
-        <v>22.82</v>
+        <v>21.53</v>
       </c>
       <c r="E67">
-        <v>22.85</v>
+        <v>21.77</v>
       </c>
       <c r="F67">
-        <v>23.18</v>
+        <v>22.05</v>
       </c>
       <c r="G67">
-        <v>22.73</v>
+        <v>21.47</v>
       </c>
       <c r="H67">
-        <v>0.9734513274336233</v>
+        <v>0.2794597112249756</v>
       </c>
       <c r="I67" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="J67">
-        <v>29326</v>
+        <v>1032</v>
       </c>
       <c r="K67">
-        <v>6346500</v>
+        <v>193600</v>
       </c>
       <c r="L67">
-        <v>145526808</v>
+        <v>4204090</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3558,34 +4032,34 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D68">
-        <v>17.64</v>
+        <v>28.7</v>
       </c>
       <c r="E68">
-        <v>17.43</v>
+        <v>27.76</v>
       </c>
       <c r="F68">
-        <v>18.46</v>
+        <v>28.97</v>
       </c>
       <c r="G68">
-        <v>16.95</v>
+        <v>27.63</v>
       </c>
       <c r="H68">
-        <v>5.313432835820899</v>
+        <v>5.205278592375359</v>
       </c>
       <c r="I68" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="J68">
-        <v>7802</v>
+        <v>21099</v>
       </c>
       <c r="K68">
-        <v>3027400</v>
+        <v>3897200</v>
       </c>
       <c r="L68">
-        <v>53451309</v>
+        <v>111396436</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3596,34 +4070,34 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D69">
-        <v>72</v>
+        <v>4.82</v>
       </c>
       <c r="E69">
-        <v>71.5</v>
+        <v>4.95</v>
       </c>
       <c r="F69">
-        <v>75.17</v>
+        <v>5.01</v>
       </c>
       <c r="G69">
-        <v>71.5</v>
+        <v>4.76</v>
       </c>
       <c r="H69">
-        <v>1.322825781030112</v>
+        <v>-1.431492842535775</v>
       </c>
       <c r="I69" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="J69">
-        <v>23639</v>
+        <v>10236</v>
       </c>
       <c r="K69">
-        <v>4263100</v>
+        <v>16653100</v>
       </c>
       <c r="L69">
-        <v>311960101</v>
+        <v>81242923</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3634,34 +4108,34 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D70">
-        <v>31.33</v>
+        <v>22.97</v>
       </c>
       <c r="E70">
-        <v>31.61</v>
+        <v>23.45</v>
       </c>
       <c r="F70">
-        <v>32.46</v>
+        <v>23.59</v>
       </c>
       <c r="G70">
-        <v>31.33</v>
+        <v>22.82</v>
       </c>
       <c r="H70">
-        <v>1.621796951021732</v>
+        <v>-1.161790017211702</v>
       </c>
       <c r="I70" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="J70">
-        <v>41098</v>
+        <v>33113</v>
       </c>
       <c r="K70">
-        <v>13060400</v>
+        <v>14084100</v>
       </c>
       <c r="L70">
-        <v>417740874</v>
+        <v>324859771</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3672,34 +4146,34 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D71">
-        <v>12.53</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="E71">
-        <v>12.33</v>
+        <v>8.49</v>
       </c>
       <c r="F71">
-        <v>12.73</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="G71">
-        <v>12.33</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="H71">
-        <v>2.536824877250399</v>
+        <v>-0.8303677342823285</v>
       </c>
       <c r="I71" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="J71">
-        <v>16087</v>
+        <v>11063</v>
       </c>
       <c r="K71">
-        <v>4012500</v>
+        <v>4284600</v>
       </c>
       <c r="L71">
-        <v>50467482</v>
+        <v>36339162</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3710,34 +4184,34 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D72">
-        <v>20.6</v>
+        <v>97.89</v>
       </c>
       <c r="E72">
-        <v>20.67</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="F72">
-        <v>21</v>
+        <v>100.38</v>
       </c>
       <c r="G72">
-        <v>20.4</v>
+        <v>96.34</v>
       </c>
       <c r="H72">
-        <v>-0.09699321047526466</v>
+        <v>1.366884125504823</v>
       </c>
       <c r="I72" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="J72">
-        <v>9337</v>
+        <v>25205</v>
       </c>
       <c r="K72">
-        <v>2455300</v>
+        <v>3866300</v>
       </c>
       <c r="L72">
-        <v>50817533</v>
+        <v>378739052</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3748,34 +4222,34 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D73">
-        <v>27.1</v>
+        <v>10.52</v>
       </c>
       <c r="E73">
-        <v>26.9</v>
+        <v>10.75</v>
       </c>
       <c r="F73">
-        <v>27.38</v>
+        <v>10.82</v>
       </c>
       <c r="G73">
-        <v>26.56</v>
+        <v>10.46</v>
       </c>
       <c r="H73">
-        <v>2.573807721423163</v>
+        <v>-1.405810684161203</v>
       </c>
       <c r="I73" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="J73">
-        <v>26634</v>
+        <v>22268</v>
       </c>
       <c r="K73">
-        <v>5275600</v>
+        <v>12693600</v>
       </c>
       <c r="L73">
-        <v>142348594</v>
+        <v>134125423</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3786,34 +4260,34 @@
         <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D74">
-        <v>19.97</v>
+        <v>25.37</v>
       </c>
       <c r="E74">
-        <v>19.55</v>
+        <v>25.35</v>
       </c>
       <c r="F74">
-        <v>20.18</v>
+        <v>25.7</v>
       </c>
       <c r="G74">
-        <v>19.54</v>
+        <v>24.62</v>
       </c>
       <c r="H74">
-        <v>3.794178794178797</v>
+        <v>2.215954875100728</v>
       </c>
       <c r="I74" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="J74">
-        <v>13711</v>
+        <v>22621</v>
       </c>
       <c r="K74">
-        <v>5105600</v>
+        <v>9624500</v>
       </c>
       <c r="L74">
-        <v>101493002</v>
+        <v>241994859</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3824,34 +4298,34 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D75">
-        <v>11.16</v>
+        <v>7.85</v>
       </c>
       <c r="E75">
-        <v>11.07</v>
+        <v>7.78</v>
       </c>
       <c r="F75">
-        <v>11.47</v>
+        <v>7.95</v>
       </c>
       <c r="G75">
-        <v>11.01</v>
+        <v>7.77</v>
       </c>
       <c r="H75">
-        <v>0.9954751131221667</v>
+        <v>1.552393272962474</v>
       </c>
       <c r="I75" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="J75">
-        <v>3025</v>
+        <v>5056</v>
       </c>
       <c r="K75">
-        <v>642000</v>
+        <v>1483600</v>
       </c>
       <c r="L75">
-        <v>7199544</v>
+        <v>11639634</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3862,34 +4336,34 @@
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D76">
-        <v>30.6</v>
+        <v>15.07</v>
       </c>
       <c r="E76">
-        <v>31.5</v>
+        <v>15.2</v>
       </c>
       <c r="F76">
-        <v>31.91</v>
+        <v>15.55</v>
       </c>
       <c r="G76">
-        <v>30.37</v>
+        <v>14.89</v>
       </c>
       <c r="H76">
-        <v>-3.439570842537077</v>
+        <v>-0.1986754966887375</v>
       </c>
       <c r="I76" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="J76">
-        <v>38738</v>
+        <v>4113</v>
       </c>
       <c r="K76">
-        <v>14886000</v>
+        <v>1458700</v>
       </c>
       <c r="L76">
-        <v>459638565</v>
+        <v>22091390</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3900,34 +4374,34 @@
         <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D77">
-        <v>15.93</v>
+        <v>17.76</v>
       </c>
       <c r="E77">
-        <v>15.9</v>
+        <v>17.82</v>
       </c>
       <c r="F77">
-        <v>16.19</v>
+        <v>18.15</v>
       </c>
       <c r="G77">
-        <v>15.83</v>
+        <v>17.43</v>
       </c>
       <c r="H77">
-        <v>0.8866371120962671</v>
+        <v>1.427755568246716</v>
       </c>
       <c r="I77" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="J77">
-        <v>6038</v>
+        <v>36533</v>
       </c>
       <c r="K77">
-        <v>1517900</v>
+        <v>9412300</v>
       </c>
       <c r="L77">
-        <v>24270713</v>
+        <v>166742719</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3938,34 +4412,34 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D78">
-        <v>78.58</v>
+        <v>10.59</v>
       </c>
       <c r="E78">
-        <v>77.75</v>
+        <v>10.31</v>
       </c>
       <c r="F78">
-        <v>80.2</v>
+        <v>10.66</v>
       </c>
       <c r="G78">
-        <v>77.5</v>
+        <v>10.3</v>
       </c>
       <c r="H78">
-        <v>2.211238293444333</v>
+        <v>3.015564202334635</v>
       </c>
       <c r="I78" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="J78">
-        <v>11183</v>
+        <v>6328</v>
       </c>
       <c r="K78">
-        <v>1772700</v>
+        <v>2522000</v>
       </c>
       <c r="L78">
-        <v>140283856</v>
+        <v>26555700</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3976,34 +4450,34 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D79">
-        <v>25.35</v>
+        <v>6.77</v>
       </c>
       <c r="E79">
-        <v>25.21</v>
+        <v>6.79</v>
       </c>
       <c r="F79">
-        <v>25.73</v>
+        <v>6.88</v>
       </c>
       <c r="G79">
-        <v>24.86</v>
+        <v>6.71</v>
       </c>
       <c r="H79">
-        <v>1.440576230492209</v>
+        <v>-0.2945508100147343</v>
       </c>
       <c r="I79" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="J79">
-        <v>5080</v>
+        <v>6224</v>
       </c>
       <c r="K79">
-        <v>1324500</v>
+        <v>1773400</v>
       </c>
       <c r="L79">
-        <v>33631428</v>
+        <v>12034810</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4014,34 +4488,34 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D80">
-        <v>14.28</v>
+        <v>17.96</v>
       </c>
       <c r="E80">
-        <v>14.35</v>
+        <v>17.51</v>
       </c>
       <c r="F80">
-        <v>14.55</v>
+        <v>18.1</v>
       </c>
       <c r="G80">
-        <v>14.24</v>
+        <v>17.46</v>
       </c>
       <c r="H80">
-        <v>0.9900990099009815</v>
+        <v>4.055619930475083</v>
       </c>
       <c r="I80" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="J80">
-        <v>27528</v>
+        <v>14689</v>
       </c>
       <c r="K80">
-        <v>8982000</v>
+        <v>3630900</v>
       </c>
       <c r="L80">
-        <v>129319554</v>
+        <v>65116707</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4052,34 +4526,34 @@
         <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D81">
-        <v>12.41</v>
+        <v>33.25</v>
       </c>
       <c r="E81">
-        <v>12.46</v>
+        <v>33.9</v>
       </c>
       <c r="F81">
-        <v>12.69</v>
+        <v>34.07</v>
       </c>
       <c r="G81">
-        <v>12.4</v>
+        <v>32.94</v>
       </c>
       <c r="H81">
-        <v>1.638001638001632</v>
+        <v>0.574712643678154</v>
       </c>
       <c r="I81" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="J81">
-        <v>32021</v>
+        <v>18450</v>
       </c>
       <c r="K81">
-        <v>12881200</v>
+        <v>5564700</v>
       </c>
       <c r="L81">
-        <v>161080146</v>
+        <v>184827174</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4090,34 +4564,34 @@
         <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D82">
-        <v>28.67</v>
+        <v>118233.81</v>
       </c>
       <c r="E82">
-        <v>28.28</v>
+        <v>117520.36</v>
       </c>
       <c r="F82">
-        <v>29.16</v>
+        <v>119805.18</v>
       </c>
       <c r="G82">
-        <v>28.02</v>
+        <v>117519.17</v>
       </c>
       <c r="H82">
-        <v>2.576028622540259</v>
+        <v>0.6094748215096608</v>
       </c>
       <c r="I82" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="J82">
-        <v>8478</v>
+        <v>2603990</v>
       </c>
       <c r="K82">
-        <v>2591700</v>
+        <v>1162620200</v>
       </c>
       <c r="L82">
-        <v>74215107</v>
+        <v>30140803192</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4128,34 +4602,34 @@
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D83">
-        <v>15.38</v>
+        <v>34.98</v>
       </c>
       <c r="E83">
-        <v>15.41</v>
+        <v>34.95</v>
       </c>
       <c r="F83">
-        <v>15.86</v>
+        <v>35.95</v>
       </c>
       <c r="G83">
-        <v>15.23</v>
+        <v>34.86</v>
       </c>
       <c r="H83">
-        <v>0.5228758169934645</v>
+        <v>0.7488479262672754</v>
       </c>
       <c r="I83" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="J83">
-        <v>1042</v>
+        <v>12218</v>
       </c>
       <c r="K83">
-        <v>182600</v>
+        <v>2723400</v>
       </c>
       <c r="L83">
-        <v>2828146</v>
+        <v>96201120</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4166,34 +4640,34 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D84">
-        <v>89.3</v>
+        <v>7.24</v>
       </c>
       <c r="E84">
-        <v>84.90000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="F84">
-        <v>90.17</v>
+        <v>7.57</v>
       </c>
       <c r="G84">
-        <v>84.66</v>
+        <v>7.22</v>
       </c>
       <c r="H84">
-        <v>6.869315461943508</v>
+        <v>-1.227830832196451</v>
       </c>
       <c r="I84" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="J84">
-        <v>24431</v>
+        <v>32157</v>
       </c>
       <c r="K84">
-        <v>5443200</v>
+        <v>40734100</v>
       </c>
       <c r="L84">
-        <v>478124947</v>
+        <v>300503704</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4204,34 +4678,34 @@
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D85">
-        <v>13.52</v>
+        <v>10.81</v>
       </c>
       <c r="E85">
-        <v>13.57</v>
+        <v>10.85</v>
       </c>
       <c r="F85">
-        <v>13.8</v>
+        <v>10.92</v>
       </c>
       <c r="G85">
-        <v>13.43</v>
+        <v>10.55</v>
       </c>
       <c r="H85">
-        <v>0.148148148148145</v>
+        <v>0.1853568118628485</v>
       </c>
       <c r="I85" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="J85">
-        <v>5405</v>
+        <v>71884</v>
       </c>
       <c r="K85">
-        <v>1917600</v>
+        <v>76871000</v>
       </c>
       <c r="L85">
-        <v>26028006</v>
+        <v>829688879</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4242,34 +4716,34 @@
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D86">
-        <v>61.06</v>
+        <v>28.46</v>
       </c>
       <c r="E86">
-        <v>65.25</v>
+        <v>29.08</v>
       </c>
       <c r="F86">
-        <v>65.25</v>
+        <v>29.3</v>
       </c>
       <c r="G86">
-        <v>60.91</v>
+        <v>28</v>
       </c>
       <c r="H86">
-        <v>-5.713403335392221</v>
+        <v>-2.132049518569455</v>
       </c>
       <c r="I86" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="J86">
-        <v>25938</v>
+        <v>151600</v>
       </c>
       <c r="K86">
-        <v>4774000</v>
+        <v>100327800</v>
       </c>
       <c r="L86">
-        <v>295600775</v>
+        <v>2869109465</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4280,34 +4754,34 @@
         <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D87">
-        <v>10.07</v>
+        <v>24.52</v>
       </c>
       <c r="E87">
-        <v>10.06</v>
+        <v>24.51</v>
       </c>
       <c r="F87">
-        <v>10.19</v>
+        <v>24.87</v>
       </c>
       <c r="G87">
-        <v>9.91</v>
+        <v>24.18</v>
       </c>
       <c r="H87">
-        <v>1.00300902708124</v>
+        <v>1.196863392488647</v>
       </c>
       <c r="I87" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="J87">
-        <v>5833</v>
+        <v>35829</v>
       </c>
       <c r="K87">
-        <v>3112400</v>
+        <v>12505600</v>
       </c>
       <c r="L87">
-        <v>31298071</v>
+        <v>305866906</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4318,34 +4792,34 @@
         <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D88">
-        <v>98.83</v>
+        <v>7.61</v>
       </c>
       <c r="E88">
-        <v>100.53</v>
+        <v>7.47</v>
       </c>
       <c r="F88">
-        <v>100.85</v>
+        <v>7.69</v>
       </c>
       <c r="G88">
-        <v>97.40000000000001</v>
+        <v>7.41</v>
       </c>
       <c r="H88">
-        <v>0.3655935818015634</v>
+        <v>3.81991814461119</v>
       </c>
       <c r="I88" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="J88">
-        <v>20617</v>
+        <v>16620</v>
       </c>
       <c r="K88">
-        <v>3737800</v>
+        <v>14167800</v>
       </c>
       <c r="L88">
-        <v>369660905</v>
+        <v>107588210</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4356,34 +4830,34 @@
         <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D89">
-        <v>10.18</v>
+        <v>24.7</v>
       </c>
       <c r="E89">
-        <v>9.91</v>
+        <v>24.87</v>
       </c>
       <c r="F89">
-        <v>10.19</v>
+        <v>25.27</v>
       </c>
       <c r="G89">
-        <v>9.75</v>
+        <v>24.64</v>
       </c>
       <c r="H89">
-        <v>2.932254802831134</v>
+        <v>0.4065040650406417</v>
       </c>
       <c r="I89" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="J89">
-        <v>1708</v>
+        <v>940</v>
       </c>
       <c r="K89">
-        <v>430700</v>
+        <v>162400</v>
       </c>
       <c r="L89">
-        <v>4290549</v>
+        <v>4038654</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4394,34 +4868,34 @@
         <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D90">
-        <v>5.64</v>
+        <v>28.14</v>
       </c>
       <c r="E90">
-        <v>5.74</v>
+        <v>29.15</v>
       </c>
       <c r="F90">
-        <v>5.86</v>
+        <v>29.24</v>
       </c>
       <c r="G90">
-        <v>5.61</v>
+        <v>27.92</v>
       </c>
       <c r="H90">
-        <v>-1.22591943957969</v>
+        <v>-1.951219512195117</v>
       </c>
       <c r="I90" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="J90">
-        <v>8260</v>
+        <v>27831</v>
       </c>
       <c r="K90">
-        <v>2728100</v>
+        <v>5698200</v>
       </c>
       <c r="L90">
-        <v>15572565</v>
+        <v>161346655</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4432,34 +4906,34 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D91">
-        <v>141.86</v>
+        <v>25.25</v>
       </c>
       <c r="E91">
-        <v>129.76</v>
+        <v>24.28</v>
       </c>
       <c r="F91">
-        <v>142.73</v>
+        <v>25.63</v>
       </c>
       <c r="G91">
-        <v>129.49</v>
+        <v>24.14</v>
       </c>
       <c r="H91">
-        <v>9.324907521578316</v>
+        <v>5.516088591725868</v>
       </c>
       <c r="I91" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="J91">
-        <v>7701</v>
+        <v>42881</v>
       </c>
       <c r="K91">
-        <v>1328400</v>
+        <v>17164000</v>
       </c>
       <c r="L91">
-        <v>183612561</v>
+        <v>429529697</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4470,34 +4944,34 @@
         <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D92">
-        <v>28.29</v>
+        <v>8.51</v>
       </c>
       <c r="E92">
-        <v>28.25</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="F92">
-        <v>28.66</v>
+        <v>8.57</v>
       </c>
       <c r="G92">
-        <v>28.13</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="H92">
-        <v>0.8556149732620265</v>
+        <v>1.551312649164666</v>
       </c>
       <c r="I92" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="J92">
-        <v>23684</v>
+        <v>2910</v>
       </c>
       <c r="K92">
-        <v>3808700</v>
+        <v>714800</v>
       </c>
       <c r="L92">
-        <v>108100421</v>
+        <v>6046280</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4508,34 +4982,34 @@
         <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D93">
-        <v>25.13</v>
+        <v>27.46</v>
       </c>
       <c r="E93">
-        <v>25.61</v>
+        <v>26.45</v>
       </c>
       <c r="F93">
-        <v>25.8</v>
+        <v>27.66</v>
       </c>
       <c r="G93">
-        <v>24.76</v>
+        <v>26.34</v>
       </c>
       <c r="H93">
-        <v>-0.4117476886252202</v>
+        <v>5.615384615384619</v>
       </c>
       <c r="I93" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="J93">
-        <v>95588</v>
+        <v>14798</v>
       </c>
       <c r="K93">
-        <v>68364300</v>
+        <v>3099500</v>
       </c>
       <c r="L93">
-        <v>1716926829</v>
+        <v>84665473</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4546,34 +5020,34 @@
         <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D94">
-        <v>34.06</v>
+        <v>19.26</v>
       </c>
       <c r="E94">
-        <v>34.76</v>
+        <v>19.03</v>
       </c>
       <c r="F94">
-        <v>35.1</v>
+        <v>19.55</v>
       </c>
       <c r="G94">
-        <v>33.84</v>
+        <v>19.03</v>
       </c>
       <c r="H94">
-        <v>-0.6707494896471183</v>
+        <v>1.475237091675454</v>
       </c>
       <c r="I94" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="J94">
-        <v>55491</v>
+        <v>3089</v>
       </c>
       <c r="K94">
-        <v>19800900</v>
+        <v>398200</v>
       </c>
       <c r="L94">
-        <v>679304607</v>
+        <v>7669369</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4584,34 +5058,34 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D95">
-        <v>62.69</v>
+        <v>21.63</v>
       </c>
       <c r="E95">
-        <v>62</v>
+        <v>21.35</v>
       </c>
       <c r="F95">
-        <v>63.68</v>
+        <v>22.04</v>
       </c>
       <c r="G95">
-        <v>61.88</v>
+        <v>21.29</v>
       </c>
       <c r="H95">
-        <v>2.351020408163262</v>
+        <v>2.414772727272718</v>
       </c>
       <c r="I95" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="J95">
-        <v>51155</v>
+        <v>12403</v>
       </c>
       <c r="K95">
-        <v>13795000</v>
+        <v>4460700</v>
       </c>
       <c r="L95">
-        <v>866599282</v>
+        <v>96684736</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4622,34 +5096,34 @@
         <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D96">
-        <v>42.14</v>
+        <v>37.75</v>
       </c>
       <c r="E96">
-        <v>42.4</v>
+        <v>37.76</v>
       </c>
       <c r="F96">
-        <v>42.67</v>
+        <v>38</v>
       </c>
       <c r="G96">
-        <v>41.29</v>
+        <v>37.75</v>
       </c>
       <c r="H96">
-        <v>1.787439613526575</v>
+        <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="J96">
-        <v>18902</v>
+        <v>2570</v>
       </c>
       <c r="K96">
-        <v>5302300</v>
+        <v>1167400</v>
       </c>
       <c r="L96">
-        <v>223214072</v>
+        <v>44187550</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4660,34 +5134,34 @@
         <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D97">
-        <v>72.5</v>
+        <v>19.5</v>
       </c>
       <c r="E97">
-        <v>72.36</v>
+        <v>19.21</v>
       </c>
       <c r="F97">
-        <v>73.98</v>
+        <v>19.75</v>
       </c>
       <c r="G97">
-        <v>71.51000000000001</v>
+        <v>18.93</v>
       </c>
       <c r="H97">
-        <v>0.8344923504867793</v>
+        <v>1.562500000000004</v>
       </c>
       <c r="I97" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="J97">
-        <v>3747</v>
+        <v>10267</v>
       </c>
       <c r="K97">
-        <v>714700</v>
+        <v>3124200</v>
       </c>
       <c r="L97">
-        <v>51731681</v>
+        <v>60699144</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4698,34 +5172,34 @@
         <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D98">
-        <v>25.5</v>
+        <v>33.8</v>
       </c>
       <c r="E98">
-        <v>25.4</v>
+        <v>33.72</v>
       </c>
       <c r="F98">
-        <v>25.55</v>
+        <v>34.58</v>
       </c>
       <c r="G98">
-        <v>25.01</v>
+        <v>33.32</v>
       </c>
       <c r="H98">
-        <v>1.959216313474604</v>
+        <v>0.895522388059693</v>
       </c>
       <c r="I98" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="J98">
-        <v>1720</v>
+        <v>1841</v>
       </c>
       <c r="K98">
-        <v>273200</v>
+        <v>311900</v>
       </c>
       <c r="L98">
-        <v>6926665</v>
+        <v>10586177</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4736,34 +5210,34 @@
         <v>108</v>
       </c>
       <c r="C99" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D99">
-        <v>39.03</v>
+        <v>15.55</v>
       </c>
       <c r="E99">
-        <v>39.27</v>
+        <v>14.93</v>
       </c>
       <c r="F99">
-        <v>39.8</v>
+        <v>15.7</v>
       </c>
       <c r="G99">
-        <v>38.92</v>
+        <v>14.86</v>
       </c>
       <c r="H99">
-        <v>0.6446621970087674</v>
+        <v>5.423728813559327</v>
       </c>
       <c r="I99" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="J99">
-        <v>7117</v>
+        <v>3109</v>
       </c>
       <c r="K99">
-        <v>1254300</v>
+        <v>824500</v>
       </c>
       <c r="L99">
-        <v>49264755</v>
+        <v>12655570</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4774,34 +5248,3036 @@
         <v>109</v>
       </c>
       <c r="C100" t="s">
+        <v>189</v>
+      </c>
+      <c r="D100">
+        <v>41.01</v>
+      </c>
+      <c r="E100">
+        <v>41.8</v>
+      </c>
+      <c r="F100">
+        <v>42.32</v>
+      </c>
+      <c r="G100">
+        <v>40.82</v>
+      </c>
+      <c r="H100">
+        <v>-0.1460920379839354</v>
+      </c>
+      <c r="I100" t="s">
+        <v>288</v>
+      </c>
+      <c r="J100">
+        <v>35020</v>
+      </c>
+      <c r="K100">
+        <v>7926300</v>
+      </c>
+      <c r="L100">
+        <v>328528520</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
         <v>110</v>
       </c>
-      <c r="D100">
-        <v>12.43</v>
-      </c>
-      <c r="E100">
-        <v>12.65</v>
-      </c>
-      <c r="F100">
-        <v>12.75</v>
-      </c>
-      <c r="G100">
-        <v>12.31</v>
-      </c>
-      <c r="H100">
-        <v>-0.1606425702811211</v>
-      </c>
-      <c r="I100" t="s">
-        <v>209</v>
-      </c>
-      <c r="J100">
-        <v>12321</v>
-      </c>
-      <c r="K100">
-        <v>5177700</v>
-      </c>
-      <c r="L100">
-        <v>64620027</v>
+      <c r="C101" t="s">
+        <v>189</v>
+      </c>
+      <c r="D101">
+        <v>27.84</v>
+      </c>
+      <c r="E101">
+        <v>27</v>
+      </c>
+      <c r="F101">
+        <v>28.35</v>
+      </c>
+      <c r="G101">
+        <v>26.12</v>
+      </c>
+      <c r="H101">
+        <v>4.426106526631656</v>
+      </c>
+      <c r="I101" t="s">
+        <v>289</v>
+      </c>
+      <c r="J101">
+        <v>15252</v>
+      </c>
+      <c r="K101">
+        <v>4652100</v>
+      </c>
+      <c r="L101">
+        <v>128043774</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" t="s">
+        <v>189</v>
+      </c>
+      <c r="D102">
+        <v>31.15</v>
+      </c>
+      <c r="E102">
+        <v>30.85</v>
+      </c>
+      <c r="F102">
+        <v>31.66</v>
+      </c>
+      <c r="G102">
+        <v>30.66</v>
+      </c>
+      <c r="H102">
+        <v>2.131147540983602</v>
+      </c>
+      <c r="I102" t="s">
+        <v>290</v>
+      </c>
+      <c r="J102">
+        <v>8603</v>
+      </c>
+      <c r="K102">
+        <v>2294700</v>
+      </c>
+      <c r="L102">
+        <v>71477510</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" t="s">
+        <v>189</v>
+      </c>
+      <c r="D103">
+        <v>9.92</v>
+      </c>
+      <c r="E103">
+        <v>9.91</v>
+      </c>
+      <c r="F103">
+        <v>10.1</v>
+      </c>
+      <c r="G103">
+        <v>9.84</v>
+      </c>
+      <c r="H103">
+        <v>1.0183299389002</v>
+      </c>
+      <c r="I103" t="s">
+        <v>291</v>
+      </c>
+      <c r="J103">
+        <v>1070</v>
+      </c>
+      <c r="K103">
+        <v>321900</v>
+      </c>
+      <c r="L103">
+        <v>3203281</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" t="s">
+        <v>189</v>
+      </c>
+      <c r="D104">
+        <v>6.26</v>
+      </c>
+      <c r="E104">
+        <v>6.31</v>
+      </c>
+      <c r="F104">
+        <v>6.36</v>
+      </c>
+      <c r="G104">
+        <v>6.26</v>
+      </c>
+      <c r="H104">
+        <v>-0.6349206349206356</v>
+      </c>
+      <c r="I104" t="s">
+        <v>292</v>
+      </c>
+      <c r="J104">
+        <v>866</v>
+      </c>
+      <c r="K104">
+        <v>1740900</v>
+      </c>
+      <c r="L104">
+        <v>10969397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" t="s">
+        <v>189</v>
+      </c>
+      <c r="D105">
+        <v>25.3</v>
+      </c>
+      <c r="E105">
+        <v>25.3</v>
+      </c>
+      <c r="F105">
+        <v>25.73</v>
+      </c>
+      <c r="G105">
+        <v>25.2</v>
+      </c>
+      <c r="H105">
+        <v>1.484155635780189</v>
+      </c>
+      <c r="I105" t="s">
+        <v>293</v>
+      </c>
+      <c r="J105">
+        <v>62359</v>
+      </c>
+      <c r="K105">
+        <v>27563200</v>
+      </c>
+      <c r="L105">
+        <v>701814266</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" t="s">
+        <v>189</v>
+      </c>
+      <c r="D106">
+        <v>6.09</v>
+      </c>
+      <c r="E106">
+        <v>5.69</v>
+      </c>
+      <c r="F106">
+        <v>6.24</v>
+      </c>
+      <c r="G106">
+        <v>5.69</v>
+      </c>
+      <c r="H106">
+        <v>7.59717314487632</v>
+      </c>
+      <c r="I106" t="s">
+        <v>294</v>
+      </c>
+      <c r="J106">
+        <v>5522</v>
+      </c>
+      <c r="K106">
+        <v>2169700</v>
+      </c>
+      <c r="L106">
+        <v>13106737</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" t="s">
+        <v>189</v>
+      </c>
+      <c r="D107">
+        <v>19.7</v>
+      </c>
+      <c r="E107">
+        <v>19.32</v>
+      </c>
+      <c r="F107">
+        <v>19.9</v>
+      </c>
+      <c r="G107">
+        <v>19.31</v>
+      </c>
+      <c r="H107">
+        <v>3.412073490813641</v>
+      </c>
+      <c r="I107" t="s">
+        <v>295</v>
+      </c>
+      <c r="J107">
+        <v>6918</v>
+      </c>
+      <c r="K107">
+        <v>1730500</v>
+      </c>
+      <c r="L107">
+        <v>34147240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" t="s">
+        <v>189</v>
+      </c>
+      <c r="D108">
+        <v>13.55</v>
+      </c>
+      <c r="E108">
+        <v>13.5</v>
+      </c>
+      <c r="F108">
+        <v>13.94</v>
+      </c>
+      <c r="G108">
+        <v>13.4</v>
+      </c>
+      <c r="H108">
+        <v>1.803155522163788</v>
+      </c>
+      <c r="I108" t="s">
+        <v>296</v>
+      </c>
+      <c r="J108">
+        <v>24845</v>
+      </c>
+      <c r="K108">
+        <v>8736700</v>
+      </c>
+      <c r="L108">
+        <v>119160793</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" t="s">
+        <v>189</v>
+      </c>
+      <c r="D109">
+        <v>19.4</v>
+      </c>
+      <c r="E109">
+        <v>19.6</v>
+      </c>
+      <c r="F109">
+        <v>19.98</v>
+      </c>
+      <c r="G109">
+        <v>19.31</v>
+      </c>
+      <c r="H109">
+        <v>0.4140786749482314</v>
+      </c>
+      <c r="I109" t="s">
+        <v>297</v>
+      </c>
+      <c r="J109">
+        <v>13423</v>
+      </c>
+      <c r="K109">
+        <v>2802100</v>
+      </c>
+      <c r="L109">
+        <v>54941057</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" t="s">
+        <v>189</v>
+      </c>
+      <c r="D110">
+        <v>15.45</v>
+      </c>
+      <c r="E110">
+        <v>15.7</v>
+      </c>
+      <c r="F110">
+        <v>15.75</v>
+      </c>
+      <c r="G110">
+        <v>15.14</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>298</v>
+      </c>
+      <c r="J110">
+        <v>3177</v>
+      </c>
+      <c r="K110">
+        <v>890700</v>
+      </c>
+      <c r="L110">
+        <v>13767326</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" t="s">
+        <v>189</v>
+      </c>
+      <c r="D111">
+        <v>21.3</v>
+      </c>
+      <c r="E111">
+        <v>21.71</v>
+      </c>
+      <c r="F111">
+        <v>21.91</v>
+      </c>
+      <c r="G111">
+        <v>21.06</v>
+      </c>
+      <c r="H111">
+        <v>-0.04692632566869081</v>
+      </c>
+      <c r="I111" t="s">
+        <v>299</v>
+      </c>
+      <c r="J111">
+        <v>29553</v>
+      </c>
+      <c r="K111">
+        <v>7101200</v>
+      </c>
+      <c r="L111">
+        <v>152067091</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" t="s">
+        <v>189</v>
+      </c>
+      <c r="D112">
+        <v>14.44</v>
+      </c>
+      <c r="E112">
+        <v>14</v>
+      </c>
+      <c r="F112">
+        <v>14.6</v>
+      </c>
+      <c r="G112">
+        <v>14</v>
+      </c>
+      <c r="H112">
+        <v>3.586800573888092</v>
+      </c>
+      <c r="I112" t="s">
+        <v>300</v>
+      </c>
+      <c r="J112">
+        <v>7600</v>
+      </c>
+      <c r="K112">
+        <v>1466900</v>
+      </c>
+      <c r="L112">
+        <v>21100732</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" t="s">
+        <v>189</v>
+      </c>
+      <c r="D113">
+        <v>18.78</v>
+      </c>
+      <c r="E113">
+        <v>18.31</v>
+      </c>
+      <c r="F113">
+        <v>18.98</v>
+      </c>
+      <c r="G113">
+        <v>18.25</v>
+      </c>
+      <c r="H113">
+        <v>3.243540406816932</v>
+      </c>
+      <c r="I113" t="s">
+        <v>301</v>
+      </c>
+      <c r="J113">
+        <v>6331</v>
+      </c>
+      <c r="K113">
+        <v>1965000</v>
+      </c>
+      <c r="L113">
+        <v>36709401</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" t="s">
+        <v>189</v>
+      </c>
+      <c r="D114">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="E114">
+        <v>9.41</v>
+      </c>
+      <c r="F114">
+        <v>9.6</v>
+      </c>
+      <c r="G114">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="H114">
+        <v>-0.6410256410256274</v>
+      </c>
+      <c r="I114" t="s">
+        <v>302</v>
+      </c>
+      <c r="J114">
+        <v>10770</v>
+      </c>
+      <c r="K114">
+        <v>7265300</v>
+      </c>
+      <c r="L114">
+        <v>68369612</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>124</v>
+      </c>
+      <c r="C115" t="s">
+        <v>189</v>
+      </c>
+      <c r="D115">
+        <v>49.26</v>
+      </c>
+      <c r="E115">
+        <v>49.4</v>
+      </c>
+      <c r="F115">
+        <v>50</v>
+      </c>
+      <c r="G115">
+        <v>48.48</v>
+      </c>
+      <c r="H115">
+        <v>1.650846058605029</v>
+      </c>
+      <c r="I115" t="s">
+        <v>303</v>
+      </c>
+      <c r="J115">
+        <v>33727</v>
+      </c>
+      <c r="K115">
+        <v>6991600</v>
+      </c>
+      <c r="L115">
+        <v>343234759</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" t="s">
+        <v>189</v>
+      </c>
+      <c r="D116">
+        <v>14.6</v>
+      </c>
+      <c r="E116">
+        <v>14.51</v>
+      </c>
+      <c r="F116">
+        <v>15.07</v>
+      </c>
+      <c r="G116">
+        <v>14.45</v>
+      </c>
+      <c r="H116">
+        <v>0.6896551724137907</v>
+      </c>
+      <c r="I116" t="s">
+        <v>304</v>
+      </c>
+      <c r="J116">
+        <v>10569</v>
+      </c>
+      <c r="K116">
+        <v>1858200</v>
+      </c>
+      <c r="L116">
+        <v>27438455</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" t="s">
+        <v>189</v>
+      </c>
+      <c r="D117">
+        <v>2.23</v>
+      </c>
+      <c r="E117">
+        <v>2.28</v>
+      </c>
+      <c r="F117">
+        <v>2.31</v>
+      </c>
+      <c r="G117">
+        <v>2.2</v>
+      </c>
+      <c r="H117">
+        <v>-1.327433628318575</v>
+      </c>
+      <c r="I117" t="s">
+        <v>305</v>
+      </c>
+      <c r="J117">
+        <v>26100</v>
+      </c>
+      <c r="K117">
+        <v>132634900</v>
+      </c>
+      <c r="L117">
+        <v>297355451</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118" t="s">
+        <v>189</v>
+      </c>
+      <c r="D118">
+        <v>40.98</v>
+      </c>
+      <c r="E118">
+        <v>40.37</v>
+      </c>
+      <c r="F118">
+        <v>41.48</v>
+      </c>
+      <c r="G118">
+        <v>40.32</v>
+      </c>
+      <c r="H118">
+        <v>1.712583767684283</v>
+      </c>
+      <c r="I118" t="s">
+        <v>306</v>
+      </c>
+      <c r="J118">
+        <v>4099</v>
+      </c>
+      <c r="K118">
+        <v>859300</v>
+      </c>
+      <c r="L118">
+        <v>35240385</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119" t="s">
+        <v>189</v>
+      </c>
+      <c r="D119">
+        <v>22.69</v>
+      </c>
+      <c r="E119">
+        <v>21.71</v>
+      </c>
+      <c r="F119">
+        <v>22.97</v>
+      </c>
+      <c r="G119">
+        <v>21.7</v>
+      </c>
+      <c r="H119">
+        <v>5.192396847473347</v>
+      </c>
+      <c r="I119" t="s">
+        <v>307</v>
+      </c>
+      <c r="J119">
+        <v>2947</v>
+      </c>
+      <c r="K119">
+        <v>456600</v>
+      </c>
+      <c r="L119">
+        <v>10279422</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" t="s">
+        <v>189</v>
+      </c>
+      <c r="D120">
+        <v>81.69</v>
+      </c>
+      <c r="E120">
+        <v>81.5</v>
+      </c>
+      <c r="F120">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="G120">
+        <v>79.26000000000001</v>
+      </c>
+      <c r="H120">
+        <v>2.871174914998113</v>
+      </c>
+      <c r="I120" t="s">
+        <v>308</v>
+      </c>
+      <c r="J120">
+        <v>16376</v>
+      </c>
+      <c r="K120">
+        <v>2654400</v>
+      </c>
+      <c r="L120">
+        <v>214817257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121" t="s">
+        <v>189</v>
+      </c>
+      <c r="D121">
+        <v>28.66</v>
+      </c>
+      <c r="E121">
+        <v>28.4</v>
+      </c>
+      <c r="F121">
+        <v>29.14</v>
+      </c>
+      <c r="G121">
+        <v>28.2</v>
+      </c>
+      <c r="H121">
+        <v>4.104613149291678</v>
+      </c>
+      <c r="I121" t="s">
+        <v>309</v>
+      </c>
+      <c r="J121">
+        <v>106427</v>
+      </c>
+      <c r="K121">
+        <v>91663000</v>
+      </c>
+      <c r="L121">
+        <v>2629121265</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" t="s">
+        <v>189</v>
+      </c>
+      <c r="D122">
+        <v>21.8</v>
+      </c>
+      <c r="E122">
+        <v>21.81</v>
+      </c>
+      <c r="F122">
+        <v>22.13</v>
+      </c>
+      <c r="G122">
+        <v>21.62</v>
+      </c>
+      <c r="H122">
+        <v>0.9259259259259226</v>
+      </c>
+      <c r="I122" t="s">
+        <v>310</v>
+      </c>
+      <c r="J122">
+        <v>11699</v>
+      </c>
+      <c r="K122">
+        <v>2509800</v>
+      </c>
+      <c r="L122">
+        <v>54733073</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" t="s">
+        <v>189</v>
+      </c>
+      <c r="D123">
+        <v>6.31</v>
+      </c>
+      <c r="E123">
+        <v>6.64</v>
+      </c>
+      <c r="F123">
+        <v>6.75</v>
+      </c>
+      <c r="G123">
+        <v>6.31</v>
+      </c>
+      <c r="H123">
+        <v>-4.969879518072291</v>
+      </c>
+      <c r="I123" t="s">
+        <v>311</v>
+      </c>
+      <c r="J123">
+        <v>3300</v>
+      </c>
+      <c r="K123">
+        <v>1111900</v>
+      </c>
+      <c r="L123">
+        <v>7217629</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>133</v>
+      </c>
+      <c r="C124" t="s">
+        <v>189</v>
+      </c>
+      <c r="D124">
+        <v>10.04</v>
+      </c>
+      <c r="E124">
+        <v>10.17</v>
+      </c>
+      <c r="F124">
+        <v>10.17</v>
+      </c>
+      <c r="G124">
+        <v>9.99</v>
+      </c>
+      <c r="H124">
+        <v>0.8032128514056053</v>
+      </c>
+      <c r="I124" t="s">
+        <v>312</v>
+      </c>
+      <c r="J124">
+        <v>2811</v>
+      </c>
+      <c r="K124">
+        <v>596800</v>
+      </c>
+      <c r="L124">
+        <v>5999420</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125" t="s">
+        <v>189</v>
+      </c>
+      <c r="D125">
+        <v>6.85</v>
+      </c>
+      <c r="E125">
+        <v>6.97</v>
+      </c>
+      <c r="F125">
+        <v>7.1</v>
+      </c>
+      <c r="G125">
+        <v>6.85</v>
+      </c>
+      <c r="H125">
+        <v>-1.580459770114947</v>
+      </c>
+      <c r="I125" t="s">
+        <v>313</v>
+      </c>
+      <c r="J125">
+        <v>986</v>
+      </c>
+      <c r="K125">
+        <v>653500</v>
+      </c>
+      <c r="L125">
+        <v>4526859</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126" t="s">
+        <v>189</v>
+      </c>
+      <c r="D126">
+        <v>21.5</v>
+      </c>
+      <c r="E126">
+        <v>21.5</v>
+      </c>
+      <c r="F126">
+        <v>21.95</v>
+      </c>
+      <c r="G126">
+        <v>21.43</v>
+      </c>
+      <c r="H126">
+        <v>0.04653327128897889</v>
+      </c>
+      <c r="I126" t="s">
+        <v>314</v>
+      </c>
+      <c r="J126">
+        <v>2204</v>
+      </c>
+      <c r="K126">
+        <v>460700</v>
+      </c>
+      <c r="L126">
+        <v>9987259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127" t="s">
+        <v>189</v>
+      </c>
+      <c r="D127">
+        <v>3.06</v>
+      </c>
+      <c r="E127">
+        <v>2.97</v>
+      </c>
+      <c r="F127">
+        <v>3.08</v>
+      </c>
+      <c r="G127">
+        <v>2.97</v>
+      </c>
+      <c r="H127">
+        <v>3.378378378378382</v>
+      </c>
+      <c r="I127" t="s">
+        <v>315</v>
+      </c>
+      <c r="J127">
+        <v>5504</v>
+      </c>
+      <c r="K127">
+        <v>8276600</v>
+      </c>
+      <c r="L127">
+        <v>25131127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" t="s">
+        <v>189</v>
+      </c>
+      <c r="D128">
+        <v>4.59</v>
+      </c>
+      <c r="E128">
+        <v>4.53</v>
+      </c>
+      <c r="F128">
+        <v>4.64</v>
+      </c>
+      <c r="G128">
+        <v>4.49</v>
+      </c>
+      <c r="H128">
+        <v>1.548672566371688</v>
+      </c>
+      <c r="I128" t="s">
+        <v>316</v>
+      </c>
+      <c r="J128">
+        <v>2103</v>
+      </c>
+      <c r="K128">
+        <v>1075100</v>
+      </c>
+      <c r="L128">
+        <v>4914536</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129" t="s">
+        <v>189</v>
+      </c>
+      <c r="D129">
+        <v>77.83</v>
+      </c>
+      <c r="E129">
+        <v>74.81</v>
+      </c>
+      <c r="F129">
+        <v>79.38</v>
+      </c>
+      <c r="G129">
+        <v>74.81</v>
+      </c>
+      <c r="H129">
+        <v>5.934394991152851</v>
+      </c>
+      <c r="I129" t="s">
+        <v>317</v>
+      </c>
+      <c r="J129">
+        <v>38284</v>
+      </c>
+      <c r="K129">
+        <v>8536400</v>
+      </c>
+      <c r="L129">
+        <v>663043630</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" t="s">
+        <v>189</v>
+      </c>
+      <c r="D130">
+        <v>8.08</v>
+      </c>
+      <c r="E130">
+        <v>8.09</v>
+      </c>
+      <c r="F130">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="G130">
+        <v>8.08</v>
+      </c>
+      <c r="H130">
+        <v>0.3726708074534082</v>
+      </c>
+      <c r="I130" t="s">
+        <v>318</v>
+      </c>
+      <c r="J130">
+        <v>308</v>
+      </c>
+      <c r="K130">
+        <v>83800</v>
+      </c>
+      <c r="L130">
+        <v>681636</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131" t="s">
+        <v>189</v>
+      </c>
+      <c r="D131">
+        <v>49.29</v>
+      </c>
+      <c r="E131">
+        <v>48.97</v>
+      </c>
+      <c r="F131">
+        <v>49.85</v>
+      </c>
+      <c r="G131">
+        <v>48.97</v>
+      </c>
+      <c r="H131">
+        <v>1.086956521739133</v>
+      </c>
+      <c r="I131" t="s">
+        <v>319</v>
+      </c>
+      <c r="J131">
+        <v>3776</v>
+      </c>
+      <c r="K131">
+        <v>562300</v>
+      </c>
+      <c r="L131">
+        <v>27783926</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" t="s">
+        <v>189</v>
+      </c>
+      <c r="D132">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="E132">
+        <v>9.02</v>
+      </c>
+      <c r="F132">
+        <v>9.6</v>
+      </c>
+      <c r="G132">
+        <v>9.02</v>
+      </c>
+      <c r="H132">
+        <v>4.687499999999999</v>
+      </c>
+      <c r="I132" t="s">
+        <v>320</v>
+      </c>
+      <c r="J132">
+        <v>8541</v>
+      </c>
+      <c r="K132">
+        <v>4509900</v>
+      </c>
+      <c r="L132">
+        <v>42132862</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" t="s">
+        <v>189</v>
+      </c>
+      <c r="D133">
+        <v>31.75</v>
+      </c>
+      <c r="E133">
+        <v>31.5</v>
+      </c>
+      <c r="F133">
+        <v>32.2</v>
+      </c>
+      <c r="G133">
+        <v>31.3</v>
+      </c>
+      <c r="H133">
+        <v>2.817357512953371</v>
+      </c>
+      <c r="I133" t="s">
+        <v>321</v>
+      </c>
+      <c r="J133">
+        <v>24889</v>
+      </c>
+      <c r="K133">
+        <v>5208800</v>
+      </c>
+      <c r="L133">
+        <v>165508539</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134" t="s">
+        <v>189</v>
+      </c>
+      <c r="D134">
+        <v>25.27</v>
+      </c>
+      <c r="E134">
+        <v>25.4</v>
+      </c>
+      <c r="F134">
+        <v>25.77</v>
+      </c>
+      <c r="G134">
+        <v>25.06</v>
+      </c>
+      <c r="H134">
+        <v>0.958849380743102</v>
+      </c>
+      <c r="I134" t="s">
+        <v>322</v>
+      </c>
+      <c r="J134">
+        <v>24112</v>
+      </c>
+      <c r="K134">
+        <v>5735300</v>
+      </c>
+      <c r="L134">
+        <v>145261031</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135" t="s">
+        <v>189</v>
+      </c>
+      <c r="D135">
+        <v>20.77</v>
+      </c>
+      <c r="E135">
+        <v>21.6</v>
+      </c>
+      <c r="F135">
+        <v>21.85</v>
+      </c>
+      <c r="G135">
+        <v>20.77</v>
+      </c>
+      <c r="H135">
+        <v>-1.563981042654037</v>
+      </c>
+      <c r="I135" t="s">
+        <v>323</v>
+      </c>
+      <c r="J135">
+        <v>41154</v>
+      </c>
+      <c r="K135">
+        <v>10692200</v>
+      </c>
+      <c r="L135">
+        <v>226375650</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" t="s">
+        <v>189</v>
+      </c>
+      <c r="D136">
+        <v>14.35</v>
+      </c>
+      <c r="E136">
+        <v>14.55</v>
+      </c>
+      <c r="F136">
+        <v>14.86</v>
+      </c>
+      <c r="G136">
+        <v>14.3</v>
+      </c>
+      <c r="H136">
+        <v>-0.4854368932038855</v>
+      </c>
+      <c r="I136" t="s">
+        <v>324</v>
+      </c>
+      <c r="J136">
+        <v>11044</v>
+      </c>
+      <c r="K136">
+        <v>3314700</v>
+      </c>
+      <c r="L136">
+        <v>48120884</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>146</v>
+      </c>
+      <c r="C137" t="s">
+        <v>189</v>
+      </c>
+      <c r="D137">
+        <v>68.55</v>
+      </c>
+      <c r="E137">
+        <v>68.03</v>
+      </c>
+      <c r="F137">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="G137">
+        <v>67.7</v>
+      </c>
+      <c r="H137">
+        <v>1.106194690265487</v>
+      </c>
+      <c r="I137" t="s">
+        <v>325</v>
+      </c>
+      <c r="J137">
+        <v>10200</v>
+      </c>
+      <c r="K137">
+        <v>2228800</v>
+      </c>
+      <c r="L137">
+        <v>153051151</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>147</v>
+      </c>
+      <c r="C138" t="s">
+        <v>189</v>
+      </c>
+      <c r="D138">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="E138">
+        <v>65.23</v>
+      </c>
+      <c r="F138">
+        <v>67.68000000000001</v>
+      </c>
+      <c r="G138">
+        <v>65.02</v>
+      </c>
+      <c r="H138">
+        <v>5.56684910086005</v>
+      </c>
+      <c r="I138" t="s">
+        <v>326</v>
+      </c>
+      <c r="J138">
+        <v>32137</v>
+      </c>
+      <c r="K138">
+        <v>7270200</v>
+      </c>
+      <c r="L138">
+        <v>484749231</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139" t="s">
+        <v>189</v>
+      </c>
+      <c r="D139">
+        <v>19.67</v>
+      </c>
+      <c r="E139">
+        <v>19.26</v>
+      </c>
+      <c r="F139">
+        <v>19.91</v>
+      </c>
+      <c r="G139">
+        <v>19.18</v>
+      </c>
+      <c r="H139">
+        <v>2.822791427077902</v>
+      </c>
+      <c r="I139" t="s">
+        <v>327</v>
+      </c>
+      <c r="J139">
+        <v>3287</v>
+      </c>
+      <c r="K139">
+        <v>738600</v>
+      </c>
+      <c r="L139">
+        <v>14546287</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140" t="s">
+        <v>189</v>
+      </c>
+      <c r="D140">
+        <v>17.59</v>
+      </c>
+      <c r="E140">
+        <v>17.7</v>
+      </c>
+      <c r="F140">
+        <v>17.95</v>
+      </c>
+      <c r="G140">
+        <v>17.2</v>
+      </c>
+      <c r="H140">
+        <v>-0.2268859897901256</v>
+      </c>
+      <c r="I140" t="s">
+        <v>328</v>
+      </c>
+      <c r="J140">
+        <v>6532</v>
+      </c>
+      <c r="K140">
+        <v>1199500</v>
+      </c>
+      <c r="L140">
+        <v>21043124</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>150</v>
+      </c>
+      <c r="C141" t="s">
+        <v>189</v>
+      </c>
+      <c r="D141">
+        <v>33.95</v>
+      </c>
+      <c r="E141">
+        <v>35</v>
+      </c>
+      <c r="F141">
+        <v>35.01</v>
+      </c>
+      <c r="G141">
+        <v>33.26</v>
+      </c>
+      <c r="H141">
+        <v>2.692075015124018</v>
+      </c>
+      <c r="I141" t="s">
+        <v>329</v>
+      </c>
+      <c r="J141">
+        <v>2781</v>
+      </c>
+      <c r="K141">
+        <v>569700</v>
+      </c>
+      <c r="L141">
+        <v>19520954</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>151</v>
+      </c>
+      <c r="C142" t="s">
+        <v>189</v>
+      </c>
+      <c r="D142">
+        <v>41</v>
+      </c>
+      <c r="E142">
+        <v>41.53</v>
+      </c>
+      <c r="F142">
+        <v>41.82</v>
+      </c>
+      <c r="G142">
+        <v>39.84</v>
+      </c>
+      <c r="H142">
+        <v>0.4901960784313795</v>
+      </c>
+      <c r="I142" t="s">
+        <v>330</v>
+      </c>
+      <c r="J142">
+        <v>23812</v>
+      </c>
+      <c r="K142">
+        <v>6342800</v>
+      </c>
+      <c r="L142">
+        <v>258993955</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>152</v>
+      </c>
+      <c r="C143" t="s">
+        <v>189</v>
+      </c>
+      <c r="D143">
+        <v>22.28</v>
+      </c>
+      <c r="E143">
+        <v>21.97</v>
+      </c>
+      <c r="F143">
+        <v>22.6</v>
+      </c>
+      <c r="G143">
+        <v>21.97</v>
+      </c>
+      <c r="H143">
+        <v>1.921317474839898</v>
+      </c>
+      <c r="I143" t="s">
+        <v>331</v>
+      </c>
+      <c r="J143">
+        <v>9071</v>
+      </c>
+      <c r="K143">
+        <v>2262500</v>
+      </c>
+      <c r="L143">
+        <v>50387311</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144" t="s">
+        <v>189</v>
+      </c>
+      <c r="D144">
+        <v>42.24</v>
+      </c>
+      <c r="E144">
+        <v>42.01</v>
+      </c>
+      <c r="F144">
+        <v>42.72</v>
+      </c>
+      <c r="G144">
+        <v>41.82</v>
+      </c>
+      <c r="H144">
+        <v>1.611739235025263</v>
+      </c>
+      <c r="I144" t="s">
+        <v>332</v>
+      </c>
+      <c r="J144">
+        <v>14665</v>
+      </c>
+      <c r="K144">
+        <v>2445100</v>
+      </c>
+      <c r="L144">
+        <v>103092059</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>154</v>
+      </c>
+      <c r="C145" t="s">
+        <v>189</v>
+      </c>
+      <c r="D145">
+        <v>15.49</v>
+      </c>
+      <c r="E145">
+        <v>14.99</v>
+      </c>
+      <c r="F145">
+        <v>15.49</v>
+      </c>
+      <c r="G145">
+        <v>14.98</v>
+      </c>
+      <c r="H145">
+        <v>4.029550033579581</v>
+      </c>
+      <c r="I145" t="s">
+        <v>333</v>
+      </c>
+      <c r="J145">
+        <v>3729</v>
+      </c>
+      <c r="K145">
+        <v>656600</v>
+      </c>
+      <c r="L145">
+        <v>10063030</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>155</v>
+      </c>
+      <c r="C146" t="s">
+        <v>189</v>
+      </c>
+      <c r="D146">
+        <v>28.97</v>
+      </c>
+      <c r="E146">
+        <v>29.15</v>
+      </c>
+      <c r="F146">
+        <v>31.29</v>
+      </c>
+      <c r="G146">
+        <v>28.3</v>
+      </c>
+      <c r="H146">
+        <v>-0.172294968986908</v>
+      </c>
+      <c r="I146" t="s">
+        <v>334</v>
+      </c>
+      <c r="J146">
+        <v>6868</v>
+      </c>
+      <c r="K146">
+        <v>1372300</v>
+      </c>
+      <c r="L146">
+        <v>40424040</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>156</v>
+      </c>
+      <c r="C147" t="s">
+        <v>189</v>
+      </c>
+      <c r="D147">
+        <v>38.41</v>
+      </c>
+      <c r="E147">
+        <v>37.7</v>
+      </c>
+      <c r="F147">
+        <v>38.95</v>
+      </c>
+      <c r="G147">
+        <v>37.7</v>
+      </c>
+      <c r="H147">
+        <v>1.883289124668418</v>
+      </c>
+      <c r="I147" t="s">
+        <v>335</v>
+      </c>
+      <c r="J147">
+        <v>6066</v>
+      </c>
+      <c r="K147">
+        <v>1310400</v>
+      </c>
+      <c r="L147">
+        <v>50548132</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" t="s">
+        <v>189</v>
+      </c>
+      <c r="D148">
+        <v>36.6</v>
+      </c>
+      <c r="E148">
+        <v>35.5</v>
+      </c>
+      <c r="F148">
+        <v>36.97</v>
+      </c>
+      <c r="G148">
+        <v>35.3</v>
+      </c>
+      <c r="H148">
+        <v>4.571428571428576</v>
+      </c>
+      <c r="I148" t="s">
+        <v>336</v>
+      </c>
+      <c r="J148">
+        <v>6080</v>
+      </c>
+      <c r="K148">
+        <v>1125800</v>
+      </c>
+      <c r="L148">
+        <v>41048427</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>158</v>
+      </c>
+      <c r="C149" t="s">
+        <v>189</v>
+      </c>
+      <c r="D149">
+        <v>21.49</v>
+      </c>
+      <c r="E149">
+        <v>21.95</v>
+      </c>
+      <c r="F149">
+        <v>22.48</v>
+      </c>
+      <c r="G149">
+        <v>21.49</v>
+      </c>
+      <c r="H149">
+        <v>-1.331496786042253</v>
+      </c>
+      <c r="I149" t="s">
+        <v>337</v>
+      </c>
+      <c r="J149">
+        <v>2168</v>
+      </c>
+      <c r="K149">
+        <v>504000</v>
+      </c>
+      <c r="L149">
+        <v>11052042</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>159</v>
+      </c>
+      <c r="C150" t="s">
+        <v>189</v>
+      </c>
+      <c r="D150">
+        <v>30.48</v>
+      </c>
+      <c r="E150">
+        <v>31.24</v>
+      </c>
+      <c r="F150">
+        <v>31.48</v>
+      </c>
+      <c r="G150">
+        <v>30.24</v>
+      </c>
+      <c r="H150">
+        <v>-1.167315175097274</v>
+      </c>
+      <c r="I150" t="s">
+        <v>338</v>
+      </c>
+      <c r="J150">
+        <v>8101</v>
+      </c>
+      <c r="K150">
+        <v>1251700</v>
+      </c>
+      <c r="L150">
+        <v>38401056</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>160</v>
+      </c>
+      <c r="C151" t="s">
+        <v>189</v>
+      </c>
+      <c r="D151">
+        <v>15.33</v>
+      </c>
+      <c r="E151">
+        <v>15.19</v>
+      </c>
+      <c r="F151">
+        <v>15.65</v>
+      </c>
+      <c r="G151">
+        <v>15.11</v>
+      </c>
+      <c r="H151">
+        <v>0.3929273084479404</v>
+      </c>
+      <c r="I151" t="s">
+        <v>339</v>
+      </c>
+      <c r="J151">
+        <v>3497</v>
+      </c>
+      <c r="K151">
+        <v>750400</v>
+      </c>
+      <c r="L151">
+        <v>11516168</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>161</v>
+      </c>
+      <c r="C152" t="s">
+        <v>189</v>
+      </c>
+      <c r="D152">
+        <v>23.84</v>
+      </c>
+      <c r="E152">
+        <v>22.17</v>
+      </c>
+      <c r="F152">
+        <v>23.92</v>
+      </c>
+      <c r="G152">
+        <v>22.15</v>
+      </c>
+      <c r="H152">
+        <v>8.462238398544129</v>
+      </c>
+      <c r="I152" t="s">
+        <v>340</v>
+      </c>
+      <c r="J152">
+        <v>6356</v>
+      </c>
+      <c r="K152">
+        <v>1527700</v>
+      </c>
+      <c r="L152">
+        <v>35394801</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>162</v>
+      </c>
+      <c r="C153" t="s">
+        <v>189</v>
+      </c>
+      <c r="D153">
+        <v>6.48</v>
+      </c>
+      <c r="E153">
+        <v>6.57</v>
+      </c>
+      <c r="F153">
+        <v>6.83</v>
+      </c>
+      <c r="G153">
+        <v>6.41</v>
+      </c>
+      <c r="H153">
+        <v>-0.1540832049306593</v>
+      </c>
+      <c r="I153" t="s">
+        <v>341</v>
+      </c>
+      <c r="J153">
+        <v>12007</v>
+      </c>
+      <c r="K153">
+        <v>9168900</v>
+      </c>
+      <c r="L153">
+        <v>60309267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>163</v>
+      </c>
+      <c r="C154" t="s">
+        <v>189</v>
+      </c>
+      <c r="D154">
+        <v>63.08</v>
+      </c>
+      <c r="E154">
+        <v>65.34</v>
+      </c>
+      <c r="F154">
+        <v>65.5</v>
+      </c>
+      <c r="G154">
+        <v>61.71</v>
+      </c>
+      <c r="H154">
+        <v>-1.790440604079099</v>
+      </c>
+      <c r="I154" t="s">
+        <v>342</v>
+      </c>
+      <c r="J154">
+        <v>36922</v>
+      </c>
+      <c r="K154">
+        <v>8207300</v>
+      </c>
+      <c r="L154">
+        <v>515159737</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>164</v>
+      </c>
+      <c r="C155" t="s">
+        <v>189</v>
+      </c>
+      <c r="D155">
+        <v>33.2</v>
+      </c>
+      <c r="E155">
+        <v>33</v>
+      </c>
+      <c r="F155">
+        <v>33.63</v>
+      </c>
+      <c r="G155">
+        <v>33</v>
+      </c>
+      <c r="H155">
+        <v>1.622283440465262</v>
+      </c>
+      <c r="I155" t="s">
+        <v>343</v>
+      </c>
+      <c r="J155">
+        <v>12452</v>
+      </c>
+      <c r="K155">
+        <v>2365300</v>
+      </c>
+      <c r="L155">
+        <v>78746704</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>165</v>
+      </c>
+      <c r="C156" t="s">
+        <v>189</v>
+      </c>
+      <c r="D156">
+        <v>18.24</v>
+      </c>
+      <c r="E156">
+        <v>17.88</v>
+      </c>
+      <c r="F156">
+        <v>18.53</v>
+      </c>
+      <c r="G156">
+        <v>17.88</v>
+      </c>
+      <c r="H156">
+        <v>2.87648054145515</v>
+      </c>
+      <c r="I156" t="s">
+        <v>344</v>
+      </c>
+      <c r="J156">
+        <v>6873</v>
+      </c>
+      <c r="K156">
+        <v>3045100</v>
+      </c>
+      <c r="L156">
+        <v>55497014</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>166</v>
+      </c>
+      <c r="C157" t="s">
+        <v>189</v>
+      </c>
+      <c r="D157">
+        <v>29.11</v>
+      </c>
+      <c r="E157">
+        <v>28.67</v>
+      </c>
+      <c r="F157">
+        <v>29.8</v>
+      </c>
+      <c r="G157">
+        <v>28.67</v>
+      </c>
+      <c r="H157">
+        <v>1.60558464223386</v>
+      </c>
+      <c r="I157" t="s">
+        <v>345</v>
+      </c>
+      <c r="J157">
+        <v>4924</v>
+      </c>
+      <c r="K157">
+        <v>919900</v>
+      </c>
+      <c r="L157">
+        <v>26920740</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C158" t="s">
+        <v>189</v>
+      </c>
+      <c r="D158">
+        <v>14.1</v>
+      </c>
+      <c r="E158">
+        <v>14</v>
+      </c>
+      <c r="F158">
+        <v>14.26</v>
+      </c>
+      <c r="G158">
+        <v>13.78</v>
+      </c>
+      <c r="H158">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="I158" t="s">
+        <v>346</v>
+      </c>
+      <c r="J158">
+        <v>233</v>
+      </c>
+      <c r="K158">
+        <v>60000</v>
+      </c>
+      <c r="L158">
+        <v>838999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>168</v>
+      </c>
+      <c r="C159" t="s">
+        <v>189</v>
+      </c>
+      <c r="D159">
+        <v>26.42</v>
+      </c>
+      <c r="E159">
+        <v>25.75</v>
+      </c>
+      <c r="F159">
+        <v>26.6</v>
+      </c>
+      <c r="G159">
+        <v>25.58</v>
+      </c>
+      <c r="H159">
+        <v>3.811394891945</v>
+      </c>
+      <c r="I159" t="s">
+        <v>347</v>
+      </c>
+      <c r="J159">
+        <v>1571</v>
+      </c>
+      <c r="K159">
+        <v>205100</v>
+      </c>
+      <c r="L159">
+        <v>5391576</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>169</v>
+      </c>
+      <c r="C160" t="s">
+        <v>189</v>
+      </c>
+      <c r="D160">
+        <v>16.81</v>
+      </c>
+      <c r="E160">
+        <v>16.91</v>
+      </c>
+      <c r="F160">
+        <v>17.12</v>
+      </c>
+      <c r="G160">
+        <v>16.75</v>
+      </c>
+      <c r="H160">
+        <v>-0.1781472684085578</v>
+      </c>
+      <c r="I160" t="s">
+        <v>348</v>
+      </c>
+      <c r="J160">
+        <v>4201</v>
+      </c>
+      <c r="K160">
+        <v>1062900</v>
+      </c>
+      <c r="L160">
+        <v>17990307</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>170</v>
+      </c>
+      <c r="C161" t="s">
+        <v>189</v>
+      </c>
+      <c r="D161">
+        <v>13.6</v>
+      </c>
+      <c r="E161">
+        <v>13.6</v>
+      </c>
+      <c r="F161">
+        <v>13.98</v>
+      </c>
+      <c r="G161">
+        <v>13.57</v>
+      </c>
+      <c r="H161">
+        <v>2.178812922614569</v>
+      </c>
+      <c r="I161" t="s">
+        <v>349</v>
+      </c>
+      <c r="J161">
+        <v>27175</v>
+      </c>
+      <c r="K161">
+        <v>7519800</v>
+      </c>
+      <c r="L161">
+        <v>103168880</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>171</v>
+      </c>
+      <c r="C162" t="s">
+        <v>189</v>
+      </c>
+      <c r="D162">
+        <v>30.28</v>
+      </c>
+      <c r="E162">
+        <v>29.7</v>
+      </c>
+      <c r="F162">
+        <v>30.66</v>
+      </c>
+      <c r="G162">
+        <v>29.53</v>
+      </c>
+      <c r="H162">
+        <v>6.770098730606494</v>
+      </c>
+      <c r="I162" t="s">
+        <v>350</v>
+      </c>
+      <c r="J162">
+        <v>43091</v>
+      </c>
+      <c r="K162">
+        <v>8987500</v>
+      </c>
+      <c r="L162">
+        <v>271989670</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>172</v>
+      </c>
+      <c r="C163" t="s">
+        <v>189</v>
+      </c>
+      <c r="D163">
+        <v>11.36</v>
+      </c>
+      <c r="E163">
+        <v>11.28</v>
+      </c>
+      <c r="F163">
+        <v>11.5</v>
+      </c>
+      <c r="G163">
+        <v>11.2</v>
+      </c>
+      <c r="H163">
+        <v>1.42857142857143</v>
+      </c>
+      <c r="I163" t="s">
+        <v>351</v>
+      </c>
+      <c r="J163">
+        <v>5255</v>
+      </c>
+      <c r="K163">
+        <v>1349200</v>
+      </c>
+      <c r="L163">
+        <v>15318392</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>173</v>
+      </c>
+      <c r="C164" t="s">
+        <v>189</v>
+      </c>
+      <c r="D164">
+        <v>26.34</v>
+      </c>
+      <c r="E164">
+        <v>26.77</v>
+      </c>
+      <c r="F164">
+        <v>27.16</v>
+      </c>
+      <c r="G164">
+        <v>26.28</v>
+      </c>
+      <c r="H164">
+        <v>-1.200300075018756</v>
+      </c>
+      <c r="I164" t="s">
+        <v>352</v>
+      </c>
+      <c r="J164">
+        <v>5352</v>
+      </c>
+      <c r="K164">
+        <v>1682700</v>
+      </c>
+      <c r="L164">
+        <v>44912439</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>174</v>
+      </c>
+      <c r="C165" t="s">
+        <v>189</v>
+      </c>
+      <c r="D165">
+        <v>22.69</v>
+      </c>
+      <c r="E165">
+        <v>22.47</v>
+      </c>
+      <c r="F165">
+        <v>23.8</v>
+      </c>
+      <c r="G165">
+        <v>22.41</v>
+      </c>
+      <c r="H165">
+        <v>1.294642857142869</v>
+      </c>
+      <c r="I165" t="s">
+        <v>353</v>
+      </c>
+      <c r="J165">
+        <v>7992</v>
+      </c>
+      <c r="K165">
+        <v>2073800</v>
+      </c>
+      <c r="L165">
+        <v>48103149</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>175</v>
+      </c>
+      <c r="C166" t="s">
+        <v>189</v>
+      </c>
+      <c r="D166">
+        <v>22.83</v>
+      </c>
+      <c r="E166">
+        <v>22.8</v>
+      </c>
+      <c r="F166">
+        <v>23.19</v>
+      </c>
+      <c r="G166">
+        <v>22.63</v>
+      </c>
+      <c r="H166">
+        <v>2.745274527452743</v>
+      </c>
+      <c r="I166" t="s">
+        <v>354</v>
+      </c>
+      <c r="J166">
+        <v>21107</v>
+      </c>
+      <c r="K166">
+        <v>5588600</v>
+      </c>
+      <c r="L166">
+        <v>128308876</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C167" t="s">
+        <v>189</v>
+      </c>
+      <c r="D167">
+        <v>55.64</v>
+      </c>
+      <c r="E167">
+        <v>53.38</v>
+      </c>
+      <c r="F167">
+        <v>55.97</v>
+      </c>
+      <c r="G167">
+        <v>53.38</v>
+      </c>
+      <c r="H167">
+        <v>5.518680068272338</v>
+      </c>
+      <c r="I167" t="s">
+        <v>355</v>
+      </c>
+      <c r="J167">
+        <v>3688</v>
+      </c>
+      <c r="K167">
+        <v>651900</v>
+      </c>
+      <c r="L167">
+        <v>36094755</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>177</v>
+      </c>
+      <c r="C168" t="s">
+        <v>189</v>
+      </c>
+      <c r="D168">
+        <v>13.07</v>
+      </c>
+      <c r="E168">
+        <v>13.42</v>
+      </c>
+      <c r="F168">
+        <v>13.5</v>
+      </c>
+      <c r="G168">
+        <v>12.96</v>
+      </c>
+      <c r="H168">
+        <v>-2.097378277153553</v>
+      </c>
+      <c r="I168" t="s">
+        <v>356</v>
+      </c>
+      <c r="J168">
+        <v>33428</v>
+      </c>
+      <c r="K168">
+        <v>20396600</v>
+      </c>
+      <c r="L168">
+        <v>268226452</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>178</v>
+      </c>
+      <c r="C169" t="s">
+        <v>189</v>
+      </c>
+      <c r="D169">
+        <v>87.66</v>
+      </c>
+      <c r="E169">
+        <v>90.18000000000001</v>
+      </c>
+      <c r="F169">
+        <v>90.58</v>
+      </c>
+      <c r="G169">
+        <v>87.51000000000001</v>
+      </c>
+      <c r="H169">
+        <v>-3.955297469047879</v>
+      </c>
+      <c r="I169" t="s">
+        <v>357</v>
+      </c>
+      <c r="J169">
+        <v>86672</v>
+      </c>
+      <c r="K169">
+        <v>34426700</v>
+      </c>
+      <c r="L169">
+        <v>3046137728</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>179</v>
+      </c>
+      <c r="C170" t="s">
+        <v>189</v>
+      </c>
+      <c r="D170">
+        <v>25.84</v>
+      </c>
+      <c r="E170">
+        <v>25.88</v>
+      </c>
+      <c r="F170">
+        <v>26.55</v>
+      </c>
+      <c r="G170">
+        <v>25.3</v>
+      </c>
+      <c r="H170">
+        <v>0.3495145631067956</v>
+      </c>
+      <c r="I170" t="s">
+        <v>358</v>
+      </c>
+      <c r="J170">
+        <v>5928</v>
+      </c>
+      <c r="K170">
+        <v>1408300</v>
+      </c>
+      <c r="L170">
+        <v>36433217</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>180</v>
+      </c>
+      <c r="C171" t="s">
+        <v>189</v>
+      </c>
+      <c r="D171">
+        <v>46.61</v>
+      </c>
+      <c r="E171">
+        <v>46.73</v>
+      </c>
+      <c r="F171">
+        <v>47.05</v>
+      </c>
+      <c r="G171">
+        <v>46.07</v>
+      </c>
+      <c r="H171">
+        <v>1.480513825386457</v>
+      </c>
+      <c r="I171" t="s">
+        <v>359</v>
+      </c>
+      <c r="J171">
+        <v>20364</v>
+      </c>
+      <c r="K171">
+        <v>3181800</v>
+      </c>
+      <c r="L171">
+        <v>148405489</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>181</v>
+      </c>
+      <c r="C172" t="s">
+        <v>189</v>
+      </c>
+      <c r="D172">
+        <v>8.85</v>
+      </c>
+      <c r="E172">
+        <v>8.74</v>
+      </c>
+      <c r="F172">
+        <v>9.02</v>
+      </c>
+      <c r="G172">
+        <v>8.74</v>
+      </c>
+      <c r="H172">
+        <v>1.258581235697934</v>
+      </c>
+      <c r="I172" t="s">
+        <v>360</v>
+      </c>
+      <c r="J172">
+        <v>1748</v>
+      </c>
+      <c r="K172">
+        <v>483500</v>
+      </c>
+      <c r="L172">
+        <v>4295929</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>182</v>
+      </c>
+      <c r="C173" t="s">
+        <v>189</v>
+      </c>
+      <c r="D173">
+        <v>8.77</v>
+      </c>
+      <c r="E173">
+        <v>8.84</v>
+      </c>
+      <c r="F173">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="G173">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="H173">
+        <v>0.3432494279176128</v>
+      </c>
+      <c r="I173" t="s">
+        <v>361</v>
+      </c>
+      <c r="J173">
+        <v>4571</v>
+      </c>
+      <c r="K173">
+        <v>1359900</v>
+      </c>
+      <c r="L173">
+        <v>12055129</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>183</v>
+      </c>
+      <c r="C174" t="s">
+        <v>189</v>
+      </c>
+      <c r="D174">
+        <v>15.28</v>
+      </c>
+      <c r="E174">
+        <v>14.5</v>
+      </c>
+      <c r="F174">
+        <v>15.39</v>
+      </c>
+      <c r="G174">
+        <v>14.5</v>
+      </c>
+      <c r="H174">
+        <v>6.258692628650894</v>
+      </c>
+      <c r="I174" t="s">
+        <v>362</v>
+      </c>
+      <c r="J174">
+        <v>74353</v>
+      </c>
+      <c r="K174">
+        <v>66421100</v>
+      </c>
+      <c r="L174">
+        <v>1001370728</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>184</v>
+      </c>
+      <c r="C175" t="s">
+        <v>189</v>
+      </c>
+      <c r="D175">
+        <v>85</v>
+      </c>
+      <c r="E175">
+        <v>86</v>
+      </c>
+      <c r="F175">
+        <v>87.33</v>
+      </c>
+      <c r="G175">
+        <v>84.39</v>
+      </c>
+      <c r="H175">
+        <v>0.5441211260941492</v>
+      </c>
+      <c r="I175" t="s">
+        <v>363</v>
+      </c>
+      <c r="J175">
+        <v>29410</v>
+      </c>
+      <c r="K175">
+        <v>6608500</v>
+      </c>
+      <c r="L175">
+        <v>564785337</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>185</v>
+      </c>
+      <c r="C176" t="s">
+        <v>189</v>
+      </c>
+      <c r="D176">
+        <v>8.19</v>
+      </c>
+      <c r="E176">
+        <v>7.81</v>
+      </c>
+      <c r="F176">
+        <v>8.19</v>
+      </c>
+      <c r="G176">
+        <v>7.79</v>
+      </c>
+      <c r="H176">
+        <v>5.405405405405404</v>
+      </c>
+      <c r="I176" t="s">
+        <v>364</v>
+      </c>
+      <c r="J176">
+        <v>4550</v>
+      </c>
+      <c r="K176">
+        <v>2123000</v>
+      </c>
+      <c r="L176">
+        <v>17019511</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>186</v>
+      </c>
+      <c r="C177" t="s">
+        <v>189</v>
+      </c>
+      <c r="D177">
+        <v>34.83</v>
+      </c>
+      <c r="E177">
+        <v>34.4</v>
+      </c>
+      <c r="F177">
+        <v>35.49</v>
+      </c>
+      <c r="G177">
+        <v>34.3</v>
+      </c>
+      <c r="H177">
+        <v>2.986398580721461</v>
+      </c>
+      <c r="I177" t="s">
+        <v>365</v>
+      </c>
+      <c r="J177">
+        <v>15880</v>
+      </c>
+      <c r="K177">
+        <v>2785100</v>
+      </c>
+      <c r="L177">
+        <v>97390315</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>187</v>
+      </c>
+      <c r="C178" t="s">
+        <v>189</v>
+      </c>
+      <c r="D178">
+        <v>98.83</v>
+      </c>
+      <c r="E178">
+        <v>100.53</v>
+      </c>
+      <c r="F178">
+        <v>100.85</v>
+      </c>
+      <c r="G178">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="H178">
+        <v>0.3655935818015634</v>
+      </c>
+      <c r="I178" t="s">
+        <v>366</v>
+      </c>
+      <c r="J178">
+        <v>20617</v>
+      </c>
+      <c r="K178">
+        <v>3737800</v>
+      </c>
+      <c r="L178">
+        <v>369660905</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>188</v>
+      </c>
+      <c r="C179" t="s">
+        <v>189</v>
+      </c>
+      <c r="D179">
+        <v>21.3</v>
+      </c>
+      <c r="E179">
+        <v>21.89</v>
+      </c>
+      <c r="F179">
+        <v>23.28</v>
+      </c>
+      <c r="G179">
+        <v>20.12</v>
+      </c>
+      <c r="H179">
+        <v>1.525262154432794</v>
+      </c>
+      <c r="I179" t="s">
+        <v>367</v>
+      </c>
+      <c r="J179">
+        <v>30468</v>
+      </c>
+      <c r="K179">
+        <v>13006400</v>
+      </c>
+      <c r="L179">
+        <v>282022974</v>
       </c>
     </row>
   </sheetData>
